--- a/UDA-MEMO.xlsx
+++ b/UDA-MEMO.xlsx
@@ -1,27 +1,432 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="415" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="415" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="tensorflow" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="miniflow" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="NeuralNet" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="tensorflow" sheetId="1" r:id="rId1"/>
+    <sheet name="miniflow" sheetId="2" r:id="rId2"/>
+    <sheet name="NeuralNet" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <r>
+      <t xml:space="preserve">Now I'll write this out in code for the case of only one output unit. We'll also be using the sigmoid as the activation function </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="KaTeX_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>f(h)f(h)f(h)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t># Defining the sigmoid function for activations</t>
+  </si>
+  <si>
+    <t>def sigmoid(x):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>/(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>+np.exp(-x))</t>
+    </r>
+  </si>
+  <si>
+    <t># Derivative of the sigmoid function</t>
+  </si>
+  <si>
+    <t>def sigmoid_prime(x):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sigmoid(x) * (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - sigmoid(x))</t>
+    </r>
+  </si>
+  <si>
+    <t># Input data</t>
+  </si>
+  <si>
+    <r>
+      <t>x = np.array([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <t># Target</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">y = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+  </si>
+  <si>
+    <t># Input to output weights</t>
+  </si>
+  <si>
+    <r>
+      <t>weights = np.array([-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <t># The learning rate, eta in the weight step equation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">learnrate = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+  </si>
+  <si>
+    <t># The neural network output (y-hat)</t>
+  </si>
+  <si>
+    <r>
+      <t>nn_output = sigmoid(x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>]*weights[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>] + x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>]*weights[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <t># or nn_output = sigmoid(np.dot(x, weights))</t>
+  </si>
+  <si>
+    <t># output error (y - y-hat)</t>
+  </si>
+  <si>
+    <t>error = y - nn_output</t>
+  </si>
+  <si>
+    <t># error term (lowercase delta)</t>
+  </si>
+  <si>
+    <t>error_term = error * sigmoid_prime(np.dot(x,weights))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Gradient descent step </t>
+  </si>
+  <si>
+    <r>
+      <t>del_w = [ learnrate * error_term * x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                 learnrate * error_term * x[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+  </si>
+  <si>
+    <t># or del_w = learnrate * error_term * x</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="TakaoPGothic"/>
@@ -29,19 +434,46 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
+      <color rgb="FF58646D"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2E3D49"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="KaTeX_Main"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,7 +485,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -61,50 +493,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -120,11 +545,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="画像 1" descr=""/>
+        <xdr:cNvPr id="2" name="画像 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -159,11 +584,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="画像 2" descr=""/>
+        <xdr:cNvPr id="3" name="画像 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -198,11 +623,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="画像 3" descr=""/>
+        <xdr:cNvPr id="4" name="画像 3"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -237,11 +662,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="画像 4" descr=""/>
+        <xdr:cNvPr id="5" name="画像 4"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -276,11 +701,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="画像 5" descr=""/>
+        <xdr:cNvPr id="6" name="画像 5"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -315,11 +740,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="画像 6" descr=""/>
+        <xdr:cNvPr id="7" name="画像 6"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -354,11 +779,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="画像 7" descr=""/>
+        <xdr:cNvPr id="8" name="画像 7"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -382,7 +807,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -398,11 +823,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="画像 8" descr=""/>
+        <xdr:cNvPr id="7" name="画像 8"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -426,7 +851,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -442,11 +867,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="画像 9" descr=""/>
+        <xdr:cNvPr id="8" name="画像 9"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -476,16 +901,16 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>277200</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="画像 10" descr=""/>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="画像 10"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -513,18 +938,18 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>703440</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1765</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="画像 11" descr=""/>
+        <xdr:cNvPr id="10" name="画像 11"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -554,16 +979,16 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>475560</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="画像 12" descr=""/>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="画像 12"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -598,11 +1023,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="画像 13" descr=""/>
+        <xdr:cNvPr id="12" name="画像 13"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -637,11 +1062,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="画像 14" descr=""/>
+        <xdr:cNvPr id="13" name="画像 14"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -669,18 +1094,18 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>693360</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1210</xdr:colOff>
       <xdr:row>184</xdr:row>
       <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="画像 15" descr=""/>
+        <xdr:cNvPr id="14" name="画像 15"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -715,11 +1140,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="画像 16" descr=""/>
+        <xdr:cNvPr id="15" name="画像 16"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -754,11 +1179,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="画像 17" descr=""/>
+        <xdr:cNvPr id="16" name="画像 17"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -793,11 +1218,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="画像 18" descr=""/>
+        <xdr:cNvPr id="17" name="画像 18"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -827,16 +1252,16 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>259</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="画像 19" descr=""/>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="画像 19"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -852,6 +1277,247 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>365866</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8595466" y="381000"/>
+          <a:ext cx="13531109" cy="7505700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19" descr="https://d17h27t6h515a5.cloudfront.net/topher/2017/February/58951180_perceptron-equation-2/perceptron-equation-2.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10629900" y="6743700"/>
+          <a:ext cx="8705850" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21336001" y="76201"/>
+          <a:ext cx="5715000" cy="6197472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>408805</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>37863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="39833550"/>
+          <a:ext cx="6161905" cy="1895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>589800</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>104134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="48034575"/>
+          <a:ext cx="6000000" cy="5133334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -859,26 +1525,308 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.1711711711712"/>
+    <col min="1" max="1025" width="10.140625"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
@@ -887,25 +1835,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.1711711711712"/>
+    <col min="1" max="1025" width="10.140625"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
@@ -914,28 +1859,186 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B13:AK307"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B236" activeCellId="0" sqref="B236"/>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.1711711711712"/>
+    <col min="1" max="1025" width="10.140625"/>
   </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <sheetData>
+    <row r="13" spans="37:37" ht="12.75">
+      <c r="AK13" s="1"/>
+    </row>
+    <row r="264" spans="2:2" ht="18">
+      <c r="B264" s="3"/>
+    </row>
+    <row r="274" spans="2:2" ht="14.25">
+      <c r="B274" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" s="2"/>
+    </row>
+    <row r="276" spans="2:2" ht="14.25">
+      <c r="B276" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" ht="14.25">
+      <c r="B277" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" ht="14.25">
+      <c r="B278" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" s="2"/>
+    </row>
+    <row r="280" spans="2:2" ht="14.25">
+      <c r="B280" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" ht="14.25">
+      <c r="B281" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" ht="14.25">
+      <c r="B282" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" s="2"/>
+    </row>
+    <row r="284" spans="2:2" ht="14.25">
+      <c r="B284" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" ht="14.25">
+      <c r="B285" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" ht="14.25">
+      <c r="B286" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" ht="14.25">
+      <c r="B287" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" ht="14.25">
+      <c r="B288" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" ht="14.25">
+      <c r="B289" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="2"/>
+    </row>
+    <row r="291" spans="2:2" ht="14.25">
+      <c r="B291" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" ht="14.25">
+      <c r="B292" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" s="2"/>
+    </row>
+    <row r="294" spans="2:2" ht="14.25">
+      <c r="B294" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" ht="14.25">
+      <c r="B295" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" ht="14.25">
+      <c r="B296" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" s="2"/>
+    </row>
+    <row r="298" spans="2:2" ht="14.25">
+      <c r="B298" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" ht="12.75">
+      <c r="B299" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" s="2"/>
+    </row>
+    <row r="301" spans="2:2" ht="14.25">
+      <c r="B301" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" ht="12.75">
+      <c r="B302" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" s="2"/>
+    </row>
+    <row r="304" spans="2:2" ht="14.25">
+      <c r="B304" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" ht="14.25">
+      <c r="B305" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" ht="14.25">
+      <c r="B306" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" ht="14.25">
+      <c r="B307" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/UDA-MEMO.xlsx
+++ b/UDA-MEMO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="208" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="563" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="tensorflow" sheetId="1" state="visible" r:id="rId2"/>
@@ -692,15 +692,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>330480</xdr:colOff>
+      <xdr:colOff>357480</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>277920</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -715,8 +715,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="330480" y="6240960"/>
-          <a:ext cx="8859960" cy="3035160"/>
+          <a:off x="357480" y="6231960"/>
+          <a:ext cx="8859600" cy="3034800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -731,15 +731,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>730440</xdr:colOff>
+      <xdr:colOff>757440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>807120</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>23400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -754,8 +754,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="730440" y="0"/>
-          <a:ext cx="4938120" cy="2331000"/>
+          <a:off x="757440" y="0"/>
+          <a:ext cx="4937760" cy="2330640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -770,15 +770,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>661320</xdr:colOff>
+      <xdr:colOff>688320</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>314280</xdr:colOff>
+      <xdr:colOff>340920</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -793,8 +793,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="661320" y="3175920"/>
-          <a:ext cx="5324760" cy="2759400"/>
+          <a:off x="688320" y="3166920"/>
+          <a:ext cx="5324400" cy="2759040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -809,15 +809,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>316080</xdr:colOff>
+      <xdr:colOff>343080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>117360</xdr:colOff>
+      <xdr:colOff>144000</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -832,8 +832,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10038960" y="4449960"/>
-          <a:ext cx="7903800" cy="4426560"/>
+          <a:off x="10065960" y="4440960"/>
+          <a:ext cx="7903440" cy="4426200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -848,15 +848,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>177840</xdr:colOff>
+      <xdr:colOff>204840</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>710640</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:colOff>737280</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -871,8 +871,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3418560" y="6946920"/>
-          <a:ext cx="1343160" cy="159840"/>
+          <a:off x="3445560" y="6937920"/>
+          <a:ext cx="1342800" cy="159480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -887,15 +887,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>585360</xdr:colOff>
+      <xdr:colOff>612360</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>340560</xdr:colOff>
+      <xdr:colOff>367200</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -904,8 +904,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1395360" y="10076760"/>
-          <a:ext cx="6237360" cy="3788280"/>
+          <a:off x="1422360" y="10067760"/>
+          <a:ext cx="6237000" cy="3787920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1035,15 +1035,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>132480</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:colOff>159480</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>655920</xdr:colOff>
+      <xdr:colOff>682560</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1052,8 +1052,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5804280" y="10184760"/>
-          <a:ext cx="2143800" cy="514800"/>
+          <a:off x="5831280" y="10175760"/>
+          <a:ext cx="2143440" cy="514440"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1113,15 +1113,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>230760</xdr:colOff>
+      <xdr:colOff>257760</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>754200</xdr:colOff>
+      <xdr:colOff>780840</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1130,8 +1130,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5902560" y="10771560"/>
-          <a:ext cx="2143800" cy="514800"/>
+          <a:off x="5929560" y="10762560"/>
+          <a:ext cx="2143440" cy="514440"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1197,15 +1197,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>526680</xdr:colOff>
+      <xdr:colOff>553680</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>239760</xdr:colOff>
+      <xdr:colOff>266400</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1214,8 +1214,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6198480" y="9608760"/>
-          <a:ext cx="2143800" cy="514800"/>
+          <a:off x="6225480" y="9599760"/>
+          <a:ext cx="2143440" cy="514440"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1255,15 +1255,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>548280</xdr:colOff>
+      <xdr:colOff>575280</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>261360</xdr:colOff>
+      <xdr:colOff>288000</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1272,8 +1272,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6220080" y="11706480"/>
-          <a:ext cx="2143800" cy="514800"/>
+          <a:off x="6247080" y="11697480"/>
+          <a:ext cx="2143440" cy="514440"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1332,16 +1332,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>789120</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5760</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>86400</xdr:colOff>
+      <xdr:colOff>113040</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1350,8 +1350,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5650560" y="12989160"/>
-          <a:ext cx="4158720" cy="514800"/>
+          <a:off x="5677560" y="12980160"/>
+          <a:ext cx="4158360" cy="514440"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1440,6 +1440,201 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>789480</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>82440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279000</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>115200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="画像 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="789480" y="13503600"/>
+          <a:ext cx="4350960" cy="3700440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>270000</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>101160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22680</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>100800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="画像 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5131440" y="13522320"/>
+          <a:ext cx="4614120" cy="4124520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>752040</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>140760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>603720</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>34560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="画像 21" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752040" y="18001800"/>
+          <a:ext cx="4713120" cy="3571920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>226800</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="画像 22" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="810000" y="21843720"/>
+          <a:ext cx="6708960" cy="4848480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>483840</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>133560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="画像 23" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="810000" y="26883360"/>
+          <a:ext cx="6966000" cy="3333960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1448,19 +1643,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>608400</xdr:colOff>
+      <xdr:colOff>635400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>787680</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="画像 8" descr=""/>
+        <xdr:cNvPr id="16" name="画像 8" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1471,8 +1666,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="608400" y="0"/>
-          <a:ext cx="5040720" cy="4298400"/>
+          <a:off x="635400" y="0"/>
+          <a:ext cx="5040360" cy="4298040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1487,25 +1682,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>470160</xdr:colOff>
+      <xdr:colOff>497160</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>230040</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:colOff>256680</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6141960" y="1802160"/>
-          <a:ext cx="6241680" cy="4865040"/>
+          <a:off x="6168960" y="1793160"/>
+          <a:ext cx="6241320" cy="4864680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1629,19 +1824,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>248760</xdr:colOff>
+      <xdr:colOff>275760</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>385200</xdr:colOff>
+      <xdr:colOff>411840</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="画像 20" descr=""/>
+        <xdr:cNvPr id="18" name="画像 20" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1652,8 +1847,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5920560" y="4851720"/>
-          <a:ext cx="6618240" cy="2512440"/>
+          <a:off x="5947560" y="4842720"/>
+          <a:ext cx="6617880" cy="2512080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1668,25 +1863,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>421200</xdr:colOff>
+      <xdr:colOff>448200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>641520</xdr:colOff>
+      <xdr:colOff>668160</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10144080" y="2136960"/>
-          <a:ext cx="1841040" cy="408240"/>
+          <a:off x="10171080" y="2127960"/>
+          <a:ext cx="1840680" cy="407880"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -1748,25 +1943,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>421200</xdr:colOff>
+      <xdr:colOff>448200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>641520</xdr:colOff>
+      <xdr:colOff>668160</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvPr id="20" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10144080" y="2746080"/>
-          <a:ext cx="1841040" cy="408240"/>
+          <a:off x="10171080" y="2737080"/>
+          <a:ext cx="1840680" cy="407880"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -1834,25 +2029,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>158760</xdr:colOff>
+      <xdr:colOff>185760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>92520</xdr:colOff>
+      <xdr:colOff>119160</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvPr id="21" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12312360" y="3557880"/>
-          <a:ext cx="5605560" cy="1119240"/>
+          <a:off x="12339360" y="3548880"/>
+          <a:ext cx="5605200" cy="1118880"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1979,19 +2174,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>40320</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="画像 9" descr=""/>
+        <xdr:cNvPr id="22" name="画像 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2002,8 +2197,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="189000" y="394200"/>
-          <a:ext cx="8763840" cy="4045320"/>
+          <a:off x="216000" y="385200"/>
+          <a:ext cx="8763480" cy="4044960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2018,19 +2213,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>463680</xdr:colOff>
+      <xdr:colOff>490320</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="画像 10" descr=""/>
+        <xdr:cNvPr id="23" name="画像 10" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2041,8 +2236,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="189000" y="4975560"/>
-          <a:ext cx="7566840" cy="3046320"/>
+          <a:off x="216000" y="4966560"/>
+          <a:ext cx="7566480" cy="3045960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2057,19 +2252,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>188280</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>214920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="画像 11" descr=""/>
+        <xdr:cNvPr id="24" name="画像 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2080,8 +2275,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="189000" y="8328240"/>
-          <a:ext cx="6481080" cy="2721600"/>
+          <a:off x="216000" y="8319240"/>
+          <a:ext cx="6480720" cy="2721240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2096,19 +2291,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>662040</xdr:colOff>
+      <xdr:colOff>688680</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="画像 12" descr=""/>
+        <xdr:cNvPr id="25" name="画像 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2119,8 +2314,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="189000" y="11224080"/>
-          <a:ext cx="8575560" cy="3807720"/>
+          <a:off x="216000" y="11215080"/>
+          <a:ext cx="8575200" cy="3807360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2135,19 +2330,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
+      <xdr:colOff>255240</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:colOff>529560</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="画像 13" descr=""/>
+        <xdr:cNvPr id="26" name="画像 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2158,8 +2353,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228240" y="15792120"/>
-          <a:ext cx="9187200" cy="3759480"/>
+          <a:off x="255240" y="15783120"/>
+          <a:ext cx="9186840" cy="3759120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2174,19 +2369,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>493200</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:colOff>519840</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="画像 14" descr=""/>
+        <xdr:cNvPr id="27" name="画像 14" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2197,8 +2392,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="189000" y="19910880"/>
-          <a:ext cx="7596360" cy="4550400"/>
+          <a:off x="216000" y="19901880"/>
+          <a:ext cx="7596000" cy="4550040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2213,19 +2408,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>187560</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:colOff>214200</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="画像 15" descr=""/>
+        <xdr:cNvPr id="28" name="画像 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2236,8 +2431,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="189000" y="24635160"/>
-          <a:ext cx="7290720" cy="3464640"/>
+          <a:off x="216000" y="24626160"/>
+          <a:ext cx="7290360" cy="3464280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2252,19 +2447,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>185</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>662040</xdr:colOff>
+      <xdr:colOff>688680</xdr:colOff>
       <xdr:row>203</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="画像 16" descr=""/>
+        <xdr:cNvPr id="29" name="画像 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2275,8 +2470,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="189000" y="28445040"/>
-          <a:ext cx="5334480" cy="2731320"/>
+          <a:off x="216000" y="28436040"/>
+          <a:ext cx="5334120" cy="2730960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2291,19 +2486,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>204</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>641880</xdr:colOff>
+      <xdr:colOff>668520</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="画像 17" descr=""/>
+        <xdr:cNvPr id="30" name="画像 17" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2314,8 +2509,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="189000" y="31340880"/>
-          <a:ext cx="7745040" cy="2502360"/>
+          <a:off x="216000" y="31331880"/>
+          <a:ext cx="7744680" cy="2502000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2330,19 +2525,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>229</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="画像 18" descr=""/>
+        <xdr:cNvPr id="31" name="画像 18" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2353,8 +2548,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="999000" y="34084080"/>
-          <a:ext cx="5502960" cy="1130760"/>
+          <a:off x="1026000" y="34075080"/>
+          <a:ext cx="5502600" cy="1130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2369,19 +2564,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>233</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>334800</xdr:colOff>
+      <xdr:colOff>361440</xdr:colOff>
       <xdr:row>258</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="画像 19" descr=""/>
+        <xdr:cNvPr id="32" name="画像 19" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2392,8 +2587,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="999000" y="35760240"/>
-          <a:ext cx="5007600" cy="3808080"/>
+          <a:off x="1026000" y="35751240"/>
+          <a:ext cx="5007240" cy="3807720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2408,19 +2603,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>554760</xdr:colOff>
+      <xdr:colOff>581760</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>367200</xdr:colOff>
+      <xdr:colOff>393840</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 18" descr=""/>
+        <xdr:cNvPr id="33" name="図 18" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2431,8 +2626,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10277640" y="317880"/>
-          <a:ext cx="16017840" cy="7512840"/>
+          <a:off x="10304640" y="308880"/>
+          <a:ext cx="16017480" cy="7512480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2447,19 +2642,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>532080</xdr:colOff>
+      <xdr:colOff>559080</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:colOff>346680</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 19" descr=""/>
+        <xdr:cNvPr id="34" name="図 19" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2470,8 +2665,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12685680" y="6690240"/>
-          <a:ext cx="10321560" cy="1130760"/>
+          <a:off x="12712680" y="6681240"/>
+          <a:ext cx="10321200" cy="1130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2486,19 +2681,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>265320</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>491400</xdr:colOff>
+      <xdr:colOff>518040</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 20" descr=""/>
+        <xdr:cNvPr id="35" name="図 20" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2509,8 +2704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25383240" y="13320"/>
-          <a:ext cx="6708240" cy="6204600"/>
+          <a:off x="25410240" y="4320"/>
+          <a:ext cx="6707880" cy="6204240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2525,19 +2720,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>522360</xdr:colOff>
+      <xdr:colOff>549360</xdr:colOff>
       <xdr:row>259</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>595440</xdr:colOff>
+      <xdr:colOff>622080</xdr:colOff>
       <xdr:row>271</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 2" descr=""/>
+        <xdr:cNvPr id="36" name="図 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2548,8 +2743,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="522360" y="39770280"/>
-          <a:ext cx="7365240" cy="1892880"/>
+          <a:off x="549360" y="39761280"/>
+          <a:ext cx="7364880" cy="1892520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2564,19 +2759,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>308</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>776160</xdr:colOff>
+      <xdr:colOff>802800</xdr:colOff>
       <xdr:row>341</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 3" descr=""/>
+        <xdr:cNvPr id="37" name="図 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2587,8 +2782,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="999000" y="47971440"/>
-          <a:ext cx="7069320" cy="5130720"/>
+          <a:off x="1026000" y="47962440"/>
+          <a:ext cx="7068960" cy="5130360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2603,25 +2798,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>473040</xdr:colOff>
+      <xdr:colOff>500040</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>787320</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1"/>
+        <xdr:cNvPr id="38" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10195920" y="9549360"/>
-          <a:ext cx="7606800" cy="14857560"/>
+          <a:off x="10222920" y="9540360"/>
+          <a:ext cx="7606440" cy="14857200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3534,25 +3729,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>471600</xdr:colOff>
+      <xdr:colOff>498600</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>405360</xdr:colOff>
+      <xdr:colOff>432000</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="CustomShape 1"/>
+        <xdr:cNvPr id="39" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14245920" y="10872720"/>
-          <a:ext cx="5605560" cy="1119240"/>
+          <a:off x="14272920" y="10863720"/>
+          <a:ext cx="5605200" cy="1118880"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -3648,25 +3843,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>575280</xdr:colOff>
+      <xdr:colOff>602280</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>769320</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:colOff>795960</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="CustomShape 1"/>
+        <xdr:cNvPr id="40" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14349600" y="15653520"/>
-          <a:ext cx="4245120" cy="1119240"/>
+          <a:off x="14376600" y="15644520"/>
+          <a:ext cx="4244760" cy="1118880"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -3765,13 +3960,7 @@
             <a:rPr lang="en-US" sz="1000">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Y-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>Y^</a:t>
+            <a:t>Y-Y^</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000">
@@ -3880,19 +4069,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>415080</xdr:colOff>
+      <xdr:colOff>442080</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>533520</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:colOff>560160</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="画像 5" descr=""/>
+        <xdr:cNvPr id="41" name="画像 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3903,8 +4092,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14999760" y="12691800"/>
-          <a:ext cx="6600240" cy="2057400"/>
+          <a:off x="15026760" y="12682800"/>
+          <a:ext cx="6599880" cy="2057040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3926,8 +4115,8 @@
   </sheetPr>
   <dimension ref="A4:A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J79" activeCellId="0" sqref="J79"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B175" activeCellId="0" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3966,7 +4155,11 @@
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3986,7 +4179,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H4" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -4065,7 +4258,7 @@
   </sheetPr>
   <dimension ref="B13:AK311"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M85" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M85" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U108" activeCellId="0" sqref="U108"/>
     </sheetView>
   </sheetViews>
@@ -4083,12 +4276,15 @@
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/UDA-MEMO.xlsx
+++ b/UDA-MEMO.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="563" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="563" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tensorflow" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="miniflow" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="NeuralNet" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="deep_learning" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -692,15 +693,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>357480</xdr:colOff>
+      <xdr:colOff>384480</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>331200</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -715,8 +716,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="357480" y="6231960"/>
-          <a:ext cx="8859600" cy="3034800"/>
+          <a:off x="384480" y="6222960"/>
+          <a:ext cx="8859240" cy="3034440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -731,15 +732,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>757440</xdr:colOff>
+      <xdr:colOff>784440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>23400</xdr:colOff>
+      <xdr:colOff>50040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -754,8 +755,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="757440" y="0"/>
-          <a:ext cx="4937760" cy="2330640"/>
+          <a:off x="784440" y="0"/>
+          <a:ext cx="4937400" cy="2330280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -770,15 +771,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>688320</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>340920</xdr:colOff>
+      <xdr:colOff>367560</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -793,8 +794,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="688320" y="3166920"/>
-          <a:ext cx="5324400" cy="2759040"/>
+          <a:off x="715320" y="3157920"/>
+          <a:ext cx="5324040" cy="2758680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -809,15 +810,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>343080</xdr:colOff>
+      <xdr:colOff>370080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>144000</xdr:colOff>
+      <xdr:colOff>170640</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -832,8 +833,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10065960" y="4440960"/>
-          <a:ext cx="7903440" cy="4426200"/>
+          <a:off x="10092960" y="4431960"/>
+          <a:ext cx="7903080" cy="4425840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -848,15 +849,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>204840</xdr:colOff>
+      <xdr:colOff>231840</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>737280</xdr:colOff>
+      <xdr:colOff>763920</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -871,8 +872,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3445560" y="6937920"/>
-          <a:ext cx="1342800" cy="159480"/>
+          <a:off x="3472560" y="6928920"/>
+          <a:ext cx="1342440" cy="159120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -887,15 +888,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>612360</xdr:colOff>
+      <xdr:colOff>639360</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>367200</xdr:colOff>
+      <xdr:colOff>393840</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -904,8 +905,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1422360" y="10067760"/>
-          <a:ext cx="6237000" cy="3787920"/>
+          <a:off x="1449360" y="10058760"/>
+          <a:ext cx="6236640" cy="3787560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1035,15 +1036,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>159480</xdr:colOff>
+      <xdr:colOff>186480</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>682560</xdr:colOff>
+      <xdr:colOff>709200</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1052,8 +1053,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5831280" y="10175760"/>
-          <a:ext cx="2143440" cy="514440"/>
+          <a:off x="5858280" y="10166760"/>
+          <a:ext cx="2143080" cy="514080"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1113,15 +1114,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>257760</xdr:colOff>
+      <xdr:colOff>284760</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>780840</xdr:colOff>
+      <xdr:colOff>807480</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1130,8 +1131,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5929560" y="10762560"/>
-          <a:ext cx="2143440" cy="514440"/>
+          <a:off x="5956560" y="10753560"/>
+          <a:ext cx="2143080" cy="514080"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1197,15 +1198,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>553680</xdr:colOff>
+      <xdr:colOff>580680</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1214,8 +1215,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6225480" y="9599760"/>
-          <a:ext cx="2143440" cy="514440"/>
+          <a:off x="6252480" y="9590760"/>
+          <a:ext cx="2143080" cy="514080"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1255,15 +1256,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>575280</xdr:colOff>
+      <xdr:colOff>602280</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>314640</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1272,8 +1273,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6247080" y="11697480"/>
-          <a:ext cx="2143440" cy="514440"/>
+          <a:off x="6274080" y="11688480"/>
+          <a:ext cx="2143080" cy="514080"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1333,15 +1334,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
+      <xdr:colOff>32760</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>113040</xdr:colOff>
+      <xdr:colOff>139680</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1350,8 +1351,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5677560" y="12980160"/>
-          <a:ext cx="4158360" cy="514440"/>
+          <a:off x="5704560" y="12971160"/>
+          <a:ext cx="4158000" cy="514080"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1442,16 +1443,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>789480</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6480</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>279000</xdr:colOff>
+      <xdr:colOff>305640</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1466,8 +1467,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="789480" y="13503600"/>
-          <a:ext cx="4350960" cy="3700440"/>
+          <a:off x="816480" y="13494600"/>
+          <a:ext cx="4350600" cy="3700080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1482,15 +1483,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>270000</xdr:colOff>
+      <xdr:colOff>297000</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>22680</xdr:colOff>
+      <xdr:colOff>49320</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1505,8 +1506,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5131440" y="13522320"/>
-          <a:ext cx="4614120" cy="4124520"/>
+          <a:off x="5158440" y="13513320"/>
+          <a:ext cx="4613760" cy="4124160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1521,15 +1522,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>752040</xdr:colOff>
+      <xdr:colOff>779040</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>603720</xdr:colOff>
+      <xdr:colOff>630360</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1544,8 +1545,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="752040" y="18001800"/>
-          <a:ext cx="4713120" cy="3571920"/>
+          <a:off x="779040" y="17992800"/>
+          <a:ext cx="4712760" cy="3571560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1560,15 +1561,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>226800</xdr:colOff>
+      <xdr:colOff>253440</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1583,8 +1584,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="810000" y="21843720"/>
-          <a:ext cx="6708960" cy="4848480"/>
+          <a:off x="837000" y="21834720"/>
+          <a:ext cx="6708600" cy="4848120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1599,15 +1600,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>483840</xdr:colOff>
+      <xdr:colOff>510480</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1622,8 +1623,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="810000" y="26883360"/>
-          <a:ext cx="6966000" cy="3333960"/>
+          <a:off x="837000" y="26874360"/>
+          <a:ext cx="6965640" cy="3333600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1643,15 +1644,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>635400</xdr:colOff>
+      <xdr:colOff>662400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>30600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1666,8 +1667,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635400" y="0"/>
-          <a:ext cx="5040360" cy="4298040"/>
+          <a:off x="662400" y="0"/>
+          <a:ext cx="5040000" cy="4297680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1682,15 +1683,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>497160</xdr:colOff>
+      <xdr:colOff>524160</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>283320</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1699,8 +1700,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6168960" y="1793160"/>
-          <a:ext cx="6241320" cy="4864680"/>
+          <a:off x="6195960" y="1784160"/>
+          <a:ext cx="6240960" cy="4864320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1824,15 +1825,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>275760</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>302760</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>411840</xdr:colOff>
+      <xdr:colOff>438480</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1847,8 +1848,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5947560" y="4842720"/>
-          <a:ext cx="6617880" cy="2512080"/>
+          <a:off x="5974560" y="4833720"/>
+          <a:ext cx="6617520" cy="2511720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1863,15 +1864,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>448200</xdr:colOff>
+      <xdr:colOff>475200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>668160</xdr:colOff>
+      <xdr:colOff>694800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1880,8 +1881,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10171080" y="2127960"/>
-          <a:ext cx="1840680" cy="407880"/>
+          <a:off x="10198080" y="2118960"/>
+          <a:ext cx="1840320" cy="407520"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -1943,15 +1944,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>448200</xdr:colOff>
+      <xdr:colOff>475200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>668160</xdr:colOff>
+      <xdr:colOff>694800</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1960,8 +1961,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10171080" y="2737080"/>
-          <a:ext cx="1840680" cy="407880"/>
+          <a:off x="10198080" y="2728080"/>
+          <a:ext cx="1840320" cy="407520"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -2029,15 +2030,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>185760</xdr:colOff>
+      <xdr:colOff>212760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>119160</xdr:colOff>
+      <xdr:colOff>145800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2046,8 +2047,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12339360" y="3548880"/>
-          <a:ext cx="5605200" cy="1118880"/>
+          <a:off x="12366360" y="3539880"/>
+          <a:ext cx="5604840" cy="1118520"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2174,15 +2175,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>93600</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2197,8 +2198,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="216000" y="385200"/>
-          <a:ext cx="8763480" cy="4044960"/>
+          <a:off x="243000" y="376200"/>
+          <a:ext cx="8763120" cy="4044600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2213,15 +2214,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>490320</xdr:colOff>
+      <xdr:colOff>516960</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2236,8 +2237,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="216000" y="4966560"/>
-          <a:ext cx="7566480" cy="3045960"/>
+          <a:off x="243000" y="4957560"/>
+          <a:ext cx="7566120" cy="3045600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2252,15 +2253,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>214920</xdr:colOff>
+      <xdr:colOff>241560</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2275,8 +2276,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="216000" y="8319240"/>
-          <a:ext cx="6480720" cy="2721240"/>
+          <a:off x="243000" y="8310240"/>
+          <a:ext cx="6480360" cy="2720880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2291,15 +2292,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>688680</xdr:colOff>
+      <xdr:colOff>715320</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2314,8 +2315,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="216000" y="11215080"/>
-          <a:ext cx="8575200" cy="3807360"/>
+          <a:off x="243000" y="11206080"/>
+          <a:ext cx="8574840" cy="3807000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2330,15 +2331,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>255240</xdr:colOff>
+      <xdr:colOff>282240</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>529560</xdr:colOff>
+      <xdr:colOff>556200</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2353,8 +2354,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="255240" y="15783120"/>
-          <a:ext cx="9186840" cy="3759120"/>
+          <a:off x="282240" y="15774120"/>
+          <a:ext cx="9186480" cy="3758760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2369,15 +2370,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>519840</xdr:colOff>
+      <xdr:colOff>546480</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2392,8 +2393,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="216000" y="19901880"/>
-          <a:ext cx="7596000" cy="4550040"/>
+          <a:off x="243000" y="19892880"/>
+          <a:ext cx="7595640" cy="4549680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2408,15 +2409,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>214200</xdr:colOff>
+      <xdr:colOff>240840</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2431,8 +2432,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="216000" y="24626160"/>
-          <a:ext cx="7290360" cy="3464280"/>
+          <a:off x="243000" y="24617160"/>
+          <a:ext cx="7290000" cy="3463920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2447,15 +2448,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>185</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>688680</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>715320</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2470,8 +2471,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="216000" y="28436040"/>
-          <a:ext cx="5334120" cy="2730960"/>
+          <a:off x="243000" y="28427040"/>
+          <a:ext cx="5333760" cy="2730600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2486,15 +2487,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>204</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>668520</xdr:colOff>
+      <xdr:colOff>695160</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2509,8 +2510,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="216000" y="31331880"/>
-          <a:ext cx="7744680" cy="2502000"/>
+          <a:off x="243000" y="31322880"/>
+          <a:ext cx="7744320" cy="2501640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2525,15 +2526,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>229</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2548,8 +2549,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1026000" y="34075080"/>
-          <a:ext cx="5502600" cy="1130400"/>
+          <a:off x="1053000" y="34066080"/>
+          <a:ext cx="5502240" cy="1130040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2564,15 +2565,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>233</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>361440</xdr:colOff>
+      <xdr:colOff>388080</xdr:colOff>
       <xdr:row>258</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2587,8 +2588,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1026000" y="35751240"/>
-          <a:ext cx="5007240" cy="3807720"/>
+          <a:off x="1053000" y="35742240"/>
+          <a:ext cx="5006880" cy="3807360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2603,15 +2604,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>581760</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:colOff>608760</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>393840</xdr:colOff>
+      <xdr:colOff>420480</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2626,8 +2627,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10304640" y="308880"/>
-          <a:ext cx="16017480" cy="7512480"/>
+          <a:off x="10331640" y="299880"/>
+          <a:ext cx="16017120" cy="7512120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2642,15 +2643,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>559080</xdr:colOff>
+      <xdr:colOff>586080</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>346680</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:colOff>373320</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2665,8 +2666,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12712680" y="6681240"/>
-          <a:ext cx="10321200" cy="1130400"/>
+          <a:off x="12739680" y="6672240"/>
+          <a:ext cx="10320840" cy="1130040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2681,15 +2682,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>319320</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>4320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>518040</xdr:colOff>
+      <xdr:colOff>544680</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2704,8 +2705,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25410240" y="4320"/>
-          <a:ext cx="6707880" cy="6204240"/>
+          <a:off x="25437240" y="4320"/>
+          <a:ext cx="6707520" cy="6203880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2720,15 +2721,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>549360</xdr:colOff>
+      <xdr:colOff>576360</xdr:colOff>
       <xdr:row>259</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>622080</xdr:colOff>
+      <xdr:colOff>648720</xdr:colOff>
       <xdr:row>271</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2743,8 +2744,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="549360" y="39761280"/>
-          <a:ext cx="7364880" cy="1892520"/>
+          <a:off x="576360" y="39752280"/>
+          <a:ext cx="7364520" cy="1892160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2759,15 +2760,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>308</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>802800</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19080</xdr:colOff>
       <xdr:row>341</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2782,8 +2783,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1026000" y="47962440"/>
-          <a:ext cx="7068960" cy="5130360"/>
+          <a:off x="1053000" y="47953440"/>
+          <a:ext cx="7068600" cy="5130000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2798,15 +2799,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>500040</xdr:colOff>
+      <xdr:colOff>527040</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>30600</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2815,8 +2816,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10222920" y="9540360"/>
-          <a:ext cx="7606440" cy="14857200"/>
+          <a:off x="10249920" y="9531360"/>
+          <a:ext cx="7606080" cy="14856840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3729,15 +3730,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>498600</xdr:colOff>
+      <xdr:colOff>525600</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>432000</xdr:colOff>
+      <xdr:colOff>458640</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3746,8 +3747,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14272920" y="10863720"/>
-          <a:ext cx="5605200" cy="1118880"/>
+          <a:off x="14299920" y="10854720"/>
+          <a:ext cx="5604840" cy="1118520"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -3843,15 +3844,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>602280</xdr:colOff>
+      <xdr:colOff>629280</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>795960</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12240</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3860,8 +3861,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14376600" y="15644520"/>
-          <a:ext cx="4244760" cy="1118880"/>
+          <a:off x="14403600" y="15635520"/>
+          <a:ext cx="4244400" cy="1118520"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -4069,15 +4070,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>442080</xdr:colOff>
+      <xdr:colOff>469080</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>560160</xdr:colOff>
+      <xdr:colOff>586800</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4092,8 +4093,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15026760" y="12682800"/>
-          <a:ext cx="6599880" cy="2057040"/>
+          <a:off x="15053760" y="12673800"/>
+          <a:ext cx="6599520" cy="2056680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="画像 24" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9198000" cy="4943520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4113,9 +4158,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B175" activeCellId="0" sqref="B175"/>
     </sheetView>
   </sheetViews>
@@ -4124,6 +4169,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.1396396396396"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4160,6 +4206,7 @@
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4459,4 +4506,31 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.1711711711712"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/UDA-MEMO.xlsx
+++ b/UDA-MEMO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="563" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="281" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="tensorflow" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <r>
       <t xml:space="preserve">Now I'll write this out in code for the case of only one output unit. We'll also be using the sigmoid as the activation function </t>
@@ -457,6 +457,9 @@
   <si>
     <t># or del_w = learnrate * error_term * x</t>
   </si>
+  <si>
+    <t>initではなくVariableで宣言</t>
+  </si>
 </sst>
 </file>
 
@@ -465,7 +468,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="TakaoPGothic"/>
@@ -501,6 +504,16 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="TakaoPGothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -592,15 +605,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -608,11 +621,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -693,15 +706,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>384480</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:colOff>465480</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>331200</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:colOff>411120</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -716,8 +729,47 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="384480" y="6222960"/>
-          <a:ext cx="8859240" cy="3034440"/>
+          <a:off x="465480" y="6195960"/>
+          <a:ext cx="8858160" cy="3033360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>55440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>129960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="画像 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="865440" y="0"/>
+          <a:ext cx="4936320" cy="2329200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -732,54 +784,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>796320</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>50040</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="画像 2" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="784440" y="0"/>
-          <a:ext cx="4937400" cy="2330280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>715320</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>367560</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:colOff>447480</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -794,8 +807,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="715320" y="3157920"/>
-          <a:ext cx="5324040" cy="2758680"/>
+          <a:off x="796320" y="3130920"/>
+          <a:ext cx="5322960" cy="2757600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -810,15 +823,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>370080</xdr:colOff>
+      <xdr:colOff>451080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>170640</xdr:colOff>
+      <xdr:colOff>250560</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -833,8 +846,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10092960" y="4431960"/>
-          <a:ext cx="7903080" cy="4425840"/>
+          <a:off x="10173960" y="4404960"/>
+          <a:ext cx="7902000" cy="4424760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -849,15 +862,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>231840</xdr:colOff>
+      <xdr:colOff>312840</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>763920</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -872,8 +885,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3472560" y="6928920"/>
-          <a:ext cx="1342440" cy="159120"/>
+          <a:off x="3553560" y="6901920"/>
+          <a:ext cx="1341360" cy="158040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -888,15 +901,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>639360</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:colOff>720360</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>393840</xdr:colOff>
+      <xdr:colOff>473760</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -905,8 +918,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1449360" y="10058760"/>
-          <a:ext cx="6236640" cy="3787560"/>
+          <a:off x="1530360" y="10031760"/>
+          <a:ext cx="6235560" cy="3786480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1036,15 +1049,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>186480</xdr:colOff>
+      <xdr:colOff>267480</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>709200</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:colOff>789120</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1053,8 +1066,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5858280" y="10166760"/>
-          <a:ext cx="2143080" cy="514080"/>
+          <a:off x="5939280" y="10139760"/>
+          <a:ext cx="2142000" cy="513000"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1114,15 +1127,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>284760</xdr:colOff>
+      <xdr:colOff>365760</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>807480</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>77040</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>101880</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1131,8 +1144,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5956560" y="10753560"/>
-          <a:ext cx="2143080" cy="514080"/>
+          <a:off x="6037560" y="10726560"/>
+          <a:ext cx="2142000" cy="513000"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1198,15 +1211,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>580680</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:colOff>661680</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>372960</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1215,8 +1228,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6252480" y="9590760"/>
-          <a:ext cx="2143080" cy="514080"/>
+          <a:off x="6333480" y="9563760"/>
+          <a:ext cx="2142000" cy="513000"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1256,15 +1269,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>602280</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:colOff>683280</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>314640</xdr:colOff>
+      <xdr:colOff>394560</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1273,8 +1286,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6274080" y="11688480"/>
-          <a:ext cx="2143080" cy="514080"/>
+          <a:off x="6355080" y="11661480"/>
+          <a:ext cx="2142000" cy="513000"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1334,15 +1347,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>32760</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:colOff>113760</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>139680</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:colOff>219600</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1351,8 +1364,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5704560" y="12971160"/>
-          <a:ext cx="4158000" cy="514080"/>
+          <a:off x="5785560" y="12944160"/>
+          <a:ext cx="4156920" cy="513000"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1444,15 +1457,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
+      <xdr:colOff>87480</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>305640</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:colOff>385560</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1467,8 +1480,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="816480" y="13494600"/>
-          <a:ext cx="4350600" cy="3700080"/>
+          <a:off x="897480" y="13467600"/>
+          <a:ext cx="4349520" cy="3699000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1483,15 +1496,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>297000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>49320</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:colOff>129240</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1506,8 +1519,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5158440" y="13513320"/>
-          <a:ext cx="4613760" cy="4124160"/>
+          <a:off x="5239440" y="13486320"/>
+          <a:ext cx="4612680" cy="4123080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1521,16 +1534,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>779040</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50040</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>630360</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:colOff>710280</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1545,8 +1558,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="779040" y="17992800"/>
-          <a:ext cx="4712760" cy="3571560"/>
+          <a:off x="860040" y="17965800"/>
+          <a:ext cx="4711680" cy="3570480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1561,15 +1574,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>253440</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:colOff>333360</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1584,8 +1597,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="837000" y="21834720"/>
-          <a:ext cx="6708600" cy="4848120"/>
+          <a:off x="918000" y="21807720"/>
+          <a:ext cx="6707520" cy="4847040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1600,15 +1613,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>510480</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:colOff>590400</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1623,8 +1636,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="837000" y="26874360"/>
-          <a:ext cx="6965640" cy="3333600"/>
+          <a:off x="918000" y="26847360"/>
+          <a:ext cx="6964560" cy="3332520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1636,6 +1649,166 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>706320</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>48240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>127440</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10429200" y="14434560"/>
+          <a:ext cx="3472560" cy="1133280"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># Remove the previous weights and bias</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>tf.reset_default_graph()</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>162000</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>752760</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>12240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10695240" y="16306200"/>
+          <a:ext cx="5452200" cy="1191240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>TensorFlow</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>では、クラスを使用して進捗状況を保存することができます</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>tf.train.Saver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>このクラスは、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>tf.Variable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>ファイルシステムにファイルを</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>保存する機能を提供します。</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1644,19 +1817,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>662400</xdr:colOff>
+      <xdr:colOff>743400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>30600</xdr:colOff>
+      <xdr:colOff>110520</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="画像 8" descr=""/>
+        <xdr:cNvPr id="18" name="画像 8" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1667,8 +1840,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="662400" y="0"/>
-          <a:ext cx="5040000" cy="4297680"/>
+          <a:off x="743400" y="0"/>
+          <a:ext cx="5038920" cy="4296600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1683,25 +1856,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>524160</xdr:colOff>
+      <xdr:colOff>605160</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>283320</xdr:colOff>
+      <xdr:colOff>363240</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6195960" y="1784160"/>
-          <a:ext cx="6240960" cy="4864320"/>
+          <a:off x="6276960" y="1757160"/>
+          <a:ext cx="6239880" cy="4863240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1825,19 +1998,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>302760</xdr:colOff>
+      <xdr:colOff>383760</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>438480</xdr:colOff>
+      <xdr:colOff>518400</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="画像 20" descr=""/>
+        <xdr:cNvPr id="20" name="画像 20" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1848,8 +2021,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5974560" y="4833720"/>
-          <a:ext cx="6617520" cy="2511720"/>
+          <a:off x="6055560" y="4806720"/>
+          <a:ext cx="6616440" cy="2510640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1864,25 +2037,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>475200</xdr:colOff>
+      <xdr:colOff>556200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>694800</xdr:colOff>
+      <xdr:colOff>774720</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvPr id="21" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10198080" y="2118960"/>
-          <a:ext cx="1840320" cy="407520"/>
+          <a:off x="10279080" y="2091960"/>
+          <a:ext cx="1839240" cy="406440"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -1944,25 +2117,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>475200</xdr:colOff>
+      <xdr:colOff>556200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>694800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:colOff>774720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1"/>
+        <xdr:cNvPr id="22" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10198080" y="2728080"/>
-          <a:ext cx="1840320" cy="407520"/>
+          <a:off x="10279080" y="2701080"/>
+          <a:ext cx="1839240" cy="406440"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -2030,25 +2203,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
+      <xdr:colOff>293760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>145800</xdr:colOff>
+      <xdr:colOff>225720</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1"/>
+        <xdr:cNvPr id="23" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12366360" y="3539880"/>
-          <a:ext cx="5604840" cy="1118520"/>
+          <a:off x="12447360" y="3512880"/>
+          <a:ext cx="5603760" cy="1117440"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2175,19 +2348,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
+      <xdr:colOff>324000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>93600</xdr:colOff>
+      <xdr:colOff>173520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="画像 9" descr=""/>
+        <xdr:cNvPr id="24" name="画像 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2198,8 +2371,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="243000" y="376200"/>
-          <a:ext cx="8763120" cy="4044600"/>
+          <a:off x="324000" y="349200"/>
+          <a:ext cx="8762040" cy="4043520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2214,19 +2387,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
+      <xdr:colOff>324000</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>516960</xdr:colOff>
+      <xdr:colOff>596880</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="画像 10" descr=""/>
+        <xdr:cNvPr id="25" name="画像 10" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2237,8 +2410,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="243000" y="4957560"/>
-          <a:ext cx="7566120" cy="3045600"/>
+          <a:off x="324000" y="4930560"/>
+          <a:ext cx="7565040" cy="3044520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2253,19 +2426,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
+      <xdr:colOff>324000</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>241560</xdr:colOff>
+      <xdr:colOff>321480</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="画像 11" descr=""/>
+        <xdr:cNvPr id="26" name="画像 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2276,8 +2449,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="243000" y="8310240"/>
-          <a:ext cx="6480360" cy="2720880"/>
+          <a:off x="324000" y="8283240"/>
+          <a:ext cx="6479280" cy="2719800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2292,19 +2465,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:colOff>324000</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>715320</xdr:colOff>
+      <xdr:colOff>795240</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="画像 12" descr=""/>
+        <xdr:cNvPr id="27" name="画像 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2315,8 +2488,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="243000" y="11206080"/>
-          <a:ext cx="8574840" cy="3807000"/>
+          <a:off x="324000" y="11179080"/>
+          <a:ext cx="8573760" cy="3805920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2331,19 +2504,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>282240</xdr:colOff>
+      <xdr:colOff>363240</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>556200</xdr:colOff>
+      <xdr:colOff>636120</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="画像 13" descr=""/>
+        <xdr:cNvPr id="28" name="画像 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2354,8 +2527,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="282240" y="15774120"/>
-          <a:ext cx="9186480" cy="3758760"/>
+          <a:off x="363240" y="15747120"/>
+          <a:ext cx="9185400" cy="3757680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2370,19 +2543,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:colOff>324000</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>546480</xdr:colOff>
+      <xdr:colOff>626400</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="画像 14" descr=""/>
+        <xdr:cNvPr id="29" name="画像 14" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2393,8 +2566,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="243000" y="19892880"/>
-          <a:ext cx="7595640" cy="4549680"/>
+          <a:off x="324000" y="19865880"/>
+          <a:ext cx="7594560" cy="4548600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2409,19 +2582,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:colOff>324000</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>240840</xdr:colOff>
+      <xdr:colOff>320760</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="画像 15" descr=""/>
+        <xdr:cNvPr id="30" name="画像 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2432,8 +2605,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="243000" y="24617160"/>
-          <a:ext cx="7290000" cy="3463920"/>
+          <a:off x="324000" y="24590160"/>
+          <a:ext cx="7288920" cy="3462840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2448,19 +2621,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:colOff>324000</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>715320</xdr:colOff>
+      <xdr:colOff>795240</xdr:colOff>
       <xdr:row>202</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="画像 16" descr=""/>
+        <xdr:cNvPr id="31" name="画像 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2471,8 +2644,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="243000" y="28427040"/>
-          <a:ext cx="5333760" cy="2730600"/>
+          <a:off x="324000" y="28400040"/>
+          <a:ext cx="5332680" cy="2729520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2487,19 +2660,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:colOff>324000</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>695160</xdr:colOff>
+      <xdr:colOff>775080</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="画像 17" descr=""/>
+        <xdr:cNvPr id="32" name="画像 17" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2510,8 +2683,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="243000" y="31322880"/>
-          <a:ext cx="7744320" cy="2501640"/>
+          <a:off x="324000" y="31295880"/>
+          <a:ext cx="7743240" cy="2500560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2526,19 +2699,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:colOff>324000</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
+      <xdr:colOff>153360</xdr:colOff>
       <xdr:row>229</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="画像 18" descr=""/>
+        <xdr:cNvPr id="33" name="画像 18" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2549,8 +2722,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1053000" y="34066080"/>
-          <a:ext cx="5502240" cy="1130040"/>
+          <a:off x="1134000" y="34039080"/>
+          <a:ext cx="5501160" cy="1128960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2565,19 +2738,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
-      <xdr:row>233</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:colOff>324000</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>388080</xdr:colOff>
-      <xdr:row>258</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>468000</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="画像 19" descr=""/>
+        <xdr:cNvPr id="34" name="画像 19" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2588,8 +2761,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1053000" y="35742240"/>
-          <a:ext cx="5006880" cy="3807360"/>
+          <a:off x="1134000" y="35715240"/>
+          <a:ext cx="5005800" cy="3806280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2604,19 +2777,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>608760</xdr:colOff>
+      <xdr:colOff>689760</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>420480</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:colOff>500400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 18" descr=""/>
+        <xdr:cNvPr id="35" name="図 18" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2627,8 +2800,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10331640" y="299880"/>
-          <a:ext cx="16017120" cy="7512120"/>
+          <a:off x="10412640" y="272880"/>
+          <a:ext cx="16016040" cy="7511040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2643,19 +2816,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>586080</xdr:colOff>
+      <xdr:colOff>667080</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>373320</xdr:colOff>
+      <xdr:colOff>453240</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 19" descr=""/>
+        <xdr:cNvPr id="36" name="図 19" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2666,8 +2839,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12739680" y="6672240"/>
-          <a:ext cx="10320840" cy="1130040"/>
+          <a:off x="12820680" y="6645240"/>
+          <a:ext cx="10319760" cy="1128960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2682,19 +2855,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>319320</xdr:colOff>
+      <xdr:colOff>400320</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>4320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>544680</xdr:colOff>
+      <xdr:colOff>624600</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 20" descr=""/>
+        <xdr:cNvPr id="37" name="図 20" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2705,8 +2878,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25437240" y="4320"/>
-          <a:ext cx="6707520" cy="6203880"/>
+          <a:off x="25518240" y="4320"/>
+          <a:ext cx="6706440" cy="6202800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2721,19 +2894,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>576360</xdr:colOff>
+      <xdr:colOff>657360</xdr:colOff>
       <xdr:row>259</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>648720</xdr:colOff>
+      <xdr:colOff>728640</xdr:colOff>
       <xdr:row>271</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="図 2" descr=""/>
+        <xdr:cNvPr id="38" name="図 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2744,8 +2917,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="576360" y="39752280"/>
-          <a:ext cx="7364520" cy="1892160"/>
+          <a:off x="657360" y="39725280"/>
+          <a:ext cx="7363440" cy="1891080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2760,19 +2933,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
-      <xdr:row>308</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:colOff>324000</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>99000</xdr:colOff>
       <xdr:row>341</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="図 3" descr=""/>
+        <xdr:cNvPr id="39" name="図 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2783,8 +2956,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1053000" y="47953440"/>
-          <a:ext cx="7068600" cy="5130000"/>
+          <a:off x="1134000" y="47926440"/>
+          <a:ext cx="7067520" cy="5128920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2799,25 +2972,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>527040</xdr:colOff>
+      <xdr:colOff>608040</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>30600</xdr:colOff>
+      <xdr:colOff>110520</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvPr id="40" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10249920" y="9531360"/>
-          <a:ext cx="7606080" cy="14856840"/>
+          <a:off x="10330920" y="9504360"/>
+          <a:ext cx="7605000" cy="14855760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3730,25 +3903,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>525600</xdr:colOff>
+      <xdr:colOff>606600</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>458640</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:colOff>538560</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="CustomShape 1"/>
+        <xdr:cNvPr id="41" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14299920" y="10854720"/>
-          <a:ext cx="5604840" cy="1118520"/>
+          <a:off x="14380920" y="10827720"/>
+          <a:ext cx="5603760" cy="1117440"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -3844,25 +4017,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>629280</xdr:colOff>
+      <xdr:colOff>710280</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>12240</xdr:colOff>
+      <xdr:colOff>92160</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1"/>
+        <xdr:cNvPr id="42" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14403600" y="15635520"/>
-          <a:ext cx="4244400" cy="1118520"/>
+          <a:off x="14484600" y="15608520"/>
+          <a:ext cx="4243320" cy="1117440"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -4070,19 +4243,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>469080</xdr:colOff>
+      <xdr:colOff>550080</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>586800</xdr:colOff>
+      <xdr:colOff>666720</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="画像 5" descr=""/>
+        <xdr:cNvPr id="43" name="画像 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4093,8 +4266,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15053760" y="12673800"/>
-          <a:ext cx="6599520" cy="2056680"/>
+          <a:off x="15134760" y="12646800"/>
+          <a:ext cx="6598440" cy="2055600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4114,19 +4287,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>257400</xdr:colOff>
+      <xdr:colOff>337320</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="画像 24" descr=""/>
+        <xdr:cNvPr id="44" name="画像 24" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4137,8 +4310,477 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9198000" cy="4943520"/>
+          <a:off x="81000" y="0"/>
+          <a:ext cx="9196920" cy="4942440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>54000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>144720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>389880</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>143640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="画像 25" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="54000" y="5021280"/>
+          <a:ext cx="6838200" cy="4388040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>222840</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>78120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>239040</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>128880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7538040" y="5117400"/>
+          <a:ext cx="5705640" cy="5740200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># Solution is available in the other "solution.py" tab</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>import tensorflow as tf</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>output = None</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>hidden_layer_weights = [</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>[0.1, 0.2, 0.4],</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>[0.4, 0.6, 0.6],</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>[0.5, 0.9, 0.1],</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>[0.8, 0.2, 0.8]]</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>out_weights = [</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>[0.1, 0.6],</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>[0.2, 0.1],</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>[0.7, 0.9]]</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># Weights and biases</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>weights = [</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>tf.Variable(hidden_layer_weights),</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>tf.Variable(out_weights)]</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>biases = [</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>tf.Variable(tf.zeros(3)),</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>tf.Variable(tf.zeros(2))]</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># Input</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>features = tf.Variable([[1.0, 2.0, 3.0, 4.0], [-1.0, -2.0, -3.0, -4.0], [11.0, 12.0, 13.0, 14.0]])</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># TODO: Create Model</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>hidden_layer = tf.add(tf.matmul(features, weights[0]), biases[0])</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>hidden_layer = tf.nn.relu(hidden_layer)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>logits = tf.add(tf.matmul(hidden_layer, weights[1]), biases[1])</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># TODO: Print session results</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>with tf.Session() as sess:</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>sess.run(tf.global_variables_initializer())</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>print(sess.run(logits))</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>326520</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="画像 26" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10891440"/>
+          <a:ext cx="7641720" cy="4474800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4160,8 +4802,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B175" activeCellId="0" sqref="B175"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K85" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V109" activeCellId="0" sqref="V108:V109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4177,7 +4819,10 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4201,7 +4846,12 @@
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4227,7 +4877,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
+      <selection pane="topLeft" activeCell="P20" activeCellId="1" sqref="V108:V109 P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4246,12 +4896,16 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4306,7 +4960,7 @@
   <dimension ref="B13:AK311"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M85" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U108" activeCellId="0" sqref="U108"/>
+      <selection pane="topLeft" activeCell="U108" activeCellId="1" sqref="V108:V109 U108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4513,17 +5167,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="O46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A68" activeCellId="1" sqref="V108:V109 A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.1711711711712"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O46" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/UDA-MEMO.xlsx
+++ b/UDA-MEMO.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="281" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="307" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tensorflow" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="miniflow" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="NeuralNet" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="deep_learning" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="CNN" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -468,7 +469,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="TakaoPGothic"/>
@@ -516,6 +517,11 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="TakaoPGothic"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF58646D"/>
       <name val="TakaoPGothic"/>
@@ -556,6 +562,40 @@
       <name val="Lucida Console"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="TakaoPGothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF3333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF3333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6666FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -605,15 +645,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -621,11 +661,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -642,7 +682,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -680,7 +720,7 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF6666FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
@@ -706,15 +746,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>465480</xdr:colOff>
+      <xdr:colOff>519480</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>411120</xdr:colOff>
+      <xdr:colOff>464400</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -729,8 +769,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="465480" y="6195960"/>
-          <a:ext cx="8858160" cy="3033360"/>
+          <a:off x="519480" y="6177960"/>
+          <a:ext cx="8857440" cy="3032640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,15 +785,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>55440</xdr:colOff>
+      <xdr:colOff>109440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>129960</xdr:colOff>
+      <xdr:colOff>183240</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -768,8 +808,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="865440" y="0"/>
-          <a:ext cx="4936320" cy="2329200"/>
+          <a:off x="919440" y="0"/>
+          <a:ext cx="4935600" cy="2328480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -783,16 +823,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>796320</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>40320</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>447480</xdr:colOff>
+      <xdr:colOff>500760</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -807,8 +847,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="796320" y="3130920"/>
-          <a:ext cx="5322960" cy="2757600"/>
+          <a:off x="850320" y="3112920"/>
+          <a:ext cx="5322240" cy="2756880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -823,15 +863,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>451080</xdr:colOff>
+      <xdr:colOff>505080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>250560</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:colOff>303840</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -846,8 +886,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10173960" y="4404960"/>
-          <a:ext cx="7902000" cy="4424760"/>
+          <a:off x="10227960" y="4386960"/>
+          <a:ext cx="7901280" cy="4424040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -862,15 +902,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>312840</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:colOff>366840</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>33480</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:colOff>86760</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -885,8 +925,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3553560" y="6901920"/>
-          <a:ext cx="1341360" cy="158040"/>
+          <a:off x="3607560" y="6883920"/>
+          <a:ext cx="1340640" cy="157320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -901,15 +941,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>720360</xdr:colOff>
+      <xdr:colOff>774360</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>473760</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:colOff>527040</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -918,8 +958,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1530360" y="10031760"/>
-          <a:ext cx="6235560" cy="3786480"/>
+          <a:off x="1584360" y="10013760"/>
+          <a:ext cx="6234840" cy="3785760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1049,15 +1089,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>267480</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:colOff>321480</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>789120</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32040</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1066,8 +1106,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5939280" y="10139760"/>
-          <a:ext cx="2142000" cy="513000"/>
+          <a:off x="5993280" y="10121760"/>
+          <a:ext cx="2141280" cy="512280"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1127,15 +1167,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:colOff>419760</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:colOff>130320</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1144,8 +1184,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6037560" y="10726560"/>
-          <a:ext cx="2142000" cy="513000"/>
+          <a:off x="6091560" y="10708560"/>
+          <a:ext cx="2141280" cy="512280"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1211,15 +1251,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>661680</xdr:colOff>
+      <xdr:colOff>715680</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>372960</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:colOff>426240</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1228,8 +1268,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6333480" y="9563760"/>
-          <a:ext cx="2142000" cy="513000"/>
+          <a:off x="6387480" y="9545760"/>
+          <a:ext cx="2141280" cy="512280"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1269,15 +1309,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>683280</xdr:colOff>
+      <xdr:colOff>737280</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>394560</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:colOff>447840</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1286,8 +1326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6355080" y="11661480"/>
-          <a:ext cx="2142000" cy="513000"/>
+          <a:off x="6409080" y="11643480"/>
+          <a:ext cx="2141280" cy="512280"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1347,15 +1387,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>113760</xdr:colOff>
+      <xdr:colOff>167760</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>219600</xdr:colOff>
+      <xdr:colOff>272880</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1364,8 +1404,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5785560" y="12944160"/>
-          <a:ext cx="4156920" cy="513000"/>
+          <a:off x="5839560" y="12926160"/>
+          <a:ext cx="4156200" cy="512280"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1457,15 +1497,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>87480</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:colOff>141480</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>385560</xdr:colOff>
+      <xdr:colOff>438840</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1480,8 +1520,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="897480" y="13467600"/>
-          <a:ext cx="4349520" cy="3699000"/>
+          <a:off x="951480" y="13449600"/>
+          <a:ext cx="4348800" cy="3698280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1496,15 +1536,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:colOff>432000</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>129240</xdr:colOff>
+      <xdr:colOff>182520</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1519,8 +1559,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5239440" y="13486320"/>
-          <a:ext cx="4612680" cy="4123080"/>
+          <a:off x="5293440" y="13468320"/>
+          <a:ext cx="4611960" cy="4122360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1535,15 +1575,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>50040</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:colOff>104040</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>710280</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:colOff>763560</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1558,8 +1598,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="860040" y="17965800"/>
-          <a:ext cx="4711680" cy="3570480"/>
+          <a:off x="914040" y="17947800"/>
+          <a:ext cx="4710960" cy="3569760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1574,15 +1614,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:colOff>162000</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>333360</xdr:colOff>
+      <xdr:colOff>386640</xdr:colOff>
       <xdr:row>171</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1597,8 +1637,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="918000" y="21807720"/>
-          <a:ext cx="6707520" cy="4847040"/>
+          <a:off x="972000" y="21789720"/>
+          <a:ext cx="6706800" cy="4846320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1613,15 +1653,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:colOff>162000</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>590400</xdr:colOff>
+      <xdr:colOff>643680</xdr:colOff>
       <xdr:row>194</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1636,8 +1676,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="918000" y="26847360"/>
-          <a:ext cx="6964560" cy="3332520"/>
+          <a:off x="972000" y="26829360"/>
+          <a:ext cx="6963840" cy="3331800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1652,15 +1692,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>706320</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:colOff>760320</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>127440</xdr:colOff>
+      <xdr:colOff>180720</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1669,8 +1709,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10429200" y="14434560"/>
-          <a:ext cx="3472560" cy="1133280"/>
+          <a:off x="10483200" y="14416560"/>
+          <a:ext cx="3471840" cy="1132560"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1711,15 +1751,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:colOff>216000</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>752760</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:colOff>806040</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1728,8 +1768,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10695240" y="16306200"/>
-          <a:ext cx="5452200" cy="1191240"/>
+          <a:off x="10749240" y="16288200"/>
+          <a:ext cx="5451480" cy="1190520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1809,6 +1849,272 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>60840</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>14760</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18696600" y="16630200"/>
+          <a:ext cx="3195000" cy="1113120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>OneHotEncoding</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>を</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>無駄なく行うためのテクニックが</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>クロスエントロピー</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>（対数を利用する）</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>119880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>134280</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>135720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14764680" y="9162000"/>
+          <a:ext cx="3195000" cy="1113120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>SoftMax</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>スコアを確率に変える処理</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>424440</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>512640</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>36720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="画像 28" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14198760" y="10253520"/>
+          <a:ext cx="6570360" cy="2676240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>97560</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>119160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>7920</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>57960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="画像 29" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16302600" y="13174560"/>
+          <a:ext cx="5582160" cy="3352680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1817,19 +2123,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>743400</xdr:colOff>
+      <xdr:colOff>797400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>110520</xdr:colOff>
+      <xdr:colOff>163800</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="画像 8" descr=""/>
+        <xdr:cNvPr id="22" name="画像 8" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1840,8 +2146,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="743400" y="0"/>
-          <a:ext cx="5038920" cy="4296600"/>
+          <a:off x="797400" y="0"/>
+          <a:ext cx="5038200" cy="4295880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1856,25 +2162,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>605160</xdr:colOff>
+      <xdr:colOff>659160</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>363240</xdr:colOff>
+      <xdr:colOff>416520</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvPr id="23" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6276960" y="1757160"/>
-          <a:ext cx="6239880" cy="4863240"/>
+          <a:off x="6330960" y="1739160"/>
+          <a:ext cx="6239160" cy="4862520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1998,19 +2304,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>383760</xdr:colOff>
+      <xdr:colOff>437760</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>518400</xdr:colOff>
+      <xdr:colOff>571680</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="画像 20" descr=""/>
+        <xdr:cNvPr id="24" name="画像 20" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2021,8 +2327,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6055560" y="4806720"/>
-          <a:ext cx="6616440" cy="2510640"/>
+          <a:off x="6109560" y="4788720"/>
+          <a:ext cx="6615720" cy="2509920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2037,25 +2343,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>556200</xdr:colOff>
+      <xdr:colOff>610200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>774720</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1"/>
+        <xdr:cNvPr id="25" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10279080" y="2091960"/>
-          <a:ext cx="1839240" cy="406440"/>
+          <a:off x="10333080" y="2073960"/>
+          <a:ext cx="1838520" cy="405720"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -2117,25 +2423,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>556200</xdr:colOff>
+      <xdr:colOff>610200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>774720</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CustomShape 1"/>
+        <xdr:cNvPr id="26" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10279080" y="2701080"/>
-          <a:ext cx="1839240" cy="406440"/>
+          <a:off x="10333080" y="2683080"/>
+          <a:ext cx="1838520" cy="405720"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -2203,25 +2509,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>347760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>279000</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CustomShape 1"/>
+        <xdr:cNvPr id="27" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12447360" y="3512880"/>
-          <a:ext cx="5603760" cy="1117440"/>
+          <a:off x="12501360" y="3494880"/>
+          <a:ext cx="5603040" cy="1116720"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2348,19 +2654,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>173520</xdr:colOff>
+      <xdr:colOff>226800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="画像 9" descr=""/>
+        <xdr:cNvPr id="28" name="画像 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2371,8 +2677,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="324000" y="349200"/>
-          <a:ext cx="8762040" cy="4043520"/>
+          <a:off x="378000" y="331200"/>
+          <a:ext cx="8761320" cy="4042800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2387,19 +2693,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>596880</xdr:colOff>
+      <xdr:colOff>650160</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="画像 10" descr=""/>
+        <xdr:cNvPr id="29" name="画像 10" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2410,8 +2716,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="324000" y="4930560"/>
-          <a:ext cx="7565040" cy="3044520"/>
+          <a:off x="378000" y="4912560"/>
+          <a:ext cx="7564320" cy="3043800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2426,19 +2732,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>321480</xdr:colOff>
+      <xdr:colOff>374760</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="画像 11" descr=""/>
+        <xdr:cNvPr id="30" name="画像 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2449,8 +2755,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="324000" y="8283240"/>
-          <a:ext cx="6479280" cy="2719800"/>
+          <a:off x="378000" y="8265240"/>
+          <a:ext cx="6478560" cy="2719080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2465,19 +2771,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>795240</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38520</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="画像 12" descr=""/>
+        <xdr:cNvPr id="31" name="画像 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2488,8 +2794,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="324000" y="11179080"/>
-          <a:ext cx="8573760" cy="3805920"/>
+          <a:off x="378000" y="11161080"/>
+          <a:ext cx="8573040" cy="3805200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2504,19 +2810,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>363240</xdr:colOff>
+      <xdr:colOff>417240</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>636120</xdr:colOff>
+      <xdr:colOff>689400</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="画像 13" descr=""/>
+        <xdr:cNvPr id="32" name="画像 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2527,8 +2833,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="363240" y="15747120"/>
-          <a:ext cx="9185400" cy="3757680"/>
+          <a:off x="417240" y="15729120"/>
+          <a:ext cx="9184680" cy="3756960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2543,19 +2849,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>626400</xdr:colOff>
+      <xdr:colOff>679680</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="画像 14" descr=""/>
+        <xdr:cNvPr id="33" name="画像 14" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2566,8 +2872,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="324000" y="19865880"/>
-          <a:ext cx="7594560" cy="4548600"/>
+          <a:off x="378000" y="19847880"/>
+          <a:ext cx="7593840" cy="4547880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2582,19 +2888,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:colOff>374040</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="画像 15" descr=""/>
+        <xdr:cNvPr id="34" name="画像 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2605,8 +2911,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="324000" y="24590160"/>
-          <a:ext cx="7288920" cy="3462840"/>
+          <a:off x="378000" y="24572160"/>
+          <a:ext cx="7288200" cy="3462120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2621,19 +2927,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>184</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>795240</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38160</xdr:colOff>
       <xdr:row>202</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="画像 16" descr=""/>
+        <xdr:cNvPr id="35" name="画像 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2644,8 +2950,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="324000" y="28400040"/>
-          <a:ext cx="5332680" cy="2729520"/>
+          <a:off x="378000" y="28382040"/>
+          <a:ext cx="5331960" cy="2728800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2660,19 +2966,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>203</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>775080</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="画像 17" descr=""/>
+        <xdr:cNvPr id="36" name="画像 17" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2683,8 +2989,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="324000" y="31295880"/>
-          <a:ext cx="7743240" cy="2500560"/>
+          <a:off x="378000" y="31277880"/>
+          <a:ext cx="7742520" cy="2499840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2699,19 +3005,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>153360</xdr:colOff>
+      <xdr:colOff>206640</xdr:colOff>
       <xdr:row>229</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="画像 18" descr=""/>
+        <xdr:cNvPr id="37" name="画像 18" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2722,8 +3028,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1134000" y="34039080"/>
-          <a:ext cx="5501160" cy="1128960"/>
+          <a:off x="1188000" y="34021080"/>
+          <a:ext cx="5500440" cy="1128240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2738,19 +3044,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>232</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>468000</xdr:colOff>
+      <xdr:colOff>521280</xdr:colOff>
       <xdr:row>257</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="画像 19" descr=""/>
+        <xdr:cNvPr id="38" name="画像 19" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2761,8 +3067,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1134000" y="35715240"/>
-          <a:ext cx="5005800" cy="3806280"/>
+          <a:off x="1188000" y="35697240"/>
+          <a:ext cx="5005080" cy="3805560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2777,19 +3083,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>689760</xdr:colOff>
+      <xdr:colOff>743760</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>500400</xdr:colOff>
+      <xdr:colOff>553680</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 18" descr=""/>
+        <xdr:cNvPr id="39" name="図 18" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2800,8 +3106,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10412640" y="272880"/>
-          <a:ext cx="16016040" cy="7511040"/>
+          <a:off x="10466640" y="254880"/>
+          <a:ext cx="16015320" cy="7510320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2816,19 +3122,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>667080</xdr:colOff>
+      <xdr:colOff>721080</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>453240</xdr:colOff>
+      <xdr:colOff>506520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="図 19" descr=""/>
+        <xdr:cNvPr id="40" name="図 19" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2839,8 +3145,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12820680" y="6645240"/>
-          <a:ext cx="10319760" cy="1128960"/>
+          <a:off x="12874680" y="6627240"/>
+          <a:ext cx="10319040" cy="1128240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2855,19 +3161,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>400320</xdr:colOff>
+      <xdr:colOff>454320</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>4320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>624600</xdr:colOff>
+      <xdr:colOff>677880</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="図 20" descr=""/>
+        <xdr:cNvPr id="41" name="図 20" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2878,8 +3184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25518240" y="4320"/>
-          <a:ext cx="6706440" cy="6202800"/>
+          <a:off x="25572240" y="4320"/>
+          <a:ext cx="6705720" cy="6202080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2894,19 +3200,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>657360</xdr:colOff>
+      <xdr:colOff>711360</xdr:colOff>
       <xdr:row>259</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>728640</xdr:colOff>
-      <xdr:row>271</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:colOff>781920</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="図 2" descr=""/>
+        <xdr:cNvPr id="42" name="図 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2917,8 +3223,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657360" y="39725280"/>
-          <a:ext cx="7363440" cy="1891080"/>
+          <a:off x="711360" y="39707280"/>
+          <a:ext cx="7362720" cy="1890360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2933,19 +3239,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>307</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>99000</xdr:colOff>
+      <xdr:colOff>152280</xdr:colOff>
       <xdr:row>341</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="図 3" descr=""/>
+        <xdr:cNvPr id="43" name="図 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2956,8 +3262,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1134000" y="47926440"/>
-          <a:ext cx="7067520" cy="5128920"/>
+          <a:off x="1188000" y="47908440"/>
+          <a:ext cx="7066800" cy="5128200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2972,25 +3278,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>608040</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:colOff>662040</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>110520</xdr:colOff>
+      <xdr:colOff>163800</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1"/>
+        <xdr:cNvPr id="44" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10330920" y="9504360"/>
-          <a:ext cx="7605000" cy="14855760"/>
+          <a:off x="10384920" y="9486360"/>
+          <a:ext cx="7604280" cy="14855040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3903,25 +4209,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>606600</xdr:colOff>
+      <xdr:colOff>660600</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>538560</xdr:colOff>
+      <xdr:colOff>591840</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CustomShape 1"/>
+        <xdr:cNvPr id="45" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14380920" y="10827720"/>
-          <a:ext cx="5603760" cy="1117440"/>
+          <a:off x="14434920" y="10809720"/>
+          <a:ext cx="5603040" cy="1116720"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -4017,25 +4323,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>710280</xdr:colOff>
+      <xdr:colOff>764280</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>92160</xdr:colOff>
+      <xdr:colOff>145440</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1"/>
+        <xdr:cNvPr id="46" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14484600" y="15608520"/>
-          <a:ext cx="4243320" cy="1117440"/>
+          <a:off x="14538600" y="15590520"/>
+          <a:ext cx="4242600" cy="1116720"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -4243,19 +4549,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>550080</xdr:colOff>
+      <xdr:colOff>604080</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>666720</xdr:colOff>
+      <xdr:colOff>720000</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="画像 5" descr=""/>
+        <xdr:cNvPr id="47" name="画像 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4266,8 +4572,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15134760" y="12646800"/>
-          <a:ext cx="6598440" cy="2055600"/>
+          <a:off x="15188760" y="12628800"/>
+          <a:ext cx="6597720" cy="2054880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4287,19 +4593,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>135000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>337320</xdr:colOff>
+      <xdr:colOff>390600</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="画像 24" descr=""/>
+        <xdr:cNvPr id="48" name="画像 24" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4310,8 +4616,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="0"/>
-          <a:ext cx="9196920" cy="4942440"/>
+          <a:off x="135000" y="0"/>
+          <a:ext cx="9196200" cy="4941720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4326,19 +4632,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>389880</xdr:colOff>
+      <xdr:colOff>443160</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="画像 25" descr=""/>
+        <xdr:cNvPr id="49" name="画像 25" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4349,8 +4655,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="5021280"/>
-          <a:ext cx="6838200" cy="4388040"/>
+          <a:off x="108000" y="5003280"/>
+          <a:ext cx="6837480" cy="4387320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4365,25 +4671,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>222840</xdr:colOff>
+      <xdr:colOff>276840</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>239040</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CustomShape 1"/>
+        <xdr:cNvPr id="50" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7538040" y="5117400"/>
-          <a:ext cx="5705640" cy="5740200"/>
+          <a:off x="7592040" y="5099400"/>
+          <a:ext cx="5704920" cy="5739480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4756,19 +5062,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>54000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>326520</xdr:colOff>
+      <xdr:colOff>379800</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="画像 26" descr=""/>
+        <xdr:cNvPr id="51" name="画像 26" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4779,8 +5085,1554 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10891440"/>
-          <a:ext cx="7641720" cy="4474800"/>
+          <a:off x="54000" y="10873440"/>
+          <a:ext cx="7641000" cy="4474080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>651600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>467640</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="651600" y="201240"/>
+          <a:ext cx="5183640" cy="2638800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>14x14x20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>です。</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>数式を使って新しい高さと幅を得ることができます：</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>(32 - 8 + 2 * 1)/2 + 1 = 14</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>(32 - 8 + 2 * 1)/2 + 1 = 14</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>新しい深度はフィルタの数に等しく、これは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>です。</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>これは次のコードに対応します：</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>input = tf.placeholder(tf.float32, (None, 32, 32, 3))</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>filter_weights = tf.Variable(tf.truncated_normal((8, 8, 3, 20))) # (height, width, input_depth, output_depth)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>filter_bias = tf.Variable(tf.zeros(20))</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>strides = [1, 2, 2, 1] # (batch, height, width, depth)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>padding = 'SAME'</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>conv = tf.nn.conv2d(input, filter_weights, strides, padding) + filter_bias</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>90000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="画像 27" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7083000" y="163440"/>
+          <a:ext cx="4469760" cy="1108440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>435240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="画像 30" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8899560" y="1305720"/>
+          <a:ext cx="4218480" cy="1866600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>701280</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>265680</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="画像 31" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6068880" y="1457280"/>
+          <a:ext cx="2815560" cy="1638000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>280800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>299880</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="画像 33" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8899560" y="3265560"/>
+          <a:ext cx="6521400" cy="2102760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68040</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>54000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>608040</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="68040" y="7369200"/>
+          <a:ext cx="6720120" cy="5348520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>TensorFlow</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>コンボリューションレイヤ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>TensorFlow</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>CNN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>を実装する方法を調べてみましょう。</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>TensorFlow</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>は提供</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>tf.nn.conv2d()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>し、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>tf.nn.bias_add()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>独自の畳み込みレイヤーを作成する。</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># Output depth</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>k_output = 64</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># Image Properties</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>image_width = 10</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>image_height = 10</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>color_channels = 3</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># Convolution filter</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>filter_size_width = 5</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>filter_size_height = 5</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># Input/Image</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>input = tf.placeholder( tf.float32,  shape=[None, image_height, image_width, color_channels])</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># Weight and bias</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>weight = tf.Variable(tf.truncated_normal(  [filter_size_height, filter_size_width, color_channels, k_output]))</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>bias = tf.Variable(tf.zeros(k_output))</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># Apply Convolution</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>conv_layer = tf.nn.conv2d(input, weight, strides=[1, 2, 2, 1], padding='SAME')</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># Add bias</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>conv_layer = tf.nn.bias_add(conv_layer, bias)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># Apply activation function</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>conv_layer = tf.nn.relu(conv_layer)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>789840</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>115560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120240</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="画像 32" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="789840" y="4667040"/>
+          <a:ext cx="5510520" cy="544320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>810000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>77400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="画像 35" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="810000" y="5279040"/>
+          <a:ext cx="4023720" cy="496440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41760</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>51120</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="画像 34" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4596480" y="5288400"/>
+          <a:ext cx="3260520" cy="391320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>488520</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>164880</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="画像 36" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1301040" y="4255560"/>
+          <a:ext cx="1792800" cy="295560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>756360</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>125280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>742680</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>82800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6936480" y="7927920"/>
+          <a:ext cx="5676120" cy="7597800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="99cccc"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>"""</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Setup the strides, padding and filter weight/bias such that</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>the output shape is (1, 2, 2, 3).</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>"""</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>import tensorflow as tf</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>import numpy as np</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># `tf.nn.conv2d` requires the input be 4D (batch_size, height, width, depth)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># (1, 4, 4, 1)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>x = np.array([</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>[0, 1, 0.5, 10],</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>[2, 2.5, 1, -8],</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>[4, 0, 5, 6],</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>[15, 1, 2, 3]], dtype=np.float32).reshape((1, 4, 4, 1))</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>X = tf.constant(x)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>def conv2d(input):</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># Filter (weights and bias)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># The shape of the filter weight is (height, width, input_depth, output_depth)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># The shape of the filter bias is (output_depth,)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># TODO: Define the filter weights `F_W` and filter bias `F_b`.</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># NOTE: Remember to wrap them in `tf.Variable`, they are trainable parameters after all.</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>F_W= tf.Variable(tf.truncated_normal((2, 2, 1, 3)))</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>F_b = tf.Variable(tf.zeros(3))</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>F_k = tf.Variable(tf.constant(70,shape=[2,2,1,3],dtype=tf.float32))</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>F_t = tf.Variable(tf.constant(70,shape=[3,],dtype=tf.float32))</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>F_W=F_k</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>F_b=F_t  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="6666ff"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>#No checked to Value,Only checked Size (kshiba)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="6666ff"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="6666ff"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># TODO: Set the stride for each dimension (batch_size, height, width, depth)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>strides = [1, 2, 2, 1]</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># TODO: set the padding, either 'VALID' or 'SAME'.</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>padding = 'VALID'</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># https://www.tensorflow.org/versions/r0.11/api_docs/python/nn.html#conv2d</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># `tf.nn.conv2d` does not include the bias computation so we have to add it ourselves after.</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>return tf.nn.conv2d(input, F_W, strides, padding) + F_b</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>out = conv2d(X)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>80640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323280</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="画像 37" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="151920" y="12760200"/>
+          <a:ext cx="6351480" cy="3508920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>687960</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>527040</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>63360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="TextShape 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6868080" y="16265160"/>
+          <a:ext cx="4716000" cy="1191960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>choose 'VALID' for the padding algorithm. </a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>643320</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>72360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>204120</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>72360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="画像 38" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6823440" y="16490880"/>
+          <a:ext cx="8501760" cy="1625400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4802,8 +6654,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K85" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V109" activeCellId="0" sqref="V108:V109"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A179" activeCellId="0" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4818,12 +6670,19 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4838,6 +6697,7 @@
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4854,9 +6714,13 @@
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4876,8 +6740,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P20" activeCellId="1" sqref="V108:V109 P20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4959,8 +6823,8 @@
   </sheetPr>
   <dimension ref="B13:AK311"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M85" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U108" activeCellId="1" sqref="V108:V109 U108"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y120" activeCellId="0" sqref="Y120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5169,8 +7033,8 @@
   </sheetPr>
   <dimension ref="O46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A68" activeCellId="1" sqref="V108:V109 A68"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5193,4 +7057,33 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E79" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q95" activeCellId="0" sqref="Q95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1711711711712"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3108108108108"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.1711711711712"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/UDA-MEMO.xlsx
+++ b/UDA-MEMO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="307" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="401" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tensorflow" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,13 +13,14 @@
     <sheet name="NeuralNet" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="deep_learning" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="CNN" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="python" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="353">
   <si>
     <r>
       <t xml:space="preserve">Now I'll write this out in code for the case of only one output unit. We'll also be using the sigmoid as the activation function </t>
@@ -461,6 +462,984 @@
   <si>
     <t>initではなくVariableで宣言</t>
   </si>
+  <si>
+    <t>#!/usr/bin/env python</t>
+  </si>
+  <si>
+    <t># -*- coding: utf-8 -*-</t>
+  </si>
+  <si>
+    <t># インポート</t>
+  </si>
+  <si>
+    <t>import numpy as np</t>
+  </si>
+  <si>
+    <t>import scipy as py</t>
+  </si>
+  <si>
+    <t>import pandas as pd</t>
+  </si>
+  <si>
+    <t>import itertools as it</t>
+  </si>
+  <si>
+    <t>'''</t>
+  </si>
+  <si>
+    <t>作成</t>
+  </si>
+  <si>
+    <t># リスト作成</t>
+  </si>
+  <si>
+    <t>list_value = [10,11,12]</t>
+  </si>
+  <si>
+    <t>list_value</t>
+  </si>
+  <si>
+    <t>Out[374]: [10, 11, 12]</t>
+  </si>
+  <si>
+    <t># タプル作成</t>
+  </si>
+  <si>
+    <t>tuple_value = (10,11,12)</t>
+  </si>
+  <si>
+    <t>tuple_value</t>
+  </si>
+  <si>
+    <t>Out[375]: (10, 11, 12)</t>
+  </si>
+  <si>
+    <t># ディクショナリ作成</t>
+  </si>
+  <si>
+    <t>dict_value = {0:10,1:11,2:12}</t>
+  </si>
+  <si>
+    <t>dict_value</t>
+  </si>
+  <si>
+    <t>Out[376]: {0: 10, 1: 11, 2: 12}</t>
+  </si>
+  <si>
+    <t># セット作成</t>
+  </si>
+  <si>
+    <t>set_value = {10,11,12}</t>
+  </si>
+  <si>
+    <t>set_value</t>
+  </si>
+  <si>
+    <t>Out[377]: {10, 11, 12}</t>
+  </si>
+  <si>
+    <t># numpy配列作成</t>
+  </si>
+  <si>
+    <t>ndarray_value = np.array([10,11,12], dtype=np.int32)</t>
+  </si>
+  <si>
+    <t>ndarray_value</t>
+  </si>
+  <si>
+    <t>Out[378]: array([10, 11, 12], dtype=int32)</t>
+  </si>
+  <si>
+    <t># pandasシリーズ作成</t>
+  </si>
+  <si>
+    <t>series_value = pd.Series({0:10,1:11,2:12})</t>
+  </si>
+  <si>
+    <t>series_value</t>
+  </si>
+  <si>
+    <t>Out[379]: </t>
+  </si>
+  <si>
+    <t>0    10</t>
+  </si>
+  <si>
+    <t>1    11</t>
+  </si>
+  <si>
+    <t>2    12</t>
+  </si>
+  <si>
+    <t>dtype: int64</t>
+  </si>
+  <si>
+    <t># pandasデータフレーム作成</t>
+  </si>
+  <si>
+    <t>dataframe_value = pd.DataFrame({'seq':[10,11,12]})</t>
+  </si>
+  <si>
+    <t>dataframe_value</t>
+  </si>
+  <si>
+    <t>Out[380]: </t>
+  </si>
+  <si>
+    <t>   seq</t>
+  </si>
+  <si>
+    <t>0   10</t>
+  </si>
+  <si>
+    <t>1   11</t>
+  </si>
+  <si>
+    <t>2   12</t>
+  </si>
+  <si>
+    <t>型（クラス）</t>
+  </si>
+  <si>
+    <t># 整数型（クラス）</t>
+  </si>
+  <si>
+    <t>type(1)</t>
+  </si>
+  <si>
+    <t>Out[382]: int</t>
+  </si>
+  <si>
+    <t># 少数型（クラス）</t>
+  </si>
+  <si>
+    <t>type(0.1)</t>
+  </si>
+  <si>
+    <t>Out[383]: float</t>
+  </si>
+  <si>
+    <t># 文字列型（クラス）</t>
+  </si>
+  <si>
+    <t>type('abc')</t>
+  </si>
+  <si>
+    <t>Out[384]: str</t>
+  </si>
+  <si>
+    <t># リスト型（クラス）</t>
+  </si>
+  <si>
+    <t>type(list_value)</t>
+  </si>
+  <si>
+    <t>Out[385]: list</t>
+  </si>
+  <si>
+    <t># タプル型（クラス）</t>
+  </si>
+  <si>
+    <t>type(tuple_value)</t>
+  </si>
+  <si>
+    <t>Out[386]: tuple</t>
+  </si>
+  <si>
+    <t># ディクショナリ型（クラス）</t>
+  </si>
+  <si>
+    <t>type(dict_value)</t>
+  </si>
+  <si>
+    <t>Out[387]: dict</t>
+  </si>
+  <si>
+    <t># セット型（クラス）</t>
+  </si>
+  <si>
+    <t>type(set_value)</t>
+  </si>
+  <si>
+    <t>Out[388]: set</t>
+  </si>
+  <si>
+    <t># numpy配列型（クラス）</t>
+  </si>
+  <si>
+    <t>type(ndarray_value)</t>
+  </si>
+  <si>
+    <t>Out[389]: numpy.ndarray</t>
+  </si>
+  <si>
+    <t># pandasシリーズ型（クラス）</t>
+  </si>
+  <si>
+    <t>type(series_value)</t>
+  </si>
+  <si>
+    <t>Out[390]: pandas.core.series.Series</t>
+  </si>
+  <si>
+    <t># pandasデータフレーム型（クラス）</t>
+  </si>
+  <si>
+    <t>type(dataframe_value)</t>
+  </si>
+  <si>
+    <t>Out[391]: pandas.core.frame.DataFrame</t>
+  </si>
+  <si>
+    <t># numpyのデータ型</t>
+  </si>
+  <si>
+    <t>ndarray_value.dtype</t>
+  </si>
+  <si>
+    <t>Out[392]: dtype('int32')</t>
+  </si>
+  <si>
+    <t># pandasシリーズのデータ型</t>
+  </si>
+  <si>
+    <t>series_value.dtype</t>
+  </si>
+  <si>
+    <t>Out[393]: dtype('int64')</t>
+  </si>
+  <si>
+    <t># pandasデータフレームのデータ型 ＊エラーになる</t>
+  </si>
+  <si>
+    <t>型変換</t>
+  </si>
+  <si>
+    <t># 文字列型から整数型に変換</t>
+  </si>
+  <si>
+    <t>int('1')</t>
+  </si>
+  <si>
+    <t>Out[308]: 1</t>
+  </si>
+  <si>
+    <t># 文字列型から少数型に変換</t>
+  </si>
+  <si>
+    <t>float('1')</t>
+  </si>
+  <si>
+    <t>Out[309]: 1.0</t>
+  </si>
+  <si>
+    <t># 整数型から文字列型に変換</t>
+  </si>
+  <si>
+    <t>str(1)</t>
+  </si>
+  <si>
+    <t>Out[310]: '1'</t>
+  </si>
+  <si>
+    <t>###############</t>
+  </si>
+  <si>
+    <t># リストへの変換 #</t>
+  </si>
+  <si>
+    <t># タプルから</t>
+  </si>
+  <si>
+    <t>list(tuple_value)</t>
+  </si>
+  <si>
+    <t>Out[311]: [10, 11, 12]</t>
+  </si>
+  <si>
+    <t># ディクショナリから ＊上手く変換されない</t>
+  </si>
+  <si>
+    <t>list(dict_value)</t>
+  </si>
+  <si>
+    <t>Out[312]: [0, 1, 2]</t>
+  </si>
+  <si>
+    <t># セットから</t>
+  </si>
+  <si>
+    <t>list(set_value)</t>
+  </si>
+  <si>
+    <t>Out[313]: [10, 11, 12]</t>
+  </si>
+  <si>
+    <t># numpy配列から</t>
+  </si>
+  <si>
+    <t>list(ndarray_value)</t>
+  </si>
+  <si>
+    <t>Out[314]: [10, 11, 12]</t>
+  </si>
+  <si>
+    <t># pandasシリースから</t>
+  </si>
+  <si>
+    <t>list(series_value)</t>
+  </si>
+  <si>
+    <t>Out[315]: [10, 11, 12]</t>
+  </si>
+  <si>
+    <t># pandasデータフレームから</t>
+  </si>
+  <si>
+    <t>list(dataframe_value.values.flatten())</t>
+  </si>
+  <si>
+    <t>Out[318]: [10, 11, 12]</t>
+  </si>
+  <si>
+    <t># pandasデータフレームから ＊上手く変換されない</t>
+  </si>
+  <si>
+    <t>list(dataframe_value)</t>
+  </si>
+  <si>
+    <t>Out[316]: ['seq']</t>
+  </si>
+  <si>
+    <t>list(dataframe_value.values)</t>
+  </si>
+  <si>
+    <t>Out[317]: [array([10]), array([11]), array([12])]</t>
+  </si>
+  <si>
+    <t># タプルへの変換 #</t>
+  </si>
+  <si>
+    <t># タプルへの変換はリストと同じ</t>
+  </si>
+  <si>
+    <t>######################</t>
+  </si>
+  <si>
+    <t># ディクショナリへの変換 #</t>
+  </si>
+  <si>
+    <t># pandasシリースから ＊pandasシリース以外の型からディクショナリに変換できない</t>
+  </si>
+  <si>
+    <t>dict(series_value)</t>
+  </si>
+  <si>
+    <t>Out[327]: {0: 10, 1: 11, 2: 12}</t>
+  </si>
+  <si>
+    <t># セットへの変換 #</t>
+  </si>
+  <si>
+    <t># セットへの変換はリストと同じ</t>
+  </si>
+  <si>
+    <t>###################</t>
+  </si>
+  <si>
+    <t># numpy配列への変換 #</t>
+  </si>
+  <si>
+    <t># リストから</t>
+  </si>
+  <si>
+    <t>np.array(list_value)</t>
+  </si>
+  <si>
+    <t>Out[354]: array([10, 11, 12])</t>
+  </si>
+  <si>
+    <t>np.array(tuple_value)</t>
+  </si>
+  <si>
+    <t>Out[355]: array([10, 11, 12])</t>
+  </si>
+  <si>
+    <t>np.array(dict_value)</t>
+  </si>
+  <si>
+    <t>Out[356]: array({0: 10, 1: 11, 2: 12}, dtype=object)</t>
+  </si>
+  <si>
+    <t># セットから ＊上手く変換されない</t>
+  </si>
+  <si>
+    <t>np.array(set_value)</t>
+  </si>
+  <si>
+    <t>Out[357]: array({10, 11, 12}, dtype=object)</t>
+  </si>
+  <si>
+    <t># pandasシリーズから</t>
+  </si>
+  <si>
+    <t>np.array(series_value)</t>
+  </si>
+  <si>
+    <t>Out[358]: array([10, 11, 12])</t>
+  </si>
+  <si>
+    <t>In [231]: np.array(dataframe_value.values.flatten())</t>
+  </si>
+  <si>
+    <t>Out[231]: array([10, 11, 12])</t>
+  </si>
+  <si>
+    <t># pandasデータフレームから ＊上手く変換されない </t>
+  </si>
+  <si>
+    <t>np.array(dataframe_value)</t>
+  </si>
+  <si>
+    <t>Out[359]: </t>
+  </si>
+  <si>
+    <t>array([[10],</t>
+  </si>
+  <si>
+    <t>       [11],</t>
+  </si>
+  <si>
+    <t>       [12]])</t>
+  </si>
+  <si>
+    <t>np.array(dataframe_value.values)</t>
+  </si>
+  <si>
+    <t>Out[395]: </t>
+  </si>
+  <si>
+    <t>#######################</t>
+  </si>
+  <si>
+    <t># pandasシリーズへの変換 #</t>
+  </si>
+  <si>
+    <t>In [232]: pd.Series(list_value)</t>
+  </si>
+  <si>
+    <t>Out[232]: </t>
+  </si>
+  <si>
+    <t>In [233]: pd.Series(tuple_value)</t>
+  </si>
+  <si>
+    <t>Out[233]: </t>
+  </si>
+  <si>
+    <t># ディクショナリから</t>
+  </si>
+  <si>
+    <t>In [234]: pd.Series(dict_value)</t>
+  </si>
+  <si>
+    <t>Out[234]: </t>
+  </si>
+  <si>
+    <t># セットから ＊エラーになる</t>
+  </si>
+  <si>
+    <t>In [236]: pd.Series(ndarray_value)</t>
+  </si>
+  <si>
+    <t>Out[236]: </t>
+  </si>
+  <si>
+    <t>dtype: int32</t>
+  </si>
+  <si>
+    <t>In [239]: pd.Series(dataframe_value.values.flatten())</t>
+  </si>
+  <si>
+    <t>Out[239]: </t>
+  </si>
+  <si>
+    <t>In [237]: pd.Series(dataframe_value)</t>
+  </si>
+  <si>
+    <t>Out[237]: </t>
+  </si>
+  <si>
+    <t>0    (s, e, q)</t>
+  </si>
+  <si>
+    <t>1    (s, e, q)</t>
+  </si>
+  <si>
+    <t>2    (s, e, q)</t>
+  </si>
+  <si>
+    <t>dtype: object</t>
+  </si>
+  <si>
+    <t># pandasデータフレームから ＊エラーになる</t>
+  </si>
+  <si>
+    <t>############################</t>
+  </si>
+  <si>
+    <t># pandasデータフレームへの変換 #</t>
+  </si>
+  <si>
+    <t>In [240]: pd.DataFrame(list_value)</t>
+  </si>
+  <si>
+    <t>Out[240]: </t>
+  </si>
+  <si>
+    <t>0  10</t>
+  </si>
+  <si>
+    <t>1  11</t>
+  </si>
+  <si>
+    <t>2  12</t>
+  </si>
+  <si>
+    <t># タプルから ＊エラーになる</t>
+  </si>
+  <si>
+    <t># ディクショナリから ＊エラーになる</t>
+  </si>
+  <si>
+    <t>In [244]: pd.DataFrame(ndarray_value)</t>
+  </si>
+  <si>
+    <t>Out[244]: </t>
+  </si>
+  <si>
+    <t>In [245]: pd.DataFrame(series_value)</t>
+  </si>
+  <si>
+    <t>Out[245]: </t>
+  </si>
+  <si>
+    <t>##########################</t>
+  </si>
+  <si>
+    <t># numpy配列のデータ型の変換 #</t>
+  </si>
+  <si>
+    <t># 整数から文字列に変換</t>
+  </si>
+  <si>
+    <t>In [246]: ndarray_value.astype(np.string_)</t>
+  </si>
+  <si>
+    <t>Out[246]: </t>
+  </si>
+  <si>
+    <t>array([b'10', b'11', b'12'], </t>
+  </si>
+  <si>
+    <t>      dtype='|S11')</t>
+  </si>
+  <si>
+    <t>##############################</t>
+  </si>
+  <si>
+    <t># pandasシリーズのデータ型の変換 #</t>
+  </si>
+  <si>
+    <t>In [247]: series_value.astype(np.string_)</t>
+  </si>
+  <si>
+    <t>Out[247]: </t>
+  </si>
+  <si>
+    <t>0    b'10'</t>
+  </si>
+  <si>
+    <t>1    b'11'</t>
+  </si>
+  <si>
+    <t>2    b'12'</t>
+  </si>
+  <si>
+    <t>dtype: bytes168</t>
+  </si>
+  <si>
+    <t>In [248]: dataframe_value.astype(np.string_) </t>
+  </si>
+  <si>
+    <t>Out[248]: </t>
+  </si>
+  <si>
+    <t>     seq</t>
+  </si>
+  <si>
+    <t>0  b'10'</t>
+  </si>
+  <si>
+    <t>1  b'11'</t>
+  </si>
+  <si>
+    <t>2  b'12'</t>
+  </si>
+  <si>
+    <t>数列の要素数</t>
+  </si>
+  <si>
+    <t># リスト</t>
+  </si>
+  <si>
+    <t>In [252]: len(list_value)</t>
+  </si>
+  <si>
+    <t>Out[252]: 3</t>
+  </si>
+  <si>
+    <t># タプル</t>
+  </si>
+  <si>
+    <t>In [253]: len(tuple_value)</t>
+  </si>
+  <si>
+    <t>Out[253]: 3</t>
+  </si>
+  <si>
+    <t># ディクショナリ</t>
+  </si>
+  <si>
+    <t>In [254]: len(dict_value)</t>
+  </si>
+  <si>
+    <t>Out[254]: 3</t>
+  </si>
+  <si>
+    <t># セット</t>
+  </si>
+  <si>
+    <t>In [255]: len(set_value)</t>
+  </si>
+  <si>
+    <t>Out[255]: 3</t>
+  </si>
+  <si>
+    <t># numpy配列</t>
+  </si>
+  <si>
+    <t>In [256]: len(ndarray_value)</t>
+  </si>
+  <si>
+    <t>Out[256]: 3</t>
+  </si>
+  <si>
+    <t># pandasシリーズ</t>
+  </si>
+  <si>
+    <t>In [257]: len(series_value)</t>
+  </si>
+  <si>
+    <t>Out[257]: 3</t>
+  </si>
+  <si>
+    <t># pandasデータフレーム</t>
+  </si>
+  <si>
+    <t>In [258]: len(dataframe_value)</t>
+  </si>
+  <si>
+    <t>Out[258]: 3</t>
+  </si>
+  <si>
+    <t>########</t>
+  </si>
+  <si>
+    <t># 次元 #</t>
+  </si>
+  <si>
+    <t>In [259]: ndarray_value.ndim</t>
+  </si>
+  <si>
+    <t>Out[259]: 1</t>
+  </si>
+  <si>
+    <t>In [260]: ndarray_value.shape</t>
+  </si>
+  <si>
+    <t>Out[260]: (3,)</t>
+  </si>
+  <si>
+    <t>In [261]: series_value.ndim</t>
+  </si>
+  <si>
+    <t>Out[261]: 1</t>
+  </si>
+  <si>
+    <t>In [262]: series_value.shape</t>
+  </si>
+  <si>
+    <t>Out[262]: (3,)</t>
+  </si>
+  <si>
+    <t>In [263]: dataframe_value.ndim</t>
+  </si>
+  <si>
+    <t>Out[263]: 2</t>
+  </si>
+  <si>
+    <t>In [264]: dataframe_value.shape</t>
+  </si>
+  <si>
+    <t>Out[264]: (3, 1)</t>
+  </si>
+  <si>
+    <t>要素の参照</t>
+  </si>
+  <si>
+    <t>In [266]: list_value[0]</t>
+  </si>
+  <si>
+    <t>Out[266]: 10</t>
+  </si>
+  <si>
+    <t>In [267]: list_value[-3]</t>
+  </si>
+  <si>
+    <t>Out[267]: 10</t>
+  </si>
+  <si>
+    <t>In [268]: list_value[2]</t>
+  </si>
+  <si>
+    <t>Out[268]: 12</t>
+  </si>
+  <si>
+    <t>In [269]: list_value[-1]</t>
+  </si>
+  <si>
+    <t>Out[269]: 12</t>
+  </si>
+  <si>
+    <t># タプルはリストと同じ</t>
+  </si>
+  <si>
+    <t>In [274]: dict_value[0]</t>
+  </si>
+  <si>
+    <t>Out[274]: 10</t>
+  </si>
+  <si>
+    <t>In [275]: dict_value[-3]　# ＊エラーになる</t>
+  </si>
+  <si>
+    <t>In [276]: dict_value[2]</t>
+  </si>
+  <si>
+    <t>Out[276]: 12</t>
+  </si>
+  <si>
+    <t>In [277]: dict_value[-1]　# ＊エラーになる</t>
+  </si>
+  <si>
+    <t># セットはインデックス参照をサポートしていない</t>
+  </si>
+  <si>
+    <t>In [279]: ndarray_value[0]</t>
+  </si>
+  <si>
+    <t>Out[279]: 10</t>
+  </si>
+  <si>
+    <t>In [280]: ndarray_value[-3]</t>
+  </si>
+  <si>
+    <t>Out[280]: 10</t>
+  </si>
+  <si>
+    <t>In [281]: ndarray_value[2]</t>
+  </si>
+  <si>
+    <t>Out[281]: 12</t>
+  </si>
+  <si>
+    <t>In [282]: ndarray_value[-1]</t>
+  </si>
+  <si>
+    <t>Out[282]: 12</t>
+  </si>
+  <si>
+    <t>In [283]: series_value[0]</t>
+  </si>
+  <si>
+    <t>Out[283]: 10</t>
+  </si>
+  <si>
+    <t>In [284]: series_value[-3] 　# ＊エラーになる</t>
+  </si>
+  <si>
+    <t>In [285]: series_value[2]</t>
+  </si>
+  <si>
+    <t>Out[285]: 12</t>
+  </si>
+  <si>
+    <t>In [286]: series_value[-1] 　# ＊エラーになる</t>
+  </si>
+  <si>
+    <t>In [287]: dataframe_value[0]　# ＊エラーになる</t>
+  </si>
+  <si>
+    <t>総和</t>
+  </si>
+  <si>
+    <t># python標準による合計</t>
+  </si>
+  <si>
+    <t>In [289]: sum(list_value)</t>
+  </si>
+  <si>
+    <t>Out[289]: 33</t>
+  </si>
+  <si>
+    <t>In [290]: sum(tuple_value)</t>
+  </si>
+  <si>
+    <t>Out[290]: 33</t>
+  </si>
+  <si>
+    <t>In [291]: sum(dict_value)</t>
+  </si>
+  <si>
+    <t>Out[291]: 3</t>
+  </si>
+  <si>
+    <t>In [292]: sum(set_value)</t>
+  </si>
+  <si>
+    <t>Out[292]: 33</t>
+  </si>
+  <si>
+    <t>In [293]: sum(ndarray_value)</t>
+  </si>
+  <si>
+    <t>Out[293]: 33</t>
+  </si>
+  <si>
+    <t>In [294]: sum(series_value)</t>
+  </si>
+  <si>
+    <t>Out[294]: 33</t>
+  </si>
+  <si>
+    <t>In [295]: sum(dataframe_value) # ＊エラーになる</t>
+  </si>
+  <si>
+    <t># numpyによる合計</t>
+  </si>
+  <si>
+    <t>In [296]: np.sum(list_value)</t>
+  </si>
+  <si>
+    <t>Out[296]: 33</t>
+  </si>
+  <si>
+    <t>In [297]: np.sum(tuple_value)</t>
+  </si>
+  <si>
+    <t>Out[297]: 33</t>
+  </si>
+  <si>
+    <t>In [298]: np.sum(dict_value) # ＊上手くいかない</t>
+  </si>
+  <si>
+    <t>Out[298]: {0: 10, 1: 11, 2: 12}</t>
+  </si>
+  <si>
+    <t>In [299]: np.sum(set_value) # ＊上手くいかない</t>
+  </si>
+  <si>
+    <t>Out[299]: {10, 11, 12}</t>
+  </si>
+  <si>
+    <t>In [300]: np.sum(ndarray_value)</t>
+  </si>
+  <si>
+    <t>Out[300]: 33</t>
+  </si>
+  <si>
+    <t>In [301]: np.sum(series_value)</t>
+  </si>
+  <si>
+    <t>Out[301]: 33</t>
+  </si>
+  <si>
+    <t>In [302]: np.sum(dataframe_value)</t>
+  </si>
+  <si>
+    <t>Out[302]: </t>
+  </si>
+  <si>
+    <t>seq    33</t>
+  </si>
+  <si>
+    <t>順列と組み合わせ</t>
+  </si>
+  <si>
+    <t># 順列</t>
+  </si>
+  <si>
+    <t>seq = ('A','B','C')</t>
+  </si>
+  <si>
+    <t>len(list(it.permutations(seq,2)))</t>
+  </si>
+  <si>
+    <t>Out[15]: 6</t>
+  </si>
+  <si>
+    <t>list(it.permutations(seq, 2))</t>
+  </si>
+  <si>
+    <t>Out[16]: [('A', 'B'), ('A', 'C'), ('B', 'A'), ('B', 'C'), ('C', 'A'), ('C', 'B')]</t>
+  </si>
+  <si>
+    <t># 組み合わせ</t>
+  </si>
+  <si>
+    <t>len(list(it.combinations(seq,2)))</t>
+  </si>
+  <si>
+    <t>Out[18]: 3</t>
+  </si>
+  <si>
+    <t>list(it.combinations(seq, 2))</t>
+  </si>
+  <si>
+    <t>Out[19]: [('A', 'B'), ('A', 'C'), ('B', 'C')]</t>
+  </si>
+  <si>
+    <t># 直積</t>
+  </si>
+  <si>
+    <t>seq1 = ('A','B')</t>
+  </si>
+  <si>
+    <t>seq2 = ('C','D')</t>
+  </si>
+  <si>
+    <t>len(list(it.product(seq1,seq2)))</t>
+  </si>
+  <si>
+    <t>Out[23]: 4</t>
+  </si>
+  <si>
+    <t>list(it.product(seq1,seq2))</t>
+  </si>
+  <si>
+    <t>Out[24]: [('A', 'C'), ('A', 'D'), ('B', 'C'), ('B', 'D')]</t>
+  </si>
 </sst>
 </file>
 
@@ -469,7 +1448,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="TakaoPGothic"/>
@@ -529,6 +1508,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="2"/>
+      <name val="TakaoPGothic"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF2E3D49"/>
       <name val="TakaoPGothic"/>
@@ -562,6 +1547,21 @@
       <name val="Lucida Console"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="TakaoPGothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="TakaoPGothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -640,7 +1640,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -649,11 +1649,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -661,11 +1665,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -746,15 +1750,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>519480</xdr:colOff>
+      <xdr:colOff>627480</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>464400</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:colOff>570960</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -769,8 +1773,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="519480" y="6177960"/>
-          <a:ext cx="8857440" cy="3032640"/>
+          <a:off x="627480" y="6141960"/>
+          <a:ext cx="8856000" cy="3031200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -785,15 +1789,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>109440</xdr:colOff>
+      <xdr:colOff>217440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>183240</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:colOff>289800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -808,8 +1812,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="919440" y="0"/>
-          <a:ext cx="4935600" cy="2328480"/>
+          <a:off x="1027440" y="0"/>
+          <a:ext cx="4934160" cy="2327040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -824,15 +1828,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>40320</xdr:colOff>
+      <xdr:colOff>148320</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>500760</xdr:colOff>
+      <xdr:colOff>607320</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -847,8 +1851,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="850320" y="3112920"/>
-          <a:ext cx="5322240" cy="2756880"/>
+          <a:off x="958320" y="3076920"/>
+          <a:ext cx="5320800" cy="2755440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -863,15 +1867,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>505080</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:colOff>613080</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>410400</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -886,8 +1890,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10227960" y="4386960"/>
-          <a:ext cx="7901280" cy="4424040"/>
+          <a:off x="10335960" y="4350960"/>
+          <a:ext cx="7899840" cy="4422600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -902,15 +1906,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>366840</xdr:colOff>
+      <xdr:colOff>474840</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>86760</xdr:colOff>
+      <xdr:colOff>193320</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -925,8 +1929,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3607560" y="6883920"/>
-          <a:ext cx="1340640" cy="157320"/>
+          <a:off x="3715560" y="6847920"/>
+          <a:ext cx="1339200" cy="155880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -940,16 +1944,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>774360</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72000</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>527040</xdr:colOff>
+      <xdr:colOff>633600</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -958,8 +1962,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1584360" y="10013760"/>
-          <a:ext cx="6234840" cy="3785760"/>
+          <a:off x="1692360" y="9977760"/>
+          <a:ext cx="6233400" cy="3784320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1089,15 +2093,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>321480</xdr:colOff>
+      <xdr:colOff>429480</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>32040</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:colOff>138600</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1106,8 +2110,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5993280" y="10121760"/>
-          <a:ext cx="2141280" cy="512280"/>
+          <a:off x="6101280" y="10085760"/>
+          <a:ext cx="2139840" cy="510840"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1167,15 +2171,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>419760</xdr:colOff>
+      <xdr:colOff>527760</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>130320</xdr:colOff>
+      <xdr:colOff>236880</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1184,8 +2188,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6091560" y="10708560"/>
-          <a:ext cx="2141280" cy="512280"/>
+          <a:off x="6199560" y="10672560"/>
+          <a:ext cx="2139840" cy="510840"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1250,16 +2254,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>715680</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13680</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>426240</xdr:colOff>
+      <xdr:colOff>532800</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1268,8 +2272,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6387480" y="9545760"/>
-          <a:ext cx="2141280" cy="512280"/>
+          <a:off x="6495480" y="9509760"/>
+          <a:ext cx="2139840" cy="510840"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1308,16 +2312,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>737280</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>35280</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>447840</xdr:colOff>
+      <xdr:colOff>554400</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1326,8 +2330,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6409080" y="11643480"/>
-          <a:ext cx="2141280" cy="512280"/>
+          <a:off x="6517080" y="11607480"/>
+          <a:ext cx="2139840" cy="510840"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1387,15 +2391,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>167760</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:colOff>275760</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>272880</xdr:colOff>
+      <xdr:colOff>379440</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1404,8 +2408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5839560" y="12926160"/>
-          <a:ext cx="4156200" cy="512280"/>
+          <a:off x="5947560" y="12890160"/>
+          <a:ext cx="4154760" cy="510840"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -1497,15 +2501,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>141480</xdr:colOff>
+      <xdr:colOff>249480</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>438840</xdr:colOff>
+      <xdr:colOff>545400</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1520,8 +2524,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="951480" y="13449600"/>
-          <a:ext cx="4348800" cy="3698280"/>
+          <a:off x="1059480" y="13413600"/>
+          <a:ext cx="4347360" cy="3696840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1536,15 +2540,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>432000</xdr:colOff>
+      <xdr:colOff>540000</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>182520</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:colOff>289080</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1559,8 +2563,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5293440" y="13468320"/>
-          <a:ext cx="4611960" cy="4122360"/>
+          <a:off x="5401440" y="13432320"/>
+          <a:ext cx="4610520" cy="4120920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1575,15 +2579,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104040</xdr:colOff>
+      <xdr:colOff>212040</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>763560</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>59760</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1598,8 +2602,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="914040" y="17947800"/>
-          <a:ext cx="4710960" cy="3569760"/>
+          <a:off x="1022040" y="17911800"/>
+          <a:ext cx="4709520" cy="3568320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1614,15 +2618,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>270000</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>386640</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:colOff>493200</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1637,8 +2641,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="972000" y="21789720"/>
-          <a:ext cx="6706800" cy="4846320"/>
+          <a:off x="1080000" y="21753720"/>
+          <a:ext cx="6705360" cy="4844880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1653,15 +2657,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>270000</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>643680</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:colOff>750240</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1676,8 +2680,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="972000" y="26829360"/>
-          <a:ext cx="6963840" cy="3331800"/>
+          <a:off x="1080000" y="26793360"/>
+          <a:ext cx="6962400" cy="3330360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1691,16 +2695,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>760320</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57960</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>180720</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:colOff>287280</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1709,8 +2713,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10483200" y="14416560"/>
-          <a:ext cx="3471840" cy="1132560"/>
+          <a:off x="10591200" y="14380560"/>
+          <a:ext cx="3470400" cy="1131120"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1751,15 +2755,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>324000</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>806040</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>102240</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1768,8 +2772,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10749240" y="16288200"/>
-          <a:ext cx="5451480" cy="1190520"/>
+          <a:off x="10857240" y="16252200"/>
+          <a:ext cx="5450040" cy="1189080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1852,15 +2856,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>60840</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:colOff>168840</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>14760</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:colOff>121320</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1869,8 +2873,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18696600" y="16630200"/>
-          <a:ext cx="3195000" cy="1113120"/>
+          <a:off x="18804600" y="16594200"/>
+          <a:ext cx="3193560" cy="1111680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1955,15 +2959,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>180000</xdr:colOff>
+      <xdr:colOff>288000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>134280</xdr:colOff>
+      <xdr:colOff>240840</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1972,8 +2976,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14764680" y="9162000"/>
-          <a:ext cx="3195000" cy="1113120"/>
+          <a:off x="14872680" y="9126000"/>
+          <a:ext cx="3193560" cy="1111680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2040,15 +3044,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>424440</xdr:colOff>
+      <xdr:colOff>532440</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>512640</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:colOff>619200</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2063,8 +3067,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14198760" y="10253520"/>
-          <a:ext cx="6570360" cy="2676240"/>
+          <a:off x="14306760" y="10217520"/>
+          <a:ext cx="6568920" cy="2674800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2079,15 +3083,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>97560</xdr:colOff>
+      <xdr:colOff>205560</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>7920</xdr:colOff>
+      <xdr:colOff>114480</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2102,8 +3106,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16302600" y="13174560"/>
-          <a:ext cx="5582160" cy="3352680"/>
+          <a:off x="16410600" y="13138560"/>
+          <a:ext cx="5580720" cy="3351240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2122,16 +3126,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>797400</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
+      <xdr:colOff>270360</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2146,8 +3150,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="797400" y="0"/>
-          <a:ext cx="5038200" cy="4295880"/>
+          <a:off x="905400" y="0"/>
+          <a:ext cx="5036760" cy="4294440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2162,15 +3166,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>659160</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:colOff>767160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>416520</xdr:colOff>
+      <xdr:colOff>523080</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2179,8 +3183,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6330960" y="1739160"/>
-          <a:ext cx="6239160" cy="4862520"/>
+          <a:off x="6438960" y="1703160"/>
+          <a:ext cx="6237720" cy="4861080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2304,15 +3308,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>437760</xdr:colOff>
+      <xdr:colOff>545760</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>571680</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:colOff>678240</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2327,8 +3331,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6109560" y="4788720"/>
-          <a:ext cx="6615720" cy="2509920"/>
+          <a:off x="6217560" y="4752720"/>
+          <a:ext cx="6614280" cy="2508480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2343,15 +3347,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>610200</xdr:colOff>
+      <xdr:colOff>718200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:colOff>124560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2360,8 +3364,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10333080" y="2073960"/>
-          <a:ext cx="1838520" cy="405720"/>
+          <a:off x="10441080" y="2037960"/>
+          <a:ext cx="1837080" cy="404280"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -2423,15 +3427,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>610200</xdr:colOff>
+      <xdr:colOff>718200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
+      <xdr:colOff>124560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2440,8 +3444,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10333080" y="2683080"/>
-          <a:ext cx="1838520" cy="405720"/>
+          <a:off x="10441080" y="2647080"/>
+          <a:ext cx="1837080" cy="404280"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -2509,15 +3513,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>455760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>279000</xdr:colOff>
+      <xdr:colOff>385560</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2526,8 +3530,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12501360" y="3494880"/>
-          <a:ext cx="5603040" cy="1116720"/>
+          <a:off x="12609360" y="3458880"/>
+          <a:ext cx="5601600" cy="1115280"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2654,15 +3658,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:colOff>532440</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>226800</xdr:colOff>
+      <xdr:colOff>379800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2677,8 +3681,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="378000" y="331200"/>
-          <a:ext cx="8761320" cy="4042800"/>
+          <a:off x="532440" y="290880"/>
+          <a:ext cx="8759880" cy="4041360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2693,15 +3697,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:colOff>532440</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>650160</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:colOff>803160</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2716,8 +3720,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="378000" y="4912560"/>
-          <a:ext cx="7564320" cy="3043800"/>
+          <a:off x="532440" y="4872240"/>
+          <a:ext cx="7562880" cy="3042360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2732,15 +3736,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:colOff>532440</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>374760</xdr:colOff>
+      <xdr:colOff>527760</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2755,8 +3759,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="378000" y="8265240"/>
-          <a:ext cx="6478560" cy="2719080"/>
+          <a:off x="532440" y="8224920"/>
+          <a:ext cx="6477120" cy="2717640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2771,15 +3775,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>532440</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>52200</xdr:rowOff>
+      <xdr:colOff>191520</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2794,8 +3798,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="378000" y="11161080"/>
-          <a:ext cx="8573040" cy="3805200"/>
+          <a:off x="532440" y="11120760"/>
+          <a:ext cx="8571600" cy="3803760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2810,15 +3814,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>417240</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:colOff>571680</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>689400</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>32040</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2833,8 +3837,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="417240" y="15729120"/>
-          <a:ext cx="9184680" cy="3756960"/>
+          <a:off x="571680" y="15688800"/>
+          <a:ext cx="9183240" cy="3755520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2849,15 +3853,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>532440</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>679680</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22320</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2872,8 +3876,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="378000" y="19847880"/>
-          <a:ext cx="7593840" cy="4547880"/>
+          <a:off x="532440" y="19807560"/>
+          <a:ext cx="7592400" cy="4546440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2888,15 +3892,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>532440</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>374040</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:colOff>527040</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2911,8 +3915,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="378000" y="24572160"/>
-          <a:ext cx="7288200" cy="3462120"/>
+          <a:off x="532440" y="24531840"/>
+          <a:ext cx="7286760" cy="3460680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2927,15 +3931,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:colOff>532440</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>38160</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:colOff>191160</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2950,8 +3954,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="378000" y="28382040"/>
-          <a:ext cx="5331960" cy="2728800"/>
+          <a:off x="532440" y="28341720"/>
+          <a:ext cx="5330520" cy="2727360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2966,15 +3970,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:colOff>532440</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:colOff>171000</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2989,8 +3993,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="378000" y="31277880"/>
-          <a:ext cx="7742520" cy="2499840"/>
+          <a:off x="532440" y="31237560"/>
+          <a:ext cx="7741080" cy="2498400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3005,15 +4009,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:colOff>532440</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>118440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>206640</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:colOff>359640</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3028,8 +4032,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1188000" y="34021080"/>
-          <a:ext cx="5500440" cy="1128240"/>
+          <a:off x="1342440" y="33980760"/>
+          <a:ext cx="5499000" cy="1126800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3044,15 +4048,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:colOff>532440</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>521280</xdr:colOff>
-      <xdr:row>257</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:colOff>674280</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3067,8 +4071,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1188000" y="35697240"/>
-          <a:ext cx="5005080" cy="3805560"/>
+          <a:off x="1342440" y="35656920"/>
+          <a:ext cx="5003640" cy="3804120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3082,16 +4086,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>743760</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>87840</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>102600</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>553680</xdr:colOff>
+      <xdr:colOff>706680</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3106,8 +4110,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10466640" y="254880"/>
-          <a:ext cx="16015320" cy="7510320"/>
+          <a:off x="10621080" y="214560"/>
+          <a:ext cx="16013880" cy="7508880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3121,16 +4125,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>721080</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>65160</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>506520</xdr:colOff>
+      <xdr:colOff>659520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3145,8 +4149,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12874680" y="6627240"/>
-          <a:ext cx="10319040" cy="1128240"/>
+          <a:off x="13029120" y="6586920"/>
+          <a:ext cx="10317600" cy="1126800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3161,15 +4165,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>454320</xdr:colOff>
+      <xdr:colOff>608760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>677880</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>20880</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3184,8 +4188,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25572240" y="4320"/>
-          <a:ext cx="6705720" cy="6202080"/>
+          <a:off x="25726680" y="0"/>
+          <a:ext cx="6704280" cy="6200640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3199,16 +4203,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>711360</xdr:colOff>
-      <xdr:row>259</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>55800</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>781920</xdr:colOff>
-      <xdr:row>270</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>124560</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3223,8 +4227,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="711360" y="39707280"/>
-          <a:ext cx="7362720" cy="1890360"/>
+          <a:off x="865800" y="39666960"/>
+          <a:ext cx="7361280" cy="1888920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3239,15 +4243,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
-      <xdr:row>307</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:colOff>532440</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>341</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:colOff>305280</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3262,8 +4266,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1188000" y="47908440"/>
-          <a:ext cx="7066800" cy="5128200"/>
+          <a:off x="1342440" y="47868120"/>
+          <a:ext cx="7065360" cy="5126760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3277,16 +4281,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>662040</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6120</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:colOff>316800</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3295,8 +4299,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10384920" y="9486360"/>
-          <a:ext cx="7604280" cy="14855040"/>
+          <a:off x="10539360" y="9446040"/>
+          <a:ext cx="7602840" cy="14853600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4208,16 +5212,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>660600</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>591840</xdr:colOff>
+      <xdr:colOff>744840</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>48960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4226,8 +5230,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14434920" y="10809720"/>
-          <a:ext cx="5603040" cy="1116720"/>
+          <a:off x="14589360" y="10769400"/>
+          <a:ext cx="5601600" cy="1115280"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -4322,16 +5326,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>764280</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>108360</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>145440</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:colOff>298440</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4340,8 +5344,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14538600" y="15590520"/>
-          <a:ext cx="4242600" cy="1116720"/>
+          <a:off x="14693040" y="15550200"/>
+          <a:ext cx="4241160" cy="1115280"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -4549,15 +5553,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>604080</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:colOff>758520</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>720000</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>62640</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4572,8 +5576,783 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15188760" y="12628800"/>
-          <a:ext cx="6597720" cy="2054880"/>
+          <a:off x="15343200" y="12588480"/>
+          <a:ext cx="6596280" cy="2053440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>127440</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>100800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>570600</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="画像 39" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22814640" y="8542800"/>
+          <a:ext cx="8545680" cy="3371400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>762480</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>134640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>520920</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>100440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31552200" y="10578240"/>
+          <a:ext cx="7050600" cy="1053000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4155"/>
+            <a:gd name="adj2" fmla="val 21533"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>シグモイドを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>σ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>式で使用すれば</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Y^</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>を確率で出力できる。</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>100440</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>119880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>781200</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="画像 40" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20356920" y="15369120"/>
+          <a:ext cx="3111480" cy="2857320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>109080</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>136080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>743760</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>69120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20365560" y="18514800"/>
+          <a:ext cx="3065400" cy="1009800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>とｙ＾の比較はシグモイド</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>複数変数の比較はソフトマップ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>ソフトマップに２変数とする際の意味合いは</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>シグモイドと等価（証明は難しく割愛）</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>73440</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>118800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>685440</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>79560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="画像 41" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20329920" y="19574280"/>
+          <a:ext cx="6283800" cy="2571840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>792000</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>616320</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>83880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23479200" y="21293280"/>
+          <a:ext cx="3065400" cy="1009800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>シグモイドの出力を</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>発生頻度・確率・予測値に見立てる</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>28080</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>110520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>768240</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>14040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="画像 42" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21094560" y="21719880"/>
+          <a:ext cx="8032680" cy="3429360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>779760</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>96840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29138760" y="22152600"/>
+          <a:ext cx="3865680" cy="1087920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>確率の総和を</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>対数に置き換えて計算</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>モデルの発生頻度</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>　（値が大きいほどしばしば発生）</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>757800</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>80640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>572400</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>8280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29116800" y="23986440"/>
+          <a:ext cx="3865680" cy="1309320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>確率の総和を</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>負の対数に置き換えて計算</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>クロスエントロピ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>　　値が小さいほど正確なモデル、</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>　　　　大きいほど曖昧</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>96480</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>7920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>651960</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26024760" y="25143120"/>
+          <a:ext cx="3796560" cy="618120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>クロスエントロピーが小さいほど</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>確率が高く正確なモデル</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>661320</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>66240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="画像 43" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8912520" y="24667560"/>
+          <a:ext cx="7953840" cy="4363920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>246600</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>67320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="画像 44" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8912520" y="29270160"/>
+          <a:ext cx="7539120" cy="3115440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>434160</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="画像 45" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8912520" y="32622840"/>
+          <a:ext cx="7726680" cy="3830400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4593,19 +6372,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>135000</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>390600</xdr:colOff>
+      <xdr:colOff>497160</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="画像 24" descr=""/>
+        <xdr:cNvPr id="61" name="画像 24" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4616,8 +6395,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="135000" y="0"/>
-          <a:ext cx="9196200" cy="4941720"/>
+          <a:off x="243000" y="0"/>
+          <a:ext cx="9194760" cy="4940280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4632,19 +6411,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>443160</xdr:colOff>
+      <xdr:colOff>549720</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="画像 25" descr=""/>
+        <xdr:cNvPr id="62" name="画像 25" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4655,8 +6434,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108000" y="5003280"/>
-          <a:ext cx="6837480" cy="4387320"/>
+          <a:off x="216000" y="4967280"/>
+          <a:ext cx="6836040" cy="4385880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4671,25 +6450,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>276840</xdr:colOff>
+      <xdr:colOff>384840</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>398880</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1"/>
+        <xdr:cNvPr id="63" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7592040" y="5099400"/>
-          <a:ext cx="5704920" cy="5739480"/>
+          <a:off x="7700040" y="5063400"/>
+          <a:ext cx="5703480" cy="5738040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5062,19 +6841,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>162000</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>379800</xdr:colOff>
+      <xdr:colOff>486360</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="画像 26" descr=""/>
+        <xdr:cNvPr id="64" name="画像 26" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5085,8 +6864,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="10873440"/>
-          <a:ext cx="7641000" cy="4474080"/>
+          <a:off x="162000" y="10837440"/>
+          <a:ext cx="7639560" cy="4472640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5106,25 +6885,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>651600</xdr:colOff>
+      <xdr:colOff>759600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>467640</xdr:colOff>
+      <xdr:colOff>574200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CustomShape 1"/>
+        <xdr:cNvPr id="65" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="651600" y="201240"/>
-          <a:ext cx="5183640" cy="2638800"/>
+          <a:off x="759600" y="165240"/>
+          <a:ext cx="5182200" cy="2637360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5287,19 +7066,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>198000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>495720</xdr:colOff>
+      <xdr:colOff>602280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="画像 27" descr=""/>
+        <xdr:cNvPr id="66" name="画像 27" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5310,8 +7089,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7083000" y="163440"/>
-          <a:ext cx="4469760" cy="1108440"/>
+          <a:off x="7191000" y="127440"/>
+          <a:ext cx="4468320" cy="1107000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5326,19 +7105,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:colOff>388800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>435240</xdr:colOff>
+      <xdr:colOff>541800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="画像 30" descr=""/>
+        <xdr:cNvPr id="67" name="画像 30" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5349,8 +7128,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8899560" y="1305720"/>
-          <a:ext cx="4218480" cy="1866600"/>
+          <a:off x="9007560" y="1269720"/>
+          <a:ext cx="4217040" cy="1865160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5365,19 +7144,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>701280</xdr:colOff>
+      <xdr:colOff>809280</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>372240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="画像 31" descr=""/>
+        <xdr:cNvPr id="68" name="画像 31" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5388,8 +7167,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6068880" y="1457280"/>
-          <a:ext cx="2815560" cy="1638000"/>
+          <a:off x="6176880" y="1421280"/>
+          <a:ext cx="2814120" cy="1636560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5404,19 +7183,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:colOff>388800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>299880</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>406440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="画像 33" descr=""/>
+        <xdr:cNvPr id="69" name="画像 33" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5427,8 +7206,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8899560" y="3265560"/>
-          <a:ext cx="6521400" cy="2102760"/>
+          <a:off x="9007560" y="3229560"/>
+          <a:ext cx="6519960" cy="2101320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5443,25 +7222,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>68040</xdr:colOff>
+      <xdr:colOff>176040</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>608040</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:colOff>714600</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="CustomShape 1"/>
+        <xdr:cNvPr id="70" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="68040" y="7369200"/>
-          <a:ext cx="6720120" cy="5348520"/>
+          <a:off x="176040" y="7333200"/>
+          <a:ext cx="6718680" cy="5347080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5761,20 +7540,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>789840</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85320</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>120240</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:colOff>226800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="画像 32" descr=""/>
+        <xdr:cNvPr id="71" name="画像 32" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5785,8 +7564,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="789840" y="4667040"/>
-          <a:ext cx="5510520" cy="544320"/>
+          <a:off x="897840" y="4631040"/>
+          <a:ext cx="5509080" cy="542880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5800,20 +7579,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>810000</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>105480</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>279000</xdr:colOff>
+      <xdr:colOff>385560</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="画像 35" descr=""/>
+        <xdr:cNvPr id="72" name="画像 35" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5824,8 +7603,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="810000" y="5279040"/>
-          <a:ext cx="4023720" cy="496440"/>
+          <a:off x="918000" y="5243040"/>
+          <a:ext cx="4022280" cy="495000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5840,19 +7619,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>41760</xdr:colOff>
+      <xdr:colOff>149760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>157680</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="画像 34" descr=""/>
+        <xdr:cNvPr id="73" name="画像 34" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5863,8 +7642,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4596480" y="5288400"/>
-          <a:ext cx="3260520" cy="391320"/>
+          <a:off x="4704480" y="5252400"/>
+          <a:ext cx="3259080" cy="389880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5879,19 +7658,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>488520</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:colOff>596520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>164880</xdr:colOff>
+      <xdr:colOff>271440</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="画像 36" descr=""/>
+        <xdr:cNvPr id="74" name="画像 36" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5902,8 +7681,656 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1301040" y="4255560"/>
-          <a:ext cx="1792800" cy="295560"/>
+          <a:off x="1409040" y="4219560"/>
+          <a:ext cx="1791360" cy="294120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>51480</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>45360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7044480" y="7891920"/>
+          <a:ext cx="5674680" cy="7596360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="99cccc"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>"""</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Setup the strides, padding and filter weight/bias such that</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>the output shape is (1, 2, 2, 3).</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>"""</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>import tensorflow as tf</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>import numpy as np</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># `tf.nn.conv2d` requires the input be 4D (batch_size, height, width, depth)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># (1, 4, 4, 1)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>x = np.array([</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>[0, 1, 0.5, 10],</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>[2, 2.5, 1, -8],</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>[4, 0, 5, 6],</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>[15, 1, 2, 3]], dtype=np.float32).reshape((1, 4, 4, 1))</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>X = tf.constant(x)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>def conv2d(input):</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># Filter (weights and bias)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># The shape of the filter weight is (height, width, input_depth, output_depth)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># The shape of the filter bias is (output_depth,)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># TODO: Define the filter weights `F_W` and filter bias `F_b`.</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># NOTE: Remember to wrap them in `tf.Variable`, they are trainable parameters after all.</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>F_W= tf.Variable(tf.truncated_normal((2, 2, 1, 3)))</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>F_b = tf.Variable(tf.zeros(3))</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>F_k = tf.Variable(tf.constant(70,shape=[2,2,1,3],dtype=tf.float32))</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>F_t = tf.Variable(tf.constant(70,shape=[3,],dtype=tf.float32))</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>F_W=F_k</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>F_b=F_t  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="6666ff"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>#No checked to Value,Only checked Size (kshiba)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="6666ff"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="6666ff"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># TODO: Set the stride for each dimension (batch_size, height, width, depth)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>strides = [1, 2, 2, 1]</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># TODO: set the padding, either 'VALID' or 'SAME'.</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>padding = 'VALID'</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># https://www.tensorflow.org/versions/r0.11/api_docs/python/nn.html#conv2d</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t># `tf.nn.conv2d` does not include the bias computation so we have to add it ourselves after.</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>return tf.nn.conv2d(input, F_W, strides, padding) + F_b</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>out = conv2d(X)</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>259920</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>44640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>429840</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>138240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="画像 37" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="259920" y="12724200"/>
+          <a:ext cx="6350040" cy="3507480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5918,677 +8345,33 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>756360</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:colOff>795960</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>742680</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>633600</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="CustomShape 1"/>
+        <xdr:cNvPr id="77" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6936480" y="7927920"/>
-          <a:ext cx="5676120" cy="7597800"/>
+          <a:off x="6976080" y="16229160"/>
+          <a:ext cx="4714560" cy="1190520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="99cccc"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>"""</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>Setup the strides, padding and filter weight/bias such that</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>the output shape is (1, 2, 2, 3).</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>"""</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>import tensorflow as tf</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>import numpy as np</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t># `tf.nn.conv2d` requires the input be 4D (batch_size, height, width, depth)</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t># (1, 4, 4, 1)</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>x = np.array([</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>[0, 1, 0.5, 10],</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>[2, 2.5, 1, -8],</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>[4, 0, 5, 6],</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>[15, 1, 2, 3]], dtype=np.float32).reshape((1, 4, 4, 1))</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>X = tf.constant(x)</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>def conv2d(input):</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t># Filter (weights and bias)</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t># The shape of the filter weight is (height, width, input_depth, output_depth)</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t># The shape of the filter bias is (output_depth,)</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t># TODO: Define the filter weights `F_W` and filter bias `F_b`.</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t># NOTE: Remember to wrap them in `tf.Variable`, they are trainable parameters after all.</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>F_W= tf.Variable(tf.truncated_normal((2, 2, 1, 3)))</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>F_b = tf.Variable(tf.zeros(3))</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="ff3333"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="ff3333"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>F_k = tf.Variable(tf.constant(70,shape=[2,2,1,3],dtype=tf.float32))</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="ff3333"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="ff3333"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>F_t = tf.Variable(tf.constant(70,shape=[3,],dtype=tf.float32))</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="ff3333"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="ff3333"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="ff3333"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>F_W=F_k</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="ff3333"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="ff3333"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>F_b=F_t  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="6666ff"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>#No checked to Value,Only checked Size (kshiba)</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="6666ff"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="6666ff"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t># TODO: Set the stride for each dimension (batch_size, height, width, depth)</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>strides = [1, 2, 2, 1]</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t># TODO: set the padding, either 'VALID' or 'SAME'.</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>padding = 'VALID'</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t># https://www.tensorflow.org/versions/r0.11/api_docs/python/nn.html#conv2d</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t># `tf.nn.conv2d` does not include the bias computation so we have to add it ourselves after.</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>return tf.nn.conv2d(input, F_W, strides, padding) + F_b</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>out = conv2d(X)</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>323280</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="画像 37" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="151920" y="12760200"/>
-          <a:ext cx="6351480" cy="3508920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>687960</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>527040</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6868080" y="16265160"/>
-          <a:ext cx="4716000" cy="1191960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
@@ -6608,19 +8391,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>643320</xdr:colOff>
+      <xdr:colOff>751320</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>204120</xdr:colOff>
+      <xdr:colOff>310680</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="画像 38" descr=""/>
+        <xdr:cNvPr id="78" name="画像 38" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6631,8 +8414,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6823440" y="16490880"/>
-          <a:ext cx="8501760" cy="1625400"/>
+          <a:off x="6931440" y="16454880"/>
+          <a:ext cx="8500320" cy="1623960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6654,7 +8437,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A179" activeCellId="0" sqref="A179"/>
     </sheetView>
   </sheetViews>
@@ -6740,7 +8523,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H4" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -6821,10 +8604,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B13:AK311"/>
+  <dimension ref="B1:AK311"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y120" activeCellId="0" sqref="Y120"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K197" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC216" activeCellId="0" sqref="AC216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -6832,12 +8615,15 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.1396396396396"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK13" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6855,161 +8641,171 @@
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y121" s="2"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="264" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="2"/>
+      <c r="B264" s="3"/>
     </row>
     <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="4"/>
+      <c r="B275" s="5"/>
     </row>
     <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="5" t="s">
+      <c r="B276" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="5" t="s">
+      <c r="B277" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="6" t="s">
+      <c r="B278" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="4"/>
+      <c r="B279" s="5"/>
     </row>
     <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="5" t="s">
+      <c r="B280" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="5" t="s">
+      <c r="B281" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="6" t="s">
+      <c r="B282" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B283" s="4"/>
+      <c r="B283" s="5"/>
     </row>
     <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="5" t="s">
+      <c r="B284" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B285" s="6" t="s">
+      <c r="B285" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B286" s="5" t="s">
+      <c r="B286" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B287" s="6" t="s">
+      <c r="B287" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B288" s="5" t="s">
+      <c r="B288" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B289" s="6" t="s">
+      <c r="B289" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B290" s="4"/>
+      <c r="B290" s="5"/>
     </row>
     <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B291" s="5" t="s">
+      <c r="B291" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B292" s="6" t="s">
+      <c r="B292" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B293" s="4"/>
+      <c r="B293" s="5"/>
     </row>
     <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="5" t="s">
+      <c r="B294" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="6" t="s">
+      <c r="B295" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="5" t="s">
+      <c r="B296" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B297" s="4"/>
+      <c r="B297" s="5"/>
     </row>
     <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B298" s="5" t="s">
+      <c r="B298" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B299" s="6" t="s">
+      <c r="B299" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B300" s="4"/>
+      <c r="B300" s="5"/>
     </row>
     <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B301" s="5" t="s">
+      <c r="B301" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B302" s="6" t="s">
+      <c r="B302" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B303" s="4"/>
+      <c r="B303" s="5"/>
     </row>
     <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B304" s="5" t="s">
+      <c r="B304" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B305" s="6" t="s">
+      <c r="B305" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B306" s="6" t="s">
+      <c r="B306" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B307" s="5" t="s">
+      <c r="B307" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7033,7 +8829,7 @@
   </sheetPr>
   <dimension ref="O46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
     </sheetView>
   </sheetViews>
@@ -7066,7 +8862,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E79" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E79" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q95" activeCellId="0" sqref="Q95"/>
     </sheetView>
   </sheetViews>
@@ -7086,4 +8882,2061 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:B497"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A427" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F440" activeCellId="0" sqref="F440"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.1711711711712"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B226" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B238" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B241" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B242" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B243" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B244" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B245" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B246" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B251" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B252" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B253" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B254" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B255" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B256" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B259" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B260" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B261" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B262" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B263" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B264" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B267" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B268" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B269" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B270" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B271" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B272" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B280" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B281" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B282" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B283" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B284" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B285" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B294" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B295" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B296" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B297" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B298" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B299" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B302" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B303" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B304" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B305" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B306" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B307" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B313" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B314" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B315" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B316" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B322" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B323" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B324" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B325" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B326" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B327" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B329" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B330" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B331" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B332" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B333" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B334" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B337" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B338" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B339" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B341" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B342" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B345" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B346" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B349" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B350" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B353" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B354" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B357" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B358" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B361" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B362" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B365" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B366" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B372" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B373" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B374" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B375" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B378" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B379" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B380" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B381" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B384" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B385" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B387" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B388" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B395" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B396" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B397" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B398" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B399" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B400" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B401" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B402" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B407" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B408" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B409" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B410" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B411" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B412" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B417" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B418" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B419" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B420" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B421" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B422" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B423" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B424" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B427" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B428" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B429" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B430" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B431" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B432" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B435" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B442" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B443" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B444" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B445" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B446" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B447" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B448" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B449" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B450" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B451" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B452" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B453" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B454" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B457" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B458" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B459" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B460" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B461" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B462" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B463" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B464" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B465" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B466" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B467" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B468" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B469" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B470" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B471" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B472" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B479" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B480" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B481" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B482" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B483" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B486" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B487" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B488" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B489" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B492" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B493" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B494" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B495" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B496" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B497" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/UDA-MEMO.xlsx
+++ b/UDA-MEMO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="401" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="401" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tensorflow" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="351">
   <si>
     <r>
       <t xml:space="preserve">Now I'll write this out in code for the case of only one output unit. We'll also be using the sigmoid as the activation function </t>
@@ -31,7 +31,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="KaTeX_Main"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">f(h)f(h)f(h)</t>
     </r>
@@ -41,7 +40,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -62,7 +60,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">return</t>
     </r>
@@ -72,7 +69,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -82,7 +78,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -92,7 +87,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/(</t>
     </r>
@@ -102,7 +96,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -112,7 +105,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+np.exp(-x))</t>
     </r>
@@ -133,7 +125,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">return</t>
     </r>
@@ -143,7 +134,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> sigmoid(x) * (</t>
     </r>
@@ -153,7 +143,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -163,7 +152,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> - sigmoid(x))</t>
     </r>
@@ -181,7 +169,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0.1</t>
     </r>
@@ -191,7 +178,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -201,7 +187,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0.3</t>
     </r>
@@ -211,7 +196,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">])</t>
     </r>
@@ -229,7 +213,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0.2</t>
     </r>
@@ -247,7 +230,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0.8</t>
     </r>
@@ -257,7 +239,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -267,7 +248,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0.5</t>
     </r>
@@ -277,7 +257,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">])</t>
     </r>
@@ -295,7 +274,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0.5</t>
     </r>
@@ -313,7 +291,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -323,7 +300,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">]*weights[</t>
     </r>
@@ -333,7 +309,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -343,7 +318,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">] + x[</t>
     </r>
@@ -353,7 +327,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -363,7 +336,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">]*weights[</t>
     </r>
@@ -373,7 +345,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -383,7 +354,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">])</t>
     </r>
@@ -416,7 +386,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -426,7 +395,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">],</t>
     </r>
@@ -441,7 +409,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -451,7 +418,6 @@
         <color rgb="FF4F4F4F"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">]]</t>
     </r>
@@ -559,7 +525,7 @@
     <t>series_value</t>
   </si>
   <si>
-    <t>Out[379]: </t>
+    <t>Out[379]:</t>
   </si>
   <si>
     <t>0    10</t>
@@ -583,10 +549,10 @@
     <t>dataframe_value</t>
   </si>
   <si>
-    <t>Out[380]: </t>
-  </si>
-  <si>
-    <t>   seq</t>
+    <t>Out[380]:</t>
+  </si>
+  <si>
+    <t>seq</t>
   </si>
   <si>
     <t>0   10</t>
@@ -895,28 +861,25 @@
     <t>Out[231]: array([10, 11, 12])</t>
   </si>
   <si>
-    <t># pandasデータフレームから ＊上手く変換されない </t>
-  </si>
-  <si>
     <t>np.array(dataframe_value)</t>
   </si>
   <si>
-    <t>Out[359]: </t>
+    <t>Out[359]:</t>
   </si>
   <si>
     <t>array([[10],</t>
   </si>
   <si>
-    <t>       [11],</t>
-  </si>
-  <si>
-    <t>       [12]])</t>
+    <t>[11],</t>
+  </si>
+  <si>
+    <t>[12]])</t>
   </si>
   <si>
     <t>np.array(dataframe_value.values)</t>
   </si>
   <si>
-    <t>Out[395]: </t>
+    <t>Out[395]:</t>
   </si>
   <si>
     <t>#######################</t>
@@ -928,13 +891,13 @@
     <t>In [232]: pd.Series(list_value)</t>
   </si>
   <si>
-    <t>Out[232]: </t>
+    <t>Out[232]:</t>
   </si>
   <si>
     <t>In [233]: pd.Series(tuple_value)</t>
   </si>
   <si>
-    <t>Out[233]: </t>
+    <t>Out[233]:</t>
   </si>
   <si>
     <t># ディクショナリから</t>
@@ -943,7 +906,7 @@
     <t>In [234]: pd.Series(dict_value)</t>
   </si>
   <si>
-    <t>Out[234]: </t>
+    <t>Out[234]:</t>
   </si>
   <si>
     <t># セットから ＊エラーになる</t>
@@ -952,7 +915,7 @@
     <t>In [236]: pd.Series(ndarray_value)</t>
   </si>
   <si>
-    <t>Out[236]: </t>
+    <t>Out[236]:</t>
   </si>
   <si>
     <t>dtype: int32</t>
@@ -961,13 +924,13 @@
     <t>In [239]: pd.Series(dataframe_value.values.flatten())</t>
   </si>
   <si>
-    <t>Out[239]: </t>
+    <t>Out[239]:</t>
   </si>
   <si>
     <t>In [237]: pd.Series(dataframe_value)</t>
   </si>
   <si>
-    <t>Out[237]: </t>
+    <t>Out[237]:</t>
   </si>
   <si>
     <t>0    (s, e, q)</t>
@@ -994,7 +957,7 @@
     <t>In [240]: pd.DataFrame(list_value)</t>
   </si>
   <si>
-    <t>Out[240]: </t>
+    <t>Out[240]:</t>
   </si>
   <si>
     <t>0  10</t>
@@ -1015,13 +978,13 @@
     <t>In [244]: pd.DataFrame(ndarray_value)</t>
   </si>
   <si>
-    <t>Out[244]: </t>
+    <t>Out[244]:</t>
   </si>
   <si>
     <t>In [245]: pd.DataFrame(series_value)</t>
   </si>
   <si>
-    <t>Out[245]: </t>
+    <t>Out[245]:</t>
   </si>
   <si>
     <t>##########################</t>
@@ -1036,13 +999,13 @@
     <t>In [246]: ndarray_value.astype(np.string_)</t>
   </si>
   <si>
-    <t>Out[246]: </t>
-  </si>
-  <si>
-    <t>array([b'10', b'11', b'12'], </t>
-  </si>
-  <si>
-    <t>      dtype='|S11')</t>
+    <t>Out[246]:</t>
+  </si>
+  <si>
+    <t>array([b'10', b'11', b'12'],</t>
+  </si>
+  <si>
+    <t>dtype='|S11')</t>
   </si>
   <si>
     <t>##############################</t>
@@ -1054,7 +1017,7 @@
     <t>In [247]: series_value.astype(np.string_)</t>
   </si>
   <si>
-    <t>Out[247]: </t>
+    <t>Out[247]:</t>
   </si>
   <si>
     <t>0    b'10'</t>
@@ -1069,13 +1032,10 @@
     <t>dtype: bytes168</t>
   </si>
   <si>
-    <t>In [248]: dataframe_value.astype(np.string_) </t>
-  </si>
-  <si>
-    <t>Out[248]: </t>
-  </si>
-  <si>
-    <t>     seq</t>
+    <t>In [248]: dataframe_value.astype(np.string_)</t>
+  </si>
+  <si>
+    <t>Out[248]:</t>
   </si>
   <si>
     <t>0  b'10'</t>
@@ -1378,7 +1338,7 @@
     <t>In [302]: np.sum(dataframe_value)</t>
   </si>
   <si>
-    <t>Out[302]: </t>
+    <t>Out[302]:</t>
   </si>
   <si>
     <t>seq    33</t>
@@ -1448,12 +1408,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="TakaoPGothic"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1474,11 +1433,6 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="TakaoPGothic"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1505,48 +1459,41 @@
       <color rgb="FF58646D"/>
       <name val="TakaoPGothic"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="2"/>
       <name val="TakaoPGothic"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF2E3D49"/>
       <name val="TakaoPGothic"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF4F4F4F"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF4F4F4F"/>
       <name val="KaTeX_Main"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF4F4F4F"/>
       <name val="Lucida Console"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF4F4F4F"/>
       <name val="Lucida Console"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
@@ -1560,6 +1507,16 @@
     </font>
     <font>
       <sz val="16"/>
+      <name val="TakaoPGothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <name val="TakaoPGothic"/>
       <family val="2"/>
     </font>
@@ -1645,19 +1602,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1665,11 +1622,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1750,15 +1707,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>627480</xdr:colOff>
+      <xdr:colOff>654480</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>570960</xdr:colOff>
+      <xdr:colOff>597600</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1773,8 +1730,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="627480" y="6141960"/>
-          <a:ext cx="8856000" cy="3031200"/>
+          <a:off x="654480" y="6132960"/>
+          <a:ext cx="8855640" cy="3030840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1789,15 +1746,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>217440</xdr:colOff>
+      <xdr:colOff>244440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>289800</xdr:colOff>
+      <xdr:colOff>316440</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1812,8 +1769,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1027440" y="0"/>
-          <a:ext cx="4934160" cy="2327040"/>
+          <a:off x="1054440" y="0"/>
+          <a:ext cx="4933800" cy="2326680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1828,15 +1785,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
+      <xdr:colOff>175320</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>607320</xdr:colOff>
+      <xdr:colOff>633960</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1851,8 +1808,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="958320" y="3076920"/>
-          <a:ext cx="5320800" cy="2755440"/>
+          <a:off x="985320" y="3067920"/>
+          <a:ext cx="5320440" cy="2755080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1867,15 +1824,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>613080</xdr:colOff>
+      <xdr:colOff>640080</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>410400</xdr:colOff>
+      <xdr:colOff>437040</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1890,8 +1847,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10335960" y="4350960"/>
-          <a:ext cx="7899840" cy="4422600"/>
+          <a:off x="10362960" y="4341960"/>
+          <a:ext cx="7899480" cy="4422240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1906,15 +1863,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>474840</xdr:colOff>
+      <xdr:colOff>501840</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>193320</xdr:colOff>
+      <xdr:colOff>219960</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1929,8 +1886,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3715560" y="6847920"/>
-          <a:ext cx="1339200" cy="155880"/>
+          <a:off x="3742560" y="6838920"/>
+          <a:ext cx="1338840" cy="155520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1945,15 +1902,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>72000</xdr:colOff>
+      <xdr:colOff>99000</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>633600</xdr:colOff>
+      <xdr:colOff>660240</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1962,8 +1919,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1692360" y="9977760"/>
-          <a:ext cx="6233400" cy="3784320"/>
+          <a:off x="1719360" y="9968760"/>
+          <a:ext cx="6233040" cy="3783960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2093,15 +2050,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>429480</xdr:colOff>
+      <xdr:colOff>456480</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2110,8 +2067,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6101280" y="10085760"/>
-          <a:ext cx="2139840" cy="510840"/>
+          <a:off x="6128280" y="10076760"/>
+          <a:ext cx="2139480" cy="510480"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2171,15 +2128,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>527760</xdr:colOff>
+      <xdr:colOff>554760</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>236880</xdr:colOff>
+      <xdr:colOff>263520</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2188,8 +2145,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6199560" y="10672560"/>
-          <a:ext cx="2139840" cy="510840"/>
+          <a:off x="6226560" y="10663560"/>
+          <a:ext cx="2139480" cy="510480"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2255,15 +2212,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>13680</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>40680</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>532800</xdr:colOff>
+      <xdr:colOff>559440</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2272,8 +2229,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6495480" y="9509760"/>
-          <a:ext cx="2139840" cy="510840"/>
+          <a:off x="6522480" y="9500760"/>
+          <a:ext cx="2139480" cy="510480"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2313,15 +2270,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>35280</xdr:colOff>
+      <xdr:colOff>62280</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>554400</xdr:colOff>
+      <xdr:colOff>581040</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2330,8 +2287,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6517080" y="11607480"/>
-          <a:ext cx="2139840" cy="510840"/>
+          <a:off x="6544080" y="11598480"/>
+          <a:ext cx="2139480" cy="510480"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2391,15 +2348,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>275760</xdr:colOff>
+      <xdr:colOff>302760</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>379440</xdr:colOff>
+      <xdr:colOff>406080</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2408,8 +2365,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5947560" y="12890160"/>
-          <a:ext cx="4154760" cy="510840"/>
+          <a:off x="5974560" y="12881160"/>
+          <a:ext cx="4154400" cy="510480"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2501,15 +2458,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>249480</xdr:colOff>
+      <xdr:colOff>276480</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>545400</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>572040</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2524,8 +2481,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1059480" y="13413600"/>
-          <a:ext cx="4347360" cy="3696840"/>
+          <a:off x="1086480" y="13404600"/>
+          <a:ext cx="4347000" cy="3696480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2540,15 +2497,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>540000</xdr:colOff>
+      <xdr:colOff>567000</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>315720</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2563,8 +2520,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5401440" y="13432320"/>
-          <a:ext cx="4610520" cy="4120920"/>
+          <a:off x="5428440" y="13423320"/>
+          <a:ext cx="4610160" cy="4120560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2579,15 +2536,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>212040</xdr:colOff>
+      <xdr:colOff>239040</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>59760</xdr:colOff>
+      <xdr:colOff>86400</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2602,8 +2559,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1022040" y="17911800"/>
-          <a:ext cx="4709520" cy="3568320"/>
+          <a:off x="1049040" y="17902800"/>
+          <a:ext cx="4709160" cy="3567960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2618,15 +2575,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>270000</xdr:colOff>
+      <xdr:colOff>297000</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>493200</xdr:colOff>
+      <xdr:colOff>519840</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2641,8 +2598,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1080000" y="21753720"/>
-          <a:ext cx="6705360" cy="4844880"/>
+          <a:off x="1107000" y="21744720"/>
+          <a:ext cx="6705000" cy="4844520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2657,15 +2614,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>270000</xdr:colOff>
+      <xdr:colOff>297000</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>750240</xdr:colOff>
+      <xdr:colOff>776880</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2680,8 +2637,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1080000" y="26793360"/>
-          <a:ext cx="6962400" cy="3330360"/>
+          <a:off x="1107000" y="26784360"/>
+          <a:ext cx="6962040" cy="3330000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2696,15 +2653,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>57960</xdr:colOff>
+      <xdr:colOff>84960</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>313920</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2713,8 +2670,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10591200" y="14380560"/>
-          <a:ext cx="3470400" cy="1131120"/>
+          <a:off x="10618200" y="14371560"/>
+          <a:ext cx="3470040" cy="1130760"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -2755,15 +2712,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>128880</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2772,8 +2729,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10857240" y="16252200"/>
-          <a:ext cx="5450040" cy="1189080"/>
+          <a:off x="10884240" y="16243200"/>
+          <a:ext cx="5449680" cy="1188720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2856,15 +2813,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>168840</xdr:colOff>
+      <xdr:colOff>195840</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>121320</xdr:colOff>
+      <xdr:colOff>147960</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2873,8 +2830,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18804600" y="16594200"/>
-          <a:ext cx="3193560" cy="1111680"/>
+          <a:off x="18831600" y="16585200"/>
+          <a:ext cx="3193200" cy="1111320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2959,15 +2916,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>315000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>240840</xdr:colOff>
+      <xdr:colOff>267480</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2976,8 +2933,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14872680" y="9126000"/>
-          <a:ext cx="3193560" cy="1111680"/>
+          <a:off x="14899680" y="9117000"/>
+          <a:ext cx="3193200" cy="1111320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3044,15 +3001,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>559440</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>619200</xdr:colOff>
+      <xdr:colOff>645840</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3067,8 +3024,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14306760" y="10217520"/>
-          <a:ext cx="6568920" cy="2674800"/>
+          <a:off x="14333760" y="10208520"/>
+          <a:ext cx="6568560" cy="2674440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3083,15 +3040,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>205560</xdr:colOff>
+      <xdr:colOff>232560</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>114480</xdr:colOff>
+      <xdr:colOff>141120</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3106,8 +3063,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16410600" y="13138560"/>
-          <a:ext cx="5580720" cy="3351240"/>
+          <a:off x="16437600" y="13129560"/>
+          <a:ext cx="5580360" cy="3350880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3127,15 +3084,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>95400</xdr:colOff>
+      <xdr:colOff>122400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>270360</xdr:colOff>
+      <xdr:colOff>297000</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3150,8 +3107,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="905400" y="0"/>
-          <a:ext cx="5036760" cy="4294440"/>
+          <a:off x="932400" y="0"/>
+          <a:ext cx="5036400" cy="4294080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3166,15 +3123,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>767160</xdr:colOff>
+      <xdr:colOff>794160</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>523080</xdr:colOff>
+      <xdr:colOff>549720</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3183,8 +3140,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6438960" y="1703160"/>
-          <a:ext cx="6237720" cy="4861080"/>
+          <a:off x="6465960" y="1694160"/>
+          <a:ext cx="6237360" cy="4860720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3308,15 +3265,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>545760</xdr:colOff>
+      <xdr:colOff>572760</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>678240</xdr:colOff>
+      <xdr:colOff>704880</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3331,8 +3288,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6217560" y="4752720"/>
-          <a:ext cx="6614280" cy="2508480"/>
+          <a:off x="6244560" y="4743720"/>
+          <a:ext cx="6613920" cy="2508120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3347,15 +3304,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>718200</xdr:colOff>
+      <xdr:colOff>745200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>124560</xdr:colOff>
+      <xdr:colOff>151200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3364,8 +3321,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10441080" y="2037960"/>
-          <a:ext cx="1837080" cy="404280"/>
+          <a:off x="10468080" y="2028960"/>
+          <a:ext cx="1836720" cy="403920"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -3427,15 +3384,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>718200</xdr:colOff>
+      <xdr:colOff>745200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>124560</xdr:colOff>
+      <xdr:colOff>151200</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3444,8 +3401,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10441080" y="2647080"/>
-          <a:ext cx="1837080" cy="404280"/>
+          <a:off x="10468080" y="2638080"/>
+          <a:ext cx="1836720" cy="403920"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -3513,15 +3470,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>455760</xdr:colOff>
+      <xdr:colOff>482760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>385560</xdr:colOff>
+      <xdr:colOff>412200</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3530,8 +3487,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12609360" y="3458880"/>
-          <a:ext cx="5601600" cy="1115280"/>
+          <a:off x="12636360" y="3449880"/>
+          <a:ext cx="5601240" cy="1114920"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -3658,15 +3615,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>559440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>379800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:colOff>406440</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3681,8 +3638,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="532440" y="290880"/>
-          <a:ext cx="8759880" cy="4041360"/>
+          <a:off x="559440" y="281880"/>
+          <a:ext cx="8759520" cy="4041000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3697,15 +3654,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>559440</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>803160</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3720,8 +3677,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="532440" y="4872240"/>
-          <a:ext cx="7562880" cy="3042360"/>
+          <a:off x="559440" y="4863240"/>
+          <a:ext cx="7562520" cy="3042000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3736,15 +3693,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>559440</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>527760</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:colOff>554400</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3759,8 +3716,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="532440" y="8224920"/>
-          <a:ext cx="6477120" cy="2717640"/>
+          <a:off x="559440" y="8215920"/>
+          <a:ext cx="6476760" cy="2717280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3775,15 +3732,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>559440</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>191520</xdr:colOff>
+      <xdr:colOff>218160</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3798,8 +3755,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="532440" y="11120760"/>
-          <a:ext cx="8571600" cy="3803760"/>
+          <a:off x="559440" y="11111760"/>
+          <a:ext cx="8571240" cy="3803400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3814,15 +3771,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>571680</xdr:colOff>
+      <xdr:colOff>598680</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>32040</xdr:colOff>
+      <xdr:colOff>58680</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3837,8 +3794,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="571680" y="15688800"/>
-          <a:ext cx="9183240" cy="3755520"/>
+          <a:off x="598680" y="15679800"/>
+          <a:ext cx="9182880" cy="3755160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3853,15 +3810,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:colOff>559440</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>22320</xdr:colOff>
+      <xdr:colOff>48960</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3876,8 +3833,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="532440" y="19807560"/>
-          <a:ext cx="7592400" cy="4546440"/>
+          <a:off x="559440" y="19798560"/>
+          <a:ext cx="7592040" cy="4546080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3892,15 +3849,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:colOff>559440</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>527040</xdr:colOff>
+      <xdr:colOff>553680</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3915,8 +3872,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="532440" y="24531840"/>
-          <a:ext cx="7286760" cy="3460680"/>
+          <a:off x="559440" y="24522840"/>
+          <a:ext cx="7286400" cy="3460320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3931,15 +3888,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>559440</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>191160</xdr:colOff>
+      <xdr:colOff>217800</xdr:colOff>
       <xdr:row>201</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3954,8 +3911,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="532440" y="28341720"/>
-          <a:ext cx="5330520" cy="2727360"/>
+          <a:off x="559440" y="28332720"/>
+          <a:ext cx="5330160" cy="2727000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3970,15 +3927,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>559440</xdr:colOff>
       <xdr:row>202</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>171000</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:colOff>197640</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3993,8 +3950,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="532440" y="31237560"/>
-          <a:ext cx="7741080" cy="2498400"/>
+          <a:off x="559440" y="31228560"/>
+          <a:ext cx="7740720" cy="2498040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4009,15 +3966,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>559440</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>359640</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:colOff>386280</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4032,8 +3989,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1342440" y="33980760"/>
-          <a:ext cx="5499000" cy="1126800"/>
+          <a:off x="1369440" y="33971760"/>
+          <a:ext cx="5498640" cy="1126440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4048,15 +4005,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>559440</xdr:colOff>
       <xdr:row>231</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>674280</xdr:colOff>
+      <xdr:colOff>700920</xdr:colOff>
       <xdr:row>256</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4071,8 +4028,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1342440" y="35656920"/>
-          <a:ext cx="5003640" cy="3804120"/>
+          <a:off x="1369440" y="35647920"/>
+          <a:ext cx="5003280" cy="3803760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4087,15 +4044,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>87840</xdr:colOff>
+      <xdr:colOff>114840</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>52200</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>706680</xdr:colOff>
+      <xdr:colOff>733320</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4110,8 +4067,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10621080" y="214560"/>
-          <a:ext cx="16013880" cy="7508880"/>
+          <a:off x="10648080" y="206280"/>
+          <a:ext cx="16013520" cy="7538760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4126,15 +4083,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>659520</xdr:colOff>
+      <xdr:colOff>686160</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4149,8 +4106,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13029120" y="6586920"/>
-          <a:ext cx="10317600" cy="1126800"/>
+          <a:off x="13056840" y="6577920"/>
+          <a:ext cx="10316520" cy="1157400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4165,15 +4122,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>608760</xdr:colOff>
+      <xdr:colOff>635760</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>20880</xdr:colOff>
+      <xdr:colOff>48240</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4188,8 +4145,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25726680" y="0"/>
-          <a:ext cx="6704280" cy="6200640"/>
+          <a:off x="25753680" y="0"/>
+          <a:ext cx="6704640" cy="6230880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4204,15 +4161,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>55800</xdr:colOff>
-      <xdr:row>258</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:colOff>83520</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>124560</xdr:colOff>
+      <xdr:colOff>151200</xdr:colOff>
       <xdr:row>269</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4227,8 +4184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="865800" y="39666960"/>
-          <a:ext cx="7361280" cy="1888920"/>
+          <a:off x="893520" y="39658320"/>
+          <a:ext cx="7360200" cy="1919520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4243,15 +4200,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>560160</xdr:colOff>
       <xdr:row>306</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>305280</xdr:colOff>
+      <xdr:colOff>331920</xdr:colOff>
       <xdr:row>340</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4266,8 +4223,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1342440" y="47868120"/>
-          <a:ext cx="7065360" cy="5126760"/>
+          <a:off x="1370160" y="47859120"/>
+          <a:ext cx="7064280" cy="5157000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4282,15 +4239,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>6120</xdr:colOff>
+      <xdr:colOff>33120</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>316800</xdr:colOff>
+      <xdr:colOff>343440</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>49320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4299,8 +4256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10539360" y="9446040"/>
-          <a:ext cx="7602840" cy="14853600"/>
+          <a:off x="10566360" y="9437040"/>
+          <a:ext cx="7602480" cy="14853240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5213,15 +5170,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:colOff>31680</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>744840</xdr:colOff>
+      <xdr:colOff>771480</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5230,8 +5187,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14589360" y="10769400"/>
-          <a:ext cx="5601600" cy="1115280"/>
+          <a:off x="14616360" y="10760400"/>
+          <a:ext cx="5601240" cy="1114920"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -5327,15 +5284,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>108360</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>298440</xdr:colOff>
+      <xdr:colOff>325080</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5344,8 +5301,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14693040" y="15550200"/>
-          <a:ext cx="4241160" cy="1115280"/>
+          <a:off x="14720040" y="15541200"/>
+          <a:ext cx="4240800" cy="1114920"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -5553,15 +5510,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>758520</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>62640</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:colOff>89280</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5576,8 +5533,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15343200" y="12588480"/>
-          <a:ext cx="6596280" cy="2053440"/>
+          <a:off x="15370200" y="12579480"/>
+          <a:ext cx="6595920" cy="2053080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5592,15 +5549,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>127440</xdr:colOff>
+      <xdr:colOff>154440</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>570600</xdr:colOff>
+      <xdr:colOff>597240</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5615,8 +5572,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22814640" y="8542800"/>
-          <a:ext cx="8545680" cy="3371400"/>
+          <a:off x="22841640" y="8533800"/>
+          <a:ext cx="8545320" cy="3371040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5631,15 +5588,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>762480</xdr:colOff>
+      <xdr:colOff>789480</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>520920</xdr:colOff>
+      <xdr:colOff>547560</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5648,8 +5605,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31552200" y="10578240"/>
-          <a:ext cx="7050600" cy="1053000"/>
+          <a:off x="31579200" y="10569240"/>
+          <a:ext cx="7050240" cy="1052640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -5722,15 +5679,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>100440</xdr:colOff>
+      <xdr:colOff>127440</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>781200</xdr:colOff>
+      <xdr:colOff>807840</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5745,8 +5702,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20356920" y="15369120"/>
-          <a:ext cx="3111480" cy="2857320"/>
+          <a:off x="20383920" y="15360120"/>
+          <a:ext cx="3111120" cy="2856960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5761,15 +5718,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>109080</xdr:colOff>
+      <xdr:colOff>136080</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>743760</xdr:colOff>
+      <xdr:colOff>770400</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5778,8 +5735,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20365560" y="18514800"/>
-          <a:ext cx="3065400" cy="1009800"/>
+          <a:off x="20392560" y="18505800"/>
+          <a:ext cx="3065040" cy="1009440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5864,15 +5821,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
+      <xdr:colOff>100440</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>118800</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>685440</xdr:colOff>
+      <xdr:colOff>712080</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5887,8 +5844,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20329920" y="19574280"/>
-          <a:ext cx="6283800" cy="2571840"/>
+          <a:off x="20356920" y="19565280"/>
+          <a:ext cx="6283440" cy="2571480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5902,16 +5859,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>792000</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9000</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>616320</xdr:colOff>
+      <xdr:colOff>642960</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5920,8 +5877,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23479200" y="21293280"/>
-          <a:ext cx="3065400" cy="1009800"/>
+          <a:off x="23506200" y="21284280"/>
+          <a:ext cx="3065040" cy="1009440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5972,15 +5929,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>28080</xdr:colOff>
+      <xdr:colOff>55080</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:colOff>794880</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5995,8 +5952,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21094560" y="21719880"/>
-          <a:ext cx="8032680" cy="3429360"/>
+          <a:off x="21121560" y="21710880"/>
+          <a:ext cx="8032320" cy="3429000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6011,15 +5968,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>779760</xdr:colOff>
+      <xdr:colOff>806760</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:colOff>621000</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6028,8 +5985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29138760" y="22152600"/>
-          <a:ext cx="3865680" cy="1087920"/>
+          <a:off x="29165760" y="22143600"/>
+          <a:ext cx="3865320" cy="1087560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6090,15 +6047,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>757800</xdr:colOff>
+      <xdr:colOff>784800</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>572400</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:colOff>599040</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6107,8 +6064,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29116800" y="23986440"/>
-          <a:ext cx="3865680" cy="1309320"/>
+          <a:off x="29143800" y="23977440"/>
+          <a:ext cx="3865320" cy="1308960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6181,15 +6138,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>96480</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:colOff>123480</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>651960</xdr:colOff>
+      <xdr:colOff>678600</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>119160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6198,8 +6155,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26024760" y="25143120"/>
-          <a:ext cx="3796560" cy="618120"/>
+          <a:off x="26051760" y="25134120"/>
+          <a:ext cx="3796200" cy="617760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6250,15 +6207,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>661320</xdr:colOff>
+      <xdr:colOff>687960</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6273,8 +6230,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8912520" y="24667560"/>
-          <a:ext cx="7953840" cy="4363920"/>
+          <a:off x="8939520" y="24658560"/>
+          <a:ext cx="7953480" cy="4363560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6289,15 +6246,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>246600</xdr:colOff>
+      <xdr:colOff>273240</xdr:colOff>
       <xdr:row>210</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6312,8 +6269,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8912520" y="29270160"/>
-          <a:ext cx="7539120" cy="3115440"/>
+          <a:off x="8939520" y="29261160"/>
+          <a:ext cx="7538760" cy="3115080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6328,15 +6285,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>434160</xdr:colOff>
+      <xdr:colOff>460800</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6351,8 +6308,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8912520" y="32622840"/>
-          <a:ext cx="7726680" cy="3830400"/>
+          <a:off x="8939520" y="32613840"/>
+          <a:ext cx="7726320" cy="3830040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6372,15 +6329,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
+      <xdr:colOff>270000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>497160</xdr:colOff>
+      <xdr:colOff>523800</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6395,8 +6352,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="243000" y="0"/>
-          <a:ext cx="9194760" cy="4940280"/>
+          <a:off x="270000" y="0"/>
+          <a:ext cx="9194400" cy="4939920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6411,15 +6368,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>549720</xdr:colOff>
+      <xdr:colOff>576360</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6434,8 +6391,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="216000" y="4967280"/>
-          <a:ext cx="6836040" cy="4385880"/>
+          <a:off x="243000" y="4958280"/>
+          <a:ext cx="6835680" cy="4385520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6450,15 +6407,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>384840</xdr:colOff>
+      <xdr:colOff>411840</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>398880</xdr:colOff>
+      <xdr:colOff>425520</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6467,8 +6424,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7700040" y="5063400"/>
-          <a:ext cx="5703480" cy="5738040"/>
+          <a:off x="7727040" y="5054400"/>
+          <a:ext cx="5703120" cy="5737680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6841,15 +6798,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>189000</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>486360</xdr:colOff>
+      <xdr:colOff>513000</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6864,8 +6821,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="162000" y="10837440"/>
-          <a:ext cx="7639560" cy="4472640"/>
+          <a:off x="189000" y="10828440"/>
+          <a:ext cx="7639200" cy="4472280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6877,6 +6834,91 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>93960</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>132480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>250560</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>30600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="906480" y="15575400"/>
+          <a:ext cx="8284680" cy="2336760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>MNIST</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>28×28</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>ピクセルの手書き数字のデータセット。</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Deep Learning</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>界隈の人は、とりあえずベンチマークとして使うことが多い。</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6885,25 +6927,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>759600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:colOff>786600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>574200</xdr:colOff>
+      <xdr:colOff>600840</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="CustomShape 1"/>
+        <xdr:cNvPr id="66" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="759600" y="165240"/>
-          <a:ext cx="5182200" cy="2637360"/>
+          <a:off x="786600" y="156240"/>
+          <a:ext cx="5181840" cy="2637000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7066,19 +7108,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>198000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:colOff>266760</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>602280</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:colOff>670680</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="画像 27" descr=""/>
+        <xdr:cNvPr id="67" name="画像 27" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7089,8 +7131,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7191000" y="127440"/>
-          <a:ext cx="4468320" cy="1107000"/>
+          <a:off x="7259760" y="250560"/>
+          <a:ext cx="4467960" cy="1106640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7105,19 +7147,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>388800</xdr:colOff>
+      <xdr:colOff>415800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>568440</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="画像 30" descr=""/>
+        <xdr:cNvPr id="68" name="画像 30" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7128,8 +7170,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9007560" y="1269720"/>
-          <a:ext cx="4217040" cy="1865160"/>
+          <a:off x="9034560" y="1260720"/>
+          <a:ext cx="4216680" cy="1864800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7143,20 +7185,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>809280</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>23760</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>372240</xdr:colOff>
+      <xdr:colOff>398880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="画像 31" descr=""/>
+        <xdr:cNvPr id="69" name="画像 31" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7167,8 +7209,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6176880" y="1421280"/>
-          <a:ext cx="2814120" cy="1636560"/>
+          <a:off x="6203880" y="1412280"/>
+          <a:ext cx="2813760" cy="1636200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7183,19 +7225,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>388800</xdr:colOff>
+      <xdr:colOff>415800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>406440</xdr:colOff>
+      <xdr:colOff>433080</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="画像 33" descr=""/>
+        <xdr:cNvPr id="70" name="画像 33" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7206,8 +7248,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9007560" y="3229560"/>
-          <a:ext cx="6519960" cy="2101320"/>
+          <a:off x="9034560" y="3220560"/>
+          <a:ext cx="6519600" cy="2100960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7222,25 +7264,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>176040</xdr:colOff>
+      <xdr:colOff>203040</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>714600</xdr:colOff>
+      <xdr:colOff>741240</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="CustomShape 1"/>
+        <xdr:cNvPr id="71" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="176040" y="7333200"/>
-          <a:ext cx="6718680" cy="5347080"/>
+          <a:off x="203040" y="7324200"/>
+          <a:ext cx="6718320" cy="5346720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7541,19 +7583,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>85320</xdr:colOff>
+      <xdr:colOff>112320</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>226800</xdr:colOff>
+      <xdr:colOff>253440</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="画像 32" descr=""/>
+        <xdr:cNvPr id="72" name="画像 32" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7564,8 +7606,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="897840" y="4631040"/>
-          <a:ext cx="5509080" cy="542880"/>
+          <a:off x="924840" y="4622040"/>
+          <a:ext cx="5508720" cy="542520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7580,19 +7622,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>132480</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>385560</xdr:colOff>
+      <xdr:colOff>412200</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="画像 35" descr=""/>
+        <xdr:cNvPr id="73" name="画像 35" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7603,8 +7645,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="918000" y="5243040"/>
-          <a:ext cx="4022280" cy="495000"/>
+          <a:off x="945000" y="5234040"/>
+          <a:ext cx="4021920" cy="494640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7619,19 +7661,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
+      <xdr:colOff>176760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>157680</xdr:colOff>
+      <xdr:colOff>184320</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="画像 34" descr=""/>
+        <xdr:cNvPr id="74" name="画像 34" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7642,8 +7684,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4704480" y="5252400"/>
-          <a:ext cx="3259080" cy="389880"/>
+          <a:off x="4731480" y="5243400"/>
+          <a:ext cx="3258720" cy="389520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7658,19 +7700,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>596520</xdr:colOff>
+      <xdr:colOff>623520</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>271440</xdr:colOff>
+      <xdr:colOff>298080</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="画像 36" descr=""/>
+        <xdr:cNvPr id="75" name="画像 36" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7681,8 +7723,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1409040" y="4219560"/>
-          <a:ext cx="1791360" cy="294120"/>
+          <a:off x="1436040" y="4210560"/>
+          <a:ext cx="1791000" cy="293760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7697,25 +7739,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
+      <xdr:colOff>78480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
+      <xdr:colOff>63000</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="CustomShape 1"/>
+        <xdr:cNvPr id="76" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7044480" y="7891920"/>
-          <a:ext cx="5674680" cy="7596360"/>
+          <a:off x="7071480" y="7882920"/>
+          <a:ext cx="5674320" cy="7596000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8306,19 +8348,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>259920</xdr:colOff>
+      <xdr:colOff>286920</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>429840</xdr:colOff>
+      <xdr:colOff>456480</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="画像 37" descr=""/>
+        <xdr:cNvPr id="77" name="画像 37" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -8329,8 +8371,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="259920" y="12724200"/>
-          <a:ext cx="6350040" cy="3507480"/>
+          <a:off x="286920" y="12715200"/>
+          <a:ext cx="6349680" cy="3507120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8344,26 +8386,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>795960</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10080</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>633600</xdr:colOff>
+      <xdr:colOff>660240</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="CustomShape 1"/>
+        <xdr:cNvPr id="78" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6976080" y="16229160"/>
-          <a:ext cx="4714560" cy="1190520"/>
+          <a:off x="7003080" y="16220160"/>
+          <a:ext cx="4714200" cy="1190160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8391,19 +8433,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>751320</xdr:colOff>
+      <xdr:colOff>778320</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>310680</xdr:colOff>
+      <xdr:colOff>337320</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="画像 38" descr=""/>
+        <xdr:cNvPr id="79" name="画像 38" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -8414,8 +8456,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6931440" y="16454880"/>
-          <a:ext cx="8500320" cy="1623960"/>
+          <a:off x="6958440" y="16445880"/>
+          <a:ext cx="8499960" cy="1623600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8437,7 +8479,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A179" activeCellId="0" sqref="A179"/>
     </sheetView>
   </sheetViews>
@@ -8523,7 +8565,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H4" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H4" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -8606,7 +8648,7 @@
   </sheetPr>
   <dimension ref="B1:AK311"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K197" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K197" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AC216" activeCellId="0" sqref="AC216"/>
     </sheetView>
   </sheetViews>
@@ -8617,11 +8659,14 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK13" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8829,7 +8874,7 @@
   </sheetPr>
   <dimension ref="O46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
     </sheetView>
   </sheetViews>
@@ -8862,8 +8907,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E79" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q95" activeCellId="0" sqref="Q95"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8891,7 +8936,7 @@
   </sheetPr>
   <dimension ref="A2:B497"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A427" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A427" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F440" activeCellId="0" sqref="F440"/>
     </sheetView>
   </sheetViews>
@@ -9702,77 +9747,77 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9782,12 +9827,12 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9817,12 +9862,12 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9847,17 +9892,17 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9882,7 +9927,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9892,12 +9937,12 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9917,7 +9962,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9927,12 +9972,12 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9962,52 +10007,52 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10017,12 +10062,12 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10032,32 +10077,32 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10067,12 +10112,12 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10082,17 +10127,17 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10102,12 +10147,12 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10117,137 +10162,137 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="0" t="s">
-        <v>231</v>
+        <v>68</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="0" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="0" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10257,7 +10302,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10267,197 +10312,197 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="0" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="0" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="0" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="0" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="0" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="0" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="0" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="0" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="0" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10467,7 +10512,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10477,182 +10522,182 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="0" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="0" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="0" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="0" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="0" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="0" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="0" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="0" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="0" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="0" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B421" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B422" s="0" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B423" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B424" s="0" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B427" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B428" s="0" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B429" s="0" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B430" s="0" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B431" s="0" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B432" s="0" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B435" s="0" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10662,7 +10707,7 @@
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10672,152 +10717,152 @@
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B442" s="0" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B443" s="0" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B444" s="0" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B445" s="0" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B446" s="0" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B447" s="0" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B448" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B449" s="0" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B450" s="0" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B451" s="0" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B452" s="0" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B453" s="0" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B454" s="0" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B457" s="0" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B458" s="0" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B459" s="0" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B460" s="0" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B461" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B462" s="0" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B463" s="0" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B464" s="0" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B465" s="0" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B466" s="0" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B467" s="0" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B468" s="0" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B469" s="0" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="0" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B471" s="0" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10832,7 +10877,7 @@
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10842,92 +10887,92 @@
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="0" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="0" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="0" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B482" s="0" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B483" s="0" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B486" s="0" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B487" s="0" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B488" s="0" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B489" s="0" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B492" s="0" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B493" s="0" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B494" s="0" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B495" s="0" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B496" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B497" s="0" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/UDA-MEMO.xlsx
+++ b/UDA-MEMO.xlsx
@@ -14769,6 +14769,258 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>516240</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>24120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>116640</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>157680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="画像 47" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2374920" y="19681920"/>
+          <a:ext cx="8401320" cy="6473520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>163800</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>147960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>515160</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>23040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="画像 48" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11060280" y="19654920"/>
+          <a:ext cx="7552080" cy="4426920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>348840</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>118800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>423720</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>132480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="TextShape 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11245320" y="18812880"/>
+          <a:ext cx="6475680" cy="826560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>最適化の方法については、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>GradientDescentOptimizer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>という最急降下法を用いた最適化クラス（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Optimizer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>）だけを使用していた。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>TensorFlow</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>には、これを含めて８種類の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Optimizer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>が用意</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14779,7 +15031,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A179" activeCellId="0" sqref="A179"/>
     </sheetView>
   </sheetViews>
@@ -14862,7 +15114,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H4" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -14942,7 +15194,7 @@
   </sheetPr>
   <dimension ref="B1:AK311"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K197" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K197" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AC216" activeCellId="0" sqref="AC216"/>
     </sheetView>
   </sheetViews>
@@ -15165,7 +15417,7 @@
   </sheetPr>
   <dimension ref="O46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
     </sheetView>
   </sheetViews>
@@ -15195,8 +15447,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K37" activeCellId="0" sqref="K37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C107" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M131" activeCellId="0" sqref="M131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15222,7 +15474,7 @@
   </sheetPr>
   <dimension ref="A2:B497"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A427" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A427" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F440" activeCellId="0" sqref="F440"/>
     </sheetView>
   </sheetViews>

--- a/UDA-MEMO.xlsx
+++ b/UDA-MEMO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="955" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="789" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="tensorflow" sheetId="1" state="visible" r:id="rId2"/>
@@ -1442,7 +1442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="TakaoPGothic"/>
@@ -1499,6 +1499,11 @@
       <color rgb="FF000000"/>
       <name val="TakaoPGothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1644,19 +1649,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1664,11 +1669,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1752,16 +1757,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>681480</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21600</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>623880</xdr:colOff>
+      <xdr:colOff>650520</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1776,8 +1781,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="681480" y="6123960"/>
-          <a:ext cx="7499880" cy="3030120"/>
+          <a:off x="708480" y="6114960"/>
+          <a:ext cx="7499520" cy="3029760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1792,15 +1797,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>271440</xdr:colOff>
+      <xdr:colOff>298440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>342720</xdr:colOff>
+      <xdr:colOff>369360</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1815,8 +1820,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="958320" y="0"/>
-          <a:ext cx="4193640" cy="2325960"/>
+          <a:off x="985320" y="0"/>
+          <a:ext cx="4193280" cy="2325600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1831,15 +1836,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
+      <xdr:colOff>229320</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>660240</xdr:colOff>
+      <xdr:colOff>686880</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1854,8 +1859,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="889200" y="3058920"/>
-          <a:ext cx="4580280" cy="2754360"/>
+          <a:off x="916200" y="3049920"/>
+          <a:ext cx="4579920" cy="2754000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1869,16 +1874,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>667080</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7200</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>463320</xdr:colOff>
+      <xdr:colOff>489960</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1893,8 +1898,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8911800" y="4332960"/>
-          <a:ext cx="6666840" cy="4421520"/>
+          <a:off x="8938800" y="4323960"/>
+          <a:ext cx="6666480" cy="4421160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1909,15 +1914,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>528840</xdr:colOff>
+      <xdr:colOff>555840</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>246240</xdr:colOff>
+      <xdr:colOff>272880</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1932,8 +1937,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3277080" y="6829920"/>
-          <a:ext cx="1091520" cy="154800"/>
+          <a:off x="3304080" y="6820920"/>
+          <a:ext cx="1091160" cy="154440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1948,15 +1953,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>126000</xdr:colOff>
+      <xdr:colOff>153000</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>686520</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25920</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1965,8 +1970,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1500120" y="9959760"/>
-          <a:ext cx="5369760" cy="3783240"/>
+          <a:off x="1527120" y="9950760"/>
+          <a:ext cx="5369400" cy="3782880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2129,15 +2134,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>483480</xdr:colOff>
+      <xdr:colOff>510480</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>191520</xdr:colOff>
+      <xdr:colOff>218160</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2146,8 +2151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5292720" y="10067760"/>
-          <a:ext cx="1769400" cy="509760"/>
+          <a:off x="5319720" y="10058760"/>
+          <a:ext cx="1769040" cy="509400"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2216,15 +2221,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>581760</xdr:colOff>
+      <xdr:colOff>608760</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>289800</xdr:colOff>
+      <xdr:colOff>316440</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2233,8 +2238,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5391000" y="10654560"/>
-          <a:ext cx="1769400" cy="509760"/>
+          <a:off x="5418000" y="10645560"/>
+          <a:ext cx="1769040" cy="509400"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2312,15 +2317,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>585720</xdr:colOff>
+      <xdr:colOff>612360</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2329,8 +2334,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5564160" y="9491760"/>
-          <a:ext cx="1892160" cy="509760"/>
+          <a:off x="5591160" y="9482760"/>
+          <a:ext cx="1891800" cy="509400"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2373,15 +2378,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>607320</xdr:colOff>
+      <xdr:colOff>633960</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2390,8 +2395,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5585760" y="11589480"/>
-          <a:ext cx="1892160" cy="509760"/>
+          <a:off x="5612760" y="11580480"/>
+          <a:ext cx="1891800" cy="509400"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2460,15 +2465,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>329760</xdr:colOff>
+      <xdr:colOff>356760</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>432360</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:colOff>459000</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2477,8 +2482,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5139000" y="12872160"/>
-          <a:ext cx="3538080" cy="509760"/>
+          <a:off x="5166000" y="12863160"/>
+          <a:ext cx="3537720" cy="509400"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2591,15 +2596,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>303480</xdr:colOff>
+      <xdr:colOff>330480</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>598320</xdr:colOff>
+      <xdr:colOff>624960</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2614,8 +2619,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="990360" y="13395600"/>
-          <a:ext cx="3730320" cy="3695760"/>
+          <a:off x="1017360" y="13386600"/>
+          <a:ext cx="3729960" cy="3695400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2630,15 +2635,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>594000</xdr:colOff>
+      <xdr:colOff>621000</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>342000</xdr:colOff>
+      <xdr:colOff>368640</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2653,8 +2658,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4716360" y="13414320"/>
-          <a:ext cx="3870360" cy="4119840"/>
+          <a:off x="4743360" y="13405320"/>
+          <a:ext cx="3870000" cy="4119480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2669,15 +2674,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266040</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>112680</xdr:colOff>
+      <xdr:colOff>139320</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2692,8 +2697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952920" y="17893800"/>
-          <a:ext cx="3969000" cy="3567240"/>
+          <a:off x="979920" y="17884800"/>
+          <a:ext cx="3968640" cy="3566880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2708,15 +2713,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>351000</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>546120</xdr:colOff>
+      <xdr:colOff>572760</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2731,8 +2736,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1010880" y="21735720"/>
-          <a:ext cx="5718600" cy="4843800"/>
+          <a:off x="1037880" y="21726720"/>
+          <a:ext cx="5718240" cy="4843440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2747,15 +2752,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>351000</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>115920</xdr:colOff>
+      <xdr:colOff>142560</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2770,8 +2775,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1010880" y="26775360"/>
-          <a:ext cx="5975640" cy="3329280"/>
+          <a:off x="1037880" y="26766360"/>
+          <a:ext cx="5975280" cy="3328920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2786,15 +2791,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>111960</xdr:colOff>
+      <xdr:colOff>138960</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>340200</xdr:colOff>
+      <xdr:colOff>366840</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2803,8 +2808,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9043560" y="14362560"/>
-          <a:ext cx="2976480" cy="1130040"/>
+          <a:off x="9070560" y="14353560"/>
+          <a:ext cx="2976120" cy="1129680"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -2851,15 +2856,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>405000</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>155160</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:colOff>181800</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2868,8 +2873,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9309600" y="16234200"/>
-          <a:ext cx="4586760" cy="1188000"/>
+          <a:off x="9336600" y="16225200"/>
+          <a:ext cx="4586400" cy="1187640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2976,15 +2981,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>222840</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>174240</xdr:colOff>
+      <xdr:colOff>200880</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2993,8 +2998,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16025400" y="16576200"/>
-          <a:ext cx="2699640" cy="1110600"/>
+          <a:off x="16052400" y="16567200"/>
+          <a:ext cx="2699280" cy="1110240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3094,15 +3099,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>342000</xdr:colOff>
+      <xdr:colOff>369000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>320400</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3111,8 +3116,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12709080" y="9108000"/>
-          <a:ext cx="2700000" cy="1110600"/>
+          <a:off x="12736080" y="9099000"/>
+          <a:ext cx="2699640" cy="1110240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3185,15 +3190,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
+      <xdr:colOff>613440</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>672120</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>11880</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3208,8 +3213,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12266280" y="10199520"/>
-          <a:ext cx="5582520" cy="2673720"/>
+          <a:off x="12293280" y="10190520"/>
+          <a:ext cx="5582160" cy="2673360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3224,15 +3229,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>259560</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>167400</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:colOff>194040</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3247,8 +3252,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14000760" y="13120560"/>
-          <a:ext cx="4717440" cy="3350160"/>
+          <a:off x="14027760" y="13111560"/>
+          <a:ext cx="4717080" cy="3349800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3263,15 +3268,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>205920</xdr:colOff>
+      <xdr:colOff>232560</xdr:colOff>
       <xdr:row>223</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3286,8 +3291,125 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1374120" y="30459600"/>
-          <a:ext cx="6389280" cy="4277520"/>
+          <a:off x="1401120" y="30450600"/>
+          <a:ext cx="6388920" cy="4277160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>106920</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>73440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>8280</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>141120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="画像 50" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12474000" y="39128400"/>
+          <a:ext cx="7459200" cy="4029840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>472680</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>325440</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>96120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="画像 51" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16275240" y="35511840"/>
+          <a:ext cx="6036120" cy="3486600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76680</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>16920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>468720</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>122400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="画像 52" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9008280" y="34194960"/>
+          <a:ext cx="7263000" cy="4677480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3307,19 +3429,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>149400</xdr:colOff>
+      <xdr:colOff>176400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>323280</xdr:colOff>
+      <xdr:colOff>349920</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="画像 8" descr=""/>
+        <xdr:cNvPr id="26" name="画像 8" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3330,8 +3452,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="836280" y="0"/>
-          <a:ext cx="4296240" cy="4293360"/>
+          <a:off x="863280" y="0"/>
+          <a:ext cx="4295880" cy="4293000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3346,25 +3468,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>133920</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>576000</xdr:colOff>
+      <xdr:colOff>602640</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CustomShape 1"/>
+        <xdr:cNvPr id="27" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5630400" y="1685160"/>
-          <a:ext cx="5251320" cy="4860000"/>
+          <a:off x="5657400" y="1676160"/>
+          <a:ext cx="5250960" cy="4859640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3515,19 +3637,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>599760</xdr:colOff>
+      <xdr:colOff>626760</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>70560</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="画像 20" descr=""/>
+        <xdr:cNvPr id="28" name="画像 20" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3538,8 +3660,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5409000" y="4734720"/>
-          <a:ext cx="5627880" cy="2507400"/>
+          <a:off x="5436000" y="4725720"/>
+          <a:ext cx="5627520" cy="2507040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3554,25 +3676,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>85320</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:colOff>112320</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>177480</xdr:colOff>
+      <xdr:colOff>204120</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="CustomShape 1"/>
+        <xdr:cNvPr id="29" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9016920" y="2019960"/>
-          <a:ext cx="1466280" cy="403200"/>
+          <a:off x="9043920" y="2010960"/>
+          <a:ext cx="1465920" cy="402840"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -3643,25 +3765,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>85320</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:colOff>112320</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>177480</xdr:colOff>
+      <xdr:colOff>204120</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CustomShape 1"/>
+        <xdr:cNvPr id="30" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9016920" y="2629080"/>
-          <a:ext cx="1466280" cy="403200"/>
+          <a:off x="9043920" y="2620080"/>
+          <a:ext cx="1465920" cy="402840"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -3741,25 +3863,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>509760</xdr:colOff>
+      <xdr:colOff>536760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>438480</xdr:colOff>
+      <xdr:colOff>465120</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="CustomShape 1"/>
+        <xdr:cNvPr id="31" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10815480" y="3440880"/>
-          <a:ext cx="4738320" cy="1114200"/>
+          <a:off x="10842480" y="3431880"/>
+          <a:ext cx="4737960" cy="1113840"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -3922,19 +4044,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
+      <xdr:colOff>613440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>432720</xdr:colOff>
+      <xdr:colOff>459360</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="画像 9" descr=""/>
+        <xdr:cNvPr id="32" name="画像 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3945,8 +4067,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="586440" y="272880"/>
-          <a:ext cx="7403760" cy="4040280"/>
+          <a:off x="613440" y="263880"/>
+          <a:ext cx="7403400" cy="4039920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3961,19 +4083,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
+      <xdr:colOff>613440</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>72360</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="画像 10" descr=""/>
+        <xdr:cNvPr id="33" name="画像 10" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3984,8 +4106,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="586440" y="4854240"/>
-          <a:ext cx="6329880" cy="3041280"/>
+          <a:off x="613440" y="4845240"/>
+          <a:ext cx="6329520" cy="3040920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4000,19 +4122,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
+      <xdr:colOff>613440</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>580680</xdr:colOff>
+      <xdr:colOff>607320</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="画像 11" descr=""/>
+        <xdr:cNvPr id="34" name="画像 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4023,8 +4145,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="586440" y="8206920"/>
-          <a:ext cx="5490720" cy="2716560"/>
+          <a:off x="613440" y="8197920"/>
+          <a:ext cx="5490360" cy="2716200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4039,19 +4161,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
+      <xdr:colOff>613440</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>244440</xdr:colOff>
+      <xdr:colOff>271080</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="画像 12" descr=""/>
+        <xdr:cNvPr id="35" name="画像 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4062,8 +4184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="586440" y="11102760"/>
-          <a:ext cx="7215480" cy="3802680"/>
+          <a:off x="613440" y="11093760"/>
+          <a:ext cx="7215120" cy="3802320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4078,19 +4200,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>625680</xdr:colOff>
+      <xdr:colOff>652680</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>84960</xdr:colOff>
+      <xdr:colOff>111600</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="画像 13" descr=""/>
+        <xdr:cNvPr id="36" name="画像 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4101,8 +4223,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="625680" y="15670800"/>
-          <a:ext cx="7704000" cy="3754440"/>
+          <a:off x="652680" y="15661800"/>
+          <a:ext cx="7703640" cy="3754080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4117,19 +4239,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
+      <xdr:colOff>613440</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="画像 14" descr=""/>
+        <xdr:cNvPr id="37" name="画像 14" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4140,8 +4262,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="586440" y="19789560"/>
-          <a:ext cx="6359400" cy="4545360"/>
+          <a:off x="613440" y="19780560"/>
+          <a:ext cx="6359040" cy="4545000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4156,19 +4278,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
+      <xdr:colOff>613440</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>579960</xdr:colOff>
+      <xdr:colOff>606600</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="画像 15" descr=""/>
+        <xdr:cNvPr id="38" name="画像 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4179,8 +4301,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="586440" y="24513840"/>
-          <a:ext cx="6176880" cy="3459600"/>
+          <a:off x="613440" y="24504840"/>
+          <a:ext cx="6176520" cy="3459240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4195,19 +4317,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
+      <xdr:colOff>613440</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>244080</xdr:colOff>
+      <xdr:colOff>270720</xdr:colOff>
       <xdr:row>201</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="画像 16" descr=""/>
+        <xdr:cNvPr id="39" name="画像 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4218,8 +4340,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="586440" y="28323720"/>
-          <a:ext cx="4466880" cy="2726280"/>
+          <a:off x="613440" y="28314720"/>
+          <a:ext cx="4466520" cy="2725920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4234,19 +4356,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
+      <xdr:colOff>613440</xdr:colOff>
       <xdr:row>202</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>223920</xdr:colOff>
+      <xdr:colOff>250560</xdr:colOff>
       <xdr:row>218</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="画像 17" descr=""/>
+        <xdr:cNvPr id="40" name="画像 17" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4257,8 +4379,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="586440" y="31219560"/>
-          <a:ext cx="6508080" cy="2497320"/>
+          <a:off x="613440" y="31210560"/>
+          <a:ext cx="6507720" cy="2496960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4273,19 +4395,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
+      <xdr:colOff>613440</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>412560</xdr:colOff>
+      <xdr:colOff>439200</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="画像 18" descr=""/>
+        <xdr:cNvPr id="41" name="画像 18" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4296,8 +4418,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1273320" y="33962760"/>
-          <a:ext cx="4635720" cy="1125720"/>
+          <a:off x="1300320" y="33953760"/>
+          <a:ext cx="4635360" cy="1125360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4312,19 +4434,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
+      <xdr:colOff>613440</xdr:colOff>
       <xdr:row>231</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>39960</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>256</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="画像 19" descr=""/>
+        <xdr:cNvPr id="42" name="画像 19" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4335,8 +4457,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1273320" y="35638920"/>
-          <a:ext cx="4263120" cy="3803040"/>
+          <a:off x="1300320" y="35629920"/>
+          <a:ext cx="4262760" cy="3802680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4351,19 +4473,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>141840</xdr:colOff>
+      <xdr:colOff>168840</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>72360</xdr:colOff>
+      <xdr:colOff>99000</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="図 18" descr=""/>
+        <xdr:cNvPr id="43" name="図 18" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4374,8 +4496,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9073440" y="197280"/>
-          <a:ext cx="13672080" cy="7538040"/>
+          <a:off x="9100440" y="188280"/>
+          <a:ext cx="13671720" cy="7537680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4390,19 +4512,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>119880</xdr:colOff>
+      <xdr:colOff>146880</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>25200</xdr:colOff>
+      <xdr:colOff>51840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="図 19" descr=""/>
+        <xdr:cNvPr id="44" name="図 19" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4413,8 +4535,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11112840" y="6568920"/>
-          <a:ext cx="8837280" cy="1156680"/>
+          <a:off x="11139840" y="6559920"/>
+          <a:ext cx="8836920" cy="1156320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4428,20 +4550,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>662760</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>2880</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="図 20" descr=""/>
+        <xdr:cNvPr id="45" name="図 20" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4452,8 +4574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21961800" y="0"/>
-          <a:ext cx="5595480" cy="6230160"/>
+          <a:off x="21988800" y="0"/>
+          <a:ext cx="5595120" cy="6229800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4468,19 +4590,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>110520</xdr:colOff>
+      <xdr:colOff>137520</xdr:colOff>
       <xdr:row>257</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>177480</xdr:colOff>
+      <xdr:colOff>204120</xdr:colOff>
       <xdr:row>269</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 2" descr=""/>
+        <xdr:cNvPr id="46" name="図 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4491,8 +4613,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="797400" y="39649320"/>
-          <a:ext cx="6250680" cy="1918800"/>
+          <a:off x="824400" y="39640320"/>
+          <a:ext cx="6250320" cy="1918440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4507,19 +4629,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>587160</xdr:colOff>
+      <xdr:colOff>614160</xdr:colOff>
       <xdr:row>306</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>358200</xdr:colOff>
+      <xdr:colOff>384840</xdr:colOff>
       <xdr:row>340</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="図 3" descr=""/>
+        <xdr:cNvPr id="47" name="図 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4530,8 +4652,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1274040" y="47850120"/>
-          <a:ext cx="5954760" cy="5156280"/>
+          <a:off x="1301040" y="47841120"/>
+          <a:ext cx="5954400" cy="5155920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4546,25 +4668,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>60120</xdr:colOff>
+      <xdr:colOff>87120</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>369720</xdr:colOff>
+      <xdr:colOff>396360</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CustomShape 1"/>
+        <xdr:cNvPr id="48" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8991720" y="9428040"/>
-          <a:ext cx="6493320" cy="14852520"/>
+          <a:off x="9018720" y="9419040"/>
+          <a:ext cx="6492960" cy="14852160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5798,25 +5920,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>58680</xdr:colOff>
+      <xdr:colOff>85680</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>110520</xdr:colOff>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CustomShape 1"/>
+        <xdr:cNvPr id="49" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12425760" y="10751400"/>
-          <a:ext cx="4861440" cy="1114200"/>
+          <a:off x="12452760" y="10742400"/>
+          <a:ext cx="4861080" cy="1113840"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -5939,25 +6061,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>162360</xdr:colOff>
+      <xdr:colOff>189360</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>351360</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CustomShape 1"/>
+        <xdr:cNvPr id="50" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12529440" y="15532200"/>
-          <a:ext cx="3624480" cy="1114200"/>
+          <a:off x="12556440" y="15523200"/>
+          <a:ext cx="3624120" cy="1113840"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -6240,19 +6362,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>125280</xdr:colOff>
+      <xdr:colOff>152280</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>115560</xdr:colOff>
+      <xdr:colOff>142200</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="画像 5" descr=""/>
+        <xdr:cNvPr id="51" name="画像 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6263,8 +6385,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13179600" y="12570480"/>
-          <a:ext cx="5486760" cy="2052360"/>
+          <a:off x="13206600" y="12561480"/>
+          <a:ext cx="5486400" cy="2052000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6279,19 +6401,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>181440</xdr:colOff>
+      <xdr:colOff>208440</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>52200</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>623520</xdr:colOff>
+      <xdr:colOff>650160</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="画像 39" descr=""/>
+        <xdr:cNvPr id="52" name="画像 39" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6302,8 +6424,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19419120" y="8524800"/>
-          <a:ext cx="7313040" cy="3370320"/>
+          <a:off x="19446120" y="8515800"/>
+          <a:ext cx="7312680" cy="3369960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6318,25 +6440,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>156600</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>573840</xdr:colOff>
+      <xdr:colOff>600480</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1"/>
+        <xdr:cNvPr id="53" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26925120" y="10560240"/>
-          <a:ext cx="5940720" cy="1051920"/>
+          <a:off x="26952120" y="10551240"/>
+          <a:ext cx="5940360" cy="1051560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6424,19 +6546,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>154440</xdr:colOff>
+      <xdr:colOff>181440</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>34200</xdr:colOff>
+      <xdr:colOff>60840</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="画像 40" descr=""/>
+        <xdr:cNvPr id="54" name="画像 40" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6447,8 +6569,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17331120" y="15351120"/>
-          <a:ext cx="2628000" cy="2856240"/>
+          <a:off x="17358120" y="15342120"/>
+          <a:ext cx="2627640" cy="2855880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6463,25 +6585,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>163080</xdr:colOff>
+      <xdr:colOff>190080</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>109440</xdr:colOff>
+      <xdr:colOff>136080</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CustomShape 1"/>
+        <xdr:cNvPr id="55" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17339760" y="18496800"/>
-          <a:ext cx="2694600" cy="1008720"/>
+          <a:off x="17366760" y="18487800"/>
+          <a:ext cx="2694240" cy="1008360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6581,19 +6703,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>127440</xdr:colOff>
+      <xdr:colOff>154440</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="画像 41" descr=""/>
+        <xdr:cNvPr id="56" name="画像 41" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6604,8 +6726,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17304120" y="19556280"/>
-          <a:ext cx="5420160" cy="2570760"/>
+          <a:off x="17331120" y="19547280"/>
+          <a:ext cx="5419800" cy="2570400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6620,25 +6742,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>36000</xdr:colOff>
+      <xdr:colOff>63000</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>102600</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>669240</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="CustomShape 1"/>
+        <xdr:cNvPr id="57" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19960920" y="21275280"/>
-          <a:ext cx="2694240" cy="1008720"/>
+          <a:off x="19987920" y="21266280"/>
+          <a:ext cx="2693880" cy="1008360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6695,19 +6817,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>82080</xdr:colOff>
+      <xdr:colOff>109080</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>133920</xdr:colOff>
+      <xdr:colOff>160560</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="画像 42" descr=""/>
+        <xdr:cNvPr id="58" name="画像 42" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6718,8 +6840,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17945640" y="21701880"/>
-          <a:ext cx="6922800" cy="3428280"/>
+          <a:off x="17972640" y="21692880"/>
+          <a:ext cx="6922440" cy="3427920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6734,25 +6856,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>33480</xdr:colOff>
+      <xdr:colOff>60480</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>647280</xdr:colOff>
+      <xdr:colOff>673920</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="CustomShape 1"/>
+        <xdr:cNvPr id="59" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24768000" y="22134600"/>
-          <a:ext cx="3362040" cy="1086840"/>
+          <a:off x="24795000" y="22125600"/>
+          <a:ext cx="3361680" cy="1086480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6828,25 +6950,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>124560</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>625320</xdr:colOff>
+      <xdr:colOff>651960</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="CustomShape 1"/>
+        <xdr:cNvPr id="60" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24859080" y="23968440"/>
-          <a:ext cx="3249000" cy="1308240"/>
+          <a:off x="24886080" y="23959440"/>
+          <a:ext cx="3248640" cy="1307880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6937,25 +7059,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
+      <xdr:colOff>177480</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="CustomShape 1"/>
+        <xdr:cNvPr id="61" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22136400" y="25125120"/>
-          <a:ext cx="3303000" cy="617040"/>
+          <a:off x="22163400" y="25116120"/>
+          <a:ext cx="3302640" cy="616680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7012,19 +7134,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>53640</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="画像 43" descr=""/>
+        <xdr:cNvPr id="62" name="画像 43" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7035,8 +7157,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7611480" y="24649560"/>
-          <a:ext cx="6843960" cy="4362840"/>
+          <a:off x="7638480" y="24640560"/>
+          <a:ext cx="6843600" cy="4362480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7051,19 +7173,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>299520</xdr:colOff>
+      <xdr:colOff>326160</xdr:colOff>
       <xdr:row>210</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="画像 44" descr=""/>
+        <xdr:cNvPr id="63" name="画像 44" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7074,8 +7196,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7611480" y="29252160"/>
-          <a:ext cx="6429240" cy="3114360"/>
+          <a:off x="7638480" y="29243160"/>
+          <a:ext cx="6428880" cy="3114000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7090,19 +7212,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>487080</xdr:colOff>
+      <xdr:colOff>513720</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="画像 45" descr=""/>
+        <xdr:cNvPr id="64" name="画像 45" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7113,8 +7235,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7611480" y="32604840"/>
-          <a:ext cx="6616800" cy="3829320"/>
+          <a:off x="7638480" y="32595840"/>
+          <a:ext cx="6616440" cy="3828960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7134,19 +7256,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>297000</xdr:colOff>
+      <xdr:colOff>324000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>550080</xdr:colOff>
+      <xdr:colOff>576720</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="画像 24" descr=""/>
+        <xdr:cNvPr id="65" name="画像 24" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7157,8 +7279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="297000" y="0"/>
-          <a:ext cx="7810560" cy="4939200"/>
+          <a:off x="324000" y="0"/>
+          <a:ext cx="7810200" cy="4938840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7173,19 +7295,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>270000</xdr:colOff>
+      <xdr:colOff>297000</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>602640</xdr:colOff>
+      <xdr:colOff>629280</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="画像 25" descr=""/>
+        <xdr:cNvPr id="66" name="画像 25" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7196,8 +7318,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="270000" y="4949280"/>
-          <a:ext cx="5829120" cy="4384800"/>
+          <a:off x="297000" y="4940280"/>
+          <a:ext cx="5828760" cy="4384440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7212,25 +7334,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>438840</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:colOff>465840</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>451800</xdr:colOff>
+      <xdr:colOff>478440</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="CustomShape 1"/>
+        <xdr:cNvPr id="67" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6622200" y="5045400"/>
-          <a:ext cx="4822560" cy="5736960"/>
+          <a:off x="6649200" y="5036400"/>
+          <a:ext cx="4822200" cy="5736600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7729,19 +7851,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>539280</xdr:colOff>
+      <xdr:colOff>565920</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="画像 26" descr=""/>
+        <xdr:cNvPr id="68" name="画像 26" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7752,8 +7874,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="216000" y="10819440"/>
-          <a:ext cx="6506640" cy="4471560"/>
+          <a:off x="243000" y="10810440"/>
+          <a:ext cx="6506280" cy="4471200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7768,25 +7890,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>120960</xdr:colOff>
+      <xdr:colOff>147960</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>276840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="CustomShape 1"/>
+        <xdr:cNvPr id="69" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="807840" y="15566400"/>
-          <a:ext cx="7026480" cy="2336040"/>
+          <a:off x="834840" y="15557400"/>
+          <a:ext cx="7026120" cy="2335680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7884,25 +8006,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>126720</xdr:colOff>
+      <xdr:colOff>153720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>627120</xdr:colOff>
+      <xdr:colOff>653760</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="CustomShape 1"/>
+        <xdr:cNvPr id="70" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="813600" y="147240"/>
-          <a:ext cx="4543920" cy="2636280"/>
+          <a:off x="840600" y="138240"/>
+          <a:ext cx="4543560" cy="2635920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8101,19 +8223,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>320760</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>9720</xdr:colOff>
+      <xdr:colOff>36360</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="画像 27" descr=""/>
+        <xdr:cNvPr id="71" name="画像 27" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -8124,8 +8246,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6398640" y="241560"/>
-          <a:ext cx="3838320" cy="1105920"/>
+          <a:off x="6425640" y="232560"/>
+          <a:ext cx="3837960" cy="1105560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8140,19 +8262,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>442800</xdr:colOff>
+      <xdr:colOff>469800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>594720</xdr:colOff>
+      <xdr:colOff>621360</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="画像 30" descr=""/>
+        <xdr:cNvPr id="72" name="画像 30" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -8163,8 +8285,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7921800" y="1251720"/>
-          <a:ext cx="3587040" cy="1864080"/>
+          <a:off x="7948800" y="1242720"/>
+          <a:ext cx="3586680" cy="1863720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8179,19 +8301,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>425160</xdr:colOff>
+      <xdr:colOff>451800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="画像 31" descr=""/>
+        <xdr:cNvPr id="73" name="画像 31" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -8202,8 +8324,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5468400" y="1403280"/>
-          <a:ext cx="2435760" cy="1635480"/>
+          <a:off x="5495400" y="1394280"/>
+          <a:ext cx="2435400" cy="1635120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8218,19 +8340,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>442800</xdr:colOff>
+      <xdr:colOff>469800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>459360</xdr:colOff>
+      <xdr:colOff>486000</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="画像 33" descr=""/>
+        <xdr:cNvPr id="74" name="画像 33" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -8241,8 +8363,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7921800" y="3211560"/>
-          <a:ext cx="5513040" cy="2100240"/>
+          <a:off x="7948800" y="3202560"/>
+          <a:ext cx="5512680" cy="2099880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8257,25 +8379,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>230040</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>257040</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>80280</xdr:colOff>
+      <xdr:colOff>106920</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="CustomShape 1"/>
+        <xdr:cNvPr id="75" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="230040" y="7315200"/>
-          <a:ext cx="5955120" cy="5346000"/>
+          <a:off x="257040" y="7306200"/>
+          <a:ext cx="5954760" cy="5345640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8672,19 +8794,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>139320</xdr:colOff>
+      <xdr:colOff>166320</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>279720</xdr:colOff>
+      <xdr:colOff>306360</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="画像 32" descr=""/>
+        <xdr:cNvPr id="76" name="画像 32" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -8695,8 +8817,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="826200" y="4613040"/>
-          <a:ext cx="4871160" cy="541800"/>
+          <a:off x="853200" y="4604040"/>
+          <a:ext cx="4870800" cy="541440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8711,19 +8833,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>159480</xdr:colOff>
+      <xdr:colOff>186480</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>438480</xdr:colOff>
+      <xdr:colOff>465120</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="画像 35" descr=""/>
+        <xdr:cNvPr id="77" name="画像 35" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -8734,8 +8856,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="846360" y="5225040"/>
-          <a:ext cx="3635640" cy="493920"/>
+          <a:off x="873360" y="5216040"/>
+          <a:ext cx="3635280" cy="493560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8750,19 +8872,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>203760</xdr:colOff>
+      <xdr:colOff>230760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>210600</xdr:colOff>
+      <xdr:colOff>237240</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="画像 34" descr=""/>
+        <xdr:cNvPr id="78" name="画像 34" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -8773,8 +8895,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4247280" y="5234400"/>
-          <a:ext cx="2755080" cy="388800"/>
+          <a:off x="4274280" y="5225400"/>
+          <a:ext cx="2754720" cy="388440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8789,19 +8911,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>650520</xdr:colOff>
+      <xdr:colOff>677520</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>324360</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="画像 36" descr=""/>
+        <xdr:cNvPr id="79" name="画像 36" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -8812,8 +8934,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1337400" y="4201560"/>
-          <a:ext cx="1656360" cy="293040"/>
+          <a:off x="1364400" y="4192560"/>
+          <a:ext cx="1656000" cy="292680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8828,25 +8950,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>132480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>115920</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="CustomShape 1"/>
+        <xdr:cNvPr id="80" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210360" y="7873920"/>
-          <a:ext cx="4793040" cy="7595280"/>
+          <a:off x="6237360" y="7864920"/>
+          <a:ext cx="4792680" cy="7594920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9539,19 +9661,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
+      <xdr:colOff>340920</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>482760</xdr:colOff>
+      <xdr:colOff>509400</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="画像 37" descr=""/>
+        <xdr:cNvPr id="81" name="画像 37" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -9562,8 +9684,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="313920" y="12706200"/>
-          <a:ext cx="5586480" cy="3506400"/>
+          <a:off x="340920" y="12697200"/>
+          <a:ext cx="5586120" cy="3506040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9578,25 +9700,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>37080</xdr:colOff>
+      <xdr:colOff>64080</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>686520</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25920</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="CustomShape 1"/>
+        <xdr:cNvPr id="82" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6141960" y="16211160"/>
-          <a:ext cx="4084560" cy="1189440"/>
+          <a:off x="6168960" y="16202160"/>
+          <a:ext cx="4084200" cy="1189080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9627,19 +9749,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>118080</xdr:colOff>
+      <xdr:colOff>145080</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>363600</xdr:colOff>
+      <xdr:colOff>390240</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="画像 38" descr=""/>
+        <xdr:cNvPr id="83" name="画像 38" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -9650,8 +9772,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6222960" y="16436880"/>
-          <a:ext cx="7116120" cy="1622880"/>
+          <a:off x="6249960" y="16427880"/>
+          <a:ext cx="7115760" cy="1622520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9666,19 +9788,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>309600</xdr:colOff>
+      <xdr:colOff>336240</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="画像 46" descr=""/>
+        <xdr:cNvPr id="84" name="画像 46" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -9689,8 +9811,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7506000" y="5843160"/>
-          <a:ext cx="5091840" cy="3613680"/>
+          <a:off x="7533000" y="5834160"/>
+          <a:ext cx="5091480" cy="3613320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9705,19 +9827,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>543240</xdr:colOff>
+      <xdr:colOff>570240</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>143280</xdr:colOff>
+      <xdr:colOff>169920</xdr:colOff>
       <xdr:row>154</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="画像 47" descr=""/>
+        <xdr:cNvPr id="85" name="画像 47" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -9728,8 +9850,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8709120" y="18709200"/>
-          <a:ext cx="7157880" cy="6473160"/>
+          <a:off x="8736120" y="18700200"/>
+          <a:ext cx="7157520" cy="6472800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9744,19 +9866,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>190800</xdr:colOff>
+      <xdr:colOff>217800</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>568440</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="画像 48" descr=""/>
+        <xdr:cNvPr id="86" name="画像 48" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -9767,8 +9889,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9730800" y="19645920"/>
-          <a:ext cx="6534720" cy="4426560"/>
+          <a:off x="9757800" y="19636920"/>
+          <a:ext cx="6534360" cy="4426200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9783,25 +9905,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>375840</xdr:colOff>
+      <xdr:colOff>402840</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>450360</xdr:colOff>
+      <xdr:colOff>477000</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="CustomShape 1"/>
+        <xdr:cNvPr id="87" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9915840" y="18803880"/>
-          <a:ext cx="5571000" cy="826200"/>
+          <a:off x="9942840" y="18794880"/>
+          <a:ext cx="5570640" cy="825840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9913,8 +10035,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C197" activeCellId="0" sqref="C197"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O235" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O222" activeCellId="0" sqref="O222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -9975,11 +10097,16 @@
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
